--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1351.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1351.xlsx
@@ -9276,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.0222949953458751</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.000415639442152345</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.03861396</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0007198693942164179</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.07978967635311487</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0006131100129822639</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.08641325970292063</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0003844966124573062</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0222949953458751</v>
+        <v>0.04013099162257519</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000415639442152345</v>
+        <v>0.001246918326457035</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03861396</v>
+        <v>0.064372766954837</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007198693942164179</v>
+        <v>0.002159608182649254</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.09861396</v>
+        <v>0.1375684075053705</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007127419744717009</v>
+        <v>0.00227327177120974</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1586139600000001</v>
+        <v>0.210764048055904</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007740531120606644</v>
+        <v>0.002117262924165935</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.04013099162257519</v>
+        <v>0.04086855418357588</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001246918326457035</v>
+        <v>0.00317697614918299</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.05639360458489183</v>
+        <v>0.0697308914170852</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00145887701654356</v>
+        <v>0.003186148911556781</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1375684075053705</v>
+        <v>0.1475716220480353</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001657148379233956</v>
+        <v>0.003187291259180504</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.196246854373538</v>
+        <v>0.2281857670145163</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001365272099038528</v>
+        <v>0.003185723331069512</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.03789871726577634</v>
+        <v>0.04451591563826059</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002199901102337874</v>
+        <v>0.004765464223774485</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.064372766954837</v>
+        <v>0.07608213616215874</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00200013953294841</v>
+        <v>0.004779223367335172</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.144465318984791</v>
+        <v>0.1607376905018914</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002219328330881129</v>
+        <v>0.004780936888770757</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.210764048055904</v>
+        <v>0.2502386634128834</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001714251878251825</v>
+        <v>0.004778584996604268</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0386297950790991</v>
+        <v>0.05243540417725527</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002933201469783832</v>
+        <v>0.006353952298365979</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.06980127756227976</v>
+        <v>0.08245940791137359</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00291775403308712</v>
+        <v>0.006372297823113562</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1535438892338529</v>
+        <v>0.1765211469580875</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002959104441174838</v>
+        <v>0.006374582518361009</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2254697348590727</v>
+        <v>0.2737106047931412</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002730544198077055</v>
+        <v>0.006371446662139024</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.0222949953458751</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.04621862063819505</v>
+        <v>0.05370427949746111</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00366650183722979</v>
+        <v>0.007942440372957474</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.07310361073804482</v>
+        <v>0.0891498645558557</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.0036471925413589</v>
+        <v>0.007965372278891953</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1596197853931658</v>
+        <v>0.1886927543900341</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003698880551468548</v>
+        <v>0.007968228147951261</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2381571075104344</v>
+        <v>0.290914938673188</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003413180247596319</v>
+        <v>0.007964308327673779</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.05066879049509024</v>
+        <v>0.0603998012957792</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004399802204675748</v>
+        <v>0.009530928447548969</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.07762095465065651</v>
+        <v>0.09324066398673093</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00437663104963068</v>
+        <v>0.009558446734670344</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1690003699313588</v>
+        <v>0.197723275771142</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004438656661762258</v>
+        <v>0.009561873777541514</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2518612859743348</v>
+        <v>0.3056650125709214</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004095816297115583</v>
+        <v>0.009557169993208535</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04898390120181063</v>
+        <v>0.05859922926911074</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005133102572121706</v>
+        <v>0.01111941652214046</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.08105665140891778</v>
+        <v>0.09801896409512516</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005106069557902459</v>
+        <v>0.01115152119044873</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1780930053170615</v>
+        <v>0.2064834740748215</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005178432772055967</v>
+        <v>0.01115551940713177</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2622892886365392</v>
+        <v>0.3230741740042394</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004778452346634847</v>
+        <v>0.01115003165874329</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.05616754931038222</v>
+        <v>0.06537982311435686</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005866402939567664</v>
+        <v>0.01270790459673196</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.08481404312163178</v>
+        <v>0.1006719227721643</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005835508066174239</v>
+        <v>0.01274459564622712</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1852050540189029</v>
+        <v>0.2139441122744832</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005918208882349676</v>
+        <v>0.01274916503672202</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2725481338828132</v>
+        <v>0.3315557704910399</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005461088396154111</v>
+        <v>0.01274289332427805</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.05622333137283098</v>
+        <v>0.06581884252841871</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006599703307013623</v>
+        <v>0.01429639267132345</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.08849647189760153</v>
+        <v>0.1032866979089741</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00656494657444602</v>
+        <v>0.01433767010200552</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1916438785055125</v>
+        <v>0.2204759533435378</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006657984992643385</v>
+        <v>0.01434281066631227</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2853448400989225</v>
+        <v>0.3434231495492213</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006143724445673375</v>
+        <v>0.0143357549898128</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.05315484394118289</v>
+        <v>0.06099354720819745</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00733300367445958</v>
+        <v>0.01588488074591495</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.09070727984563003</v>
+        <v>0.1061504473966806</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0072943850827178</v>
+        <v>0.01593074455778391</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1990168412455194</v>
+        <v>0.2266497602553956</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007397761102937096</v>
+        <v>0.01593645629590252</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2917864256706322</v>
+        <v>0.3475896586966808</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006826360495192639</v>
+        <v>0.01592861665534756</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.06196568356746397</v>
+        <v>0.0669811968505942</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008066304041905538</v>
+        <v>0.01747336882050644</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.09394980907452043</v>
+        <v>0.1083503291264096</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00802382359098958</v>
+        <v>0.0175238190135623</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2047313047075531</v>
+        <v>0.2318362959834673</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008137537213230807</v>
+        <v>0.01753010192549278</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3011799089837079</v>
+        <v>0.3543686454513169</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007508996544711903</v>
+        <v>0.01752147832088231</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05765944680370017</v>
+        <v>0.06385905115251016</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008799604409351496</v>
+        <v>0.01906185689509794</v>
       </c>
       <c r="J77" t="n">
-        <v>0.09672740169307568</v>
+        <v>0.1097735009892869</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008753262099261359</v>
+        <v>0.01911689346934069</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2106946313602426</v>
+        <v>0.2342063235011634</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008877313323524516</v>
+        <v>0.01912374755508303</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3109323084239151</v>
+        <v>0.3603734573310271</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008191632594231165</v>
+        <v>0.01911433998641707</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.05823973020191747</v>
+        <v>0.06570436981084644</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009532904776797455</v>
+        <v>0.02065034496968943</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09944339981009888</v>
+        <v>0.1120071208764385</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00948270060753314</v>
+        <v>0.02070996792511908</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2156141836722176</v>
+        <v>0.2401306057818945</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009617089433818223</v>
+        <v>0.02071739318467328</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3200506423770192</v>
+        <v>0.3654174418537095</v>
       </c>
       <c r="O78" t="n">
-        <v>0.008874268643750429</v>
+        <v>0.02070720165195182</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.06171013031414192</v>
+        <v>0.06359441252250424</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01026620514424341</v>
+        <v>0.02223883304428093</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1023011455343931</v>
+        <v>0.1140383466789903</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01021213911580492</v>
+        <v>0.02230304238089747</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2223973241121071</v>
+        <v>0.2420799057990712</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01035686554411193</v>
+        <v>0.02231103881426353</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3269419292287858</v>
+        <v>0.3729139465372621</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009556904693269693</v>
+        <v>0.02230006331748658</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.06607424369239943</v>
+        <v>0.06552520394367882</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01099950551168937</v>
+        <v>0.02382732111887242</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1053039809747614</v>
+        <v>0.115046519589334</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0109415776240767</v>
+        <v>0.02389611683667586</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2256514151485405</v>
+        <v>0.2467182462848649</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01109664165440565</v>
+        <v>0.02390468444385379</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3352131873649803</v>
+        <v>0.37753354621044</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01023954074278896</v>
+        <v>0.02389292498302134</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.06833566688871603</v>
+        <v>0.06843046983116566</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01173280587913533</v>
+        <v>0.02541580919346392</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1068552482400068</v>
+        <v>0.1162257591327056</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01167101613234848</v>
+        <v>0.02548919129245425</v>
       </c>
       <c r="L81" t="n">
-        <v>0.229383819250147</v>
+        <v>0.2498863218937655</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01183641776469935</v>
+        <v>0.02549833007344404</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3408714351713682</v>
+        <v>0.3801728076581294</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01092217679230822</v>
+        <v>0.02548578664855609</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.06949799645511771</v>
+        <v>0.06830442947164547</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01246610624658129</v>
+        <v>0.02700429726805541</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1095582894389324</v>
+        <v>0.1178593809937313</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01240045464062026</v>
+        <v>0.02708226574823264</v>
       </c>
       <c r="L82" t="n">
-        <v>0.234701898885556</v>
+        <v>0.2508581422754086</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01257619387499306</v>
+        <v>0.02709197570303429</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3501236910337145</v>
+        <v>0.3856620086939616</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01160481284182749</v>
+        <v>0.02707864831409085</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.06756482894363043</v>
+        <v>0.07514134637928722</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01319940661402725</v>
+        <v>0.02859278534264691</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1107164466803412</v>
+        <v>0.1189381035358961</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01312989314889204</v>
+        <v>0.02867534020401103</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2395130165233967</v>
+        <v>0.2532138506812602</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01331596998528677</v>
+        <v>0.02868562133262454</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3566769733377855</v>
+        <v>0.3894707723186789</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01228744889134675</v>
+        <v>0.02867150997962561</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.06953976090628018</v>
+        <v>0.07193548406825986</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0139327069814732</v>
+        <v>0.0301812734172384</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1134330620730363</v>
+        <v>0.1208526451226853</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01385933165716382</v>
+        <v>0.03026841465978942</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2436245346322984</v>
+        <v>0.2562335903627858</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01405574609558048</v>
+        <v>0.03027926696221479</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3629383004693462</v>
+        <v>0.3964687215330241</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01297008494086601</v>
+        <v>0.03026437164516036</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.06842638889509296</v>
+        <v>0.07268110605273231</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01466600734891916</v>
+        <v>0.0317697614918299</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1150114777258206</v>
+        <v>0.1221937241175841</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0145887701654356</v>
+        <v>0.03186148911556781</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2461438156808906</v>
+        <v>0.2598975045714512</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01479552220587419</v>
+        <v>0.03187291259180505</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3655146908141619</v>
+        <v>0.3978254793377394</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01365272099038528</v>
+        <v>0.03185723331069511</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.06922830946209475</v>
+        <v>0.07437247584687355</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01539930771636512</v>
+        <v>0.0333582495664214</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1160550357474974</v>
+        <v>0.1235520588840776</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01531820867370738</v>
+        <v>0.0334545635713462</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2481782221378022</v>
+        <v>0.262485736558722</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0155352983161679</v>
+        <v>0.0334665582213953</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3703131627579983</v>
+        <v>0.4029106687335674</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01433535703990454</v>
+        <v>0.03345009497622987</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06994911915931155</v>
+        <v>0.07500385696485251</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01613260808381108</v>
+        <v>0.03494673764101289</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1177670782468695</v>
+        <v>0.1239183677856511</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01604764718197916</v>
+        <v>0.03504763802712459</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2525351164716628</v>
+        <v>0.264678429576064</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01627507442646161</v>
+        <v>0.03506020385098555</v>
       </c>
       <c r="N87" t="n">
-        <v>0.377440734686621</v>
+        <v>0.4075939127212509</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01501799308942381</v>
+        <v>0.03504295664176463</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06759241453876934</v>
+        <v>0.07556951292083812</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01686590845125703</v>
+        <v>0.03653522571560438</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1189509473327402</v>
+        <v>0.1252833691857898</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01677708569025094</v>
+        <v>0.03664071248290299</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2536218611511016</v>
+        <v>0.2660557268749428</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01701485053675532</v>
+        <v>0.0366538494805758</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3810044249857951</v>
+        <v>0.410344834301532</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01570062913894307</v>
+        <v>0.03663581830729939</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.07416179215249405</v>
+        <v>0.07106370722899936</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01759920881870299</v>
+        <v>0.03812371379019588</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1193099851139123</v>
+        <v>0.1254377814479788</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01750652419852272</v>
+        <v>0.03823378693868137</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2576458186447479</v>
+        <v>0.268497771706824</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01775462664704903</v>
+        <v>0.03824749511016606</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3843112520412864</v>
+        <v>0.4099330564751535</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01638326518846233</v>
+        <v>0.03822867997283414</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.07166084855251174</v>
+        <v>0.07948070340350516</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01833250918614895</v>
+        <v>0.03971220186478737</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1205475336991891</v>
+        <v>0.1261723229357035</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0182359627067945</v>
+        <v>0.03982686139445977</v>
       </c>
       <c r="L90" t="n">
-        <v>0.260014351421231</v>
+        <v>0.2706847073231735</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01849440275734274</v>
+        <v>0.03984114073975631</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3883682342388602</v>
+        <v>0.4131282022428578</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0170659012379816</v>
+        <v>0.03982154163836889</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.07609318029084837</v>
+        <v>0.07681476495852449</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01906580955359491</v>
+        <v>0.04130068993937887</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1218669351973736</v>
+        <v>0.1271777120124489</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01896540121506628</v>
+        <v>0.04141993585023816</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2603348219491802</v>
+        <v>0.270496676975457</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01923417886763645</v>
+        <v>0.04143478636934655</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3946823899642822</v>
+        <v>0.4171998946053874</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01774853728750086</v>
+        <v>0.04141440330390365</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.07646238391952995</v>
+        <v>0.07906015540822625</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01979910992104087</v>
+        <v>0.04288917801397036</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1228715317172686</v>
+        <v>0.1279446670417002</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01969483972333806</v>
+        <v>0.04301301030601654</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2622145926972246</v>
+        <v>0.27281382391514</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01997395497793016</v>
+        <v>0.04302843199893681</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3960607376033173</v>
+        <v>0.4191177565634849</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01843117333702013</v>
+        <v>0.04300726496943841</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.07577205599058241</v>
+        <v>0.08026198324515038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02053241028848683</v>
+        <v>0.04447766608856186</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1227646653676774</v>
+        <v>0.1273639063869427</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02042427823160984</v>
+        <v>0.04460608476179494</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2643610261339937</v>
+        <v>0.2734162913936883</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02071373108822387</v>
+        <v>0.04462207762852707</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3964102955417316</v>
+        <v>0.4199514111178928</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01911380938653939</v>
+        <v>0.04460012663497317</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.07602579305603178</v>
+        <v>0.07826198020913208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02126571065593278</v>
+        <v>0.04606615416315335</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1233496782574031</v>
+        <v>0.128745533909674</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02115371673988162</v>
+        <v>0.04619915921757332</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2650814847281169</v>
+        <v>0.2751368150107409</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02145350719851758</v>
+        <v>0.04621572325811731</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3999380821652903</v>
+        <v>0.421528096111808</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01979644543605865</v>
+        <v>0.04619298830050792</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.07622719166790405</v>
+        <v>0.07723600685483553</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02199901102337874</v>
+        <v>0.04765464223774484</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1241299124952485</v>
+        <v>0.1280342768163474</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0218831552481534</v>
+        <v>0.04779223367335172</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2659833309482233</v>
+        <v>0.2743180023303254</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02219328330881129</v>
+        <v>0.04780936888770757</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4040511158597586</v>
+        <v>0.41928799619542</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02047908148557791</v>
+        <v>0.04778584996604267</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.07037984837822515</v>
+        <v>0.07316122445122071</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0227323113908247</v>
+        <v>0.04924313031233634</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1252087101900169</v>
+        <v>0.1276515679943362</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02261259375642518</v>
+        <v>0.04938530812913011</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2652739272629421</v>
+        <v>0.2744513664511347</v>
       </c>
       <c r="M96" t="n">
-        <v>0.022933059419105</v>
+        <v>0.04940301451729782</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4030564150109025</v>
+        <v>0.4210114406212812</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02116171753509718</v>
+        <v>0.04937871163157743</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.07148735973902115</v>
+        <v>0.0720406562917517</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02346561175827066</v>
+        <v>0.05083161838692783</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1251894134505112</v>
+        <v>0.1273926251442378</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02334203226469696</v>
+        <v>0.0509783825849085</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2664606361409028</v>
+        <v>0.2736210669772914</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02367283552939871</v>
+        <v>0.05099666014688807</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4055609980044872</v>
+        <v>0.4166857118067252</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02184435358461644</v>
+        <v>0.05097157329711219</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.07555332230231797</v>
+        <v>0.07987732566989249</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02419891212571661</v>
+        <v>0.05242010646151933</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1246753643855345</v>
+        <v>0.127762339956163</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02407147077296874</v>
+        <v>0.05257145704068689</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2663508200507347</v>
+        <v>0.27143756898791</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02441261163969241</v>
+        <v>0.05259030577647833</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4061718832262781</v>
+        <v>0.4162268193063852</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02252698963413571</v>
+        <v>0.05256443496264694</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.07158133262014163</v>
+        <v>0.07467425587910717</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02493221249316257</v>
+        <v>0.05400859453611082</v>
       </c>
       <c r="J99" t="n">
-        <v>0.12496990510389</v>
+        <v>0.1273656041202227</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02480090928124052</v>
+        <v>0.05416453149646528</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2667518414610669</v>
+        <v>0.271611337562105</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02515238774998612</v>
+        <v>0.05418395140606858</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4105960890620406</v>
+        <v>0.4188507726748939</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02320962568365497</v>
+        <v>0.0541572966281817</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.07556238651308803</v>
+        <v>0.07943447021285976</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02566551286060853</v>
+        <v>0.05559708261070231</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1257750221608102</v>
+        <v>0.1272073093265277</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0255303477895123</v>
+        <v>0.05575760595224367</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2669526504765133</v>
+        <v>0.2720528377789908</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02589216386027984</v>
+        <v>0.05577759703565883</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4095406338975405</v>
+        <v>0.4159735814668839</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02389226173317423</v>
+        <v>0.05575015829371645</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.07546536173806309</v>
+        <v>0.07416099196461433</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02639881322805449</v>
+        <v>0.05718557068529381</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1251845582356402</v>
+        <v>0.1267923472651891</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02625978629778408</v>
+        <v>0.05735068040802207</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2654450268246408</v>
+        <v>0.2700725347176818</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02663193997057354</v>
+        <v>0.05737124266524908</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4110125361185428</v>
+        <v>0.4162112552369881</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0245748977826935</v>
+        <v>0.05734301995925122</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.07829585024081745</v>
+        <v>0.07585684442783489</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02713211359550045</v>
+        <v>0.0587740587598853</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1256038472357432</v>
+        <v>0.1255256096263174</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02698922480605586</v>
+        <v>0.05894375486380046</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2654794015507529</v>
+        <v>0.2687808934572926</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02737171608086726</v>
+        <v>0.05896488829483934</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4087186439538338</v>
+        <v>0.4121798035398393</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02525753383221276</v>
+        <v>0.05893588162478597</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.07106188512944454</v>
+        <v>0.07852505089598551</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02786541396294641</v>
+        <v>0.0603625468344768</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1249409297418449</v>
+        <v>0.1251119881000238</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02771866331432764</v>
+        <v>0.06053682931957884</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2631065370331791</v>
+        <v>0.2671883790769375</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02811149219116096</v>
+        <v>0.06055853392442959</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4099460644398701</v>
+        <v>0.4089952359300704</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02594016988173203</v>
+        <v>0.06052874329032071</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.07177149951203782</v>
+        <v>0.07116863466253021</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02859871433039236</v>
+        <v>0.0619510349090683</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1247038463346712</v>
+        <v>0.1244563743764189</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02844810182259942</v>
+        <v>0.06212990377535724</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2631771956502482</v>
+        <v>0.2683054566557311</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02885126830145467</v>
+        <v>0.06215217955401984</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4069982692863935</v>
+        <v>0.4071735619623138</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02662280593125129</v>
+        <v>0.06212160495585548</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06943272649669073</v>
+        <v>0.07079061902093305</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02933201469783832</v>
+        <v>0.06353952298365979</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1243006375949482</v>
+        <v>0.1246636601456136</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0291775403308712</v>
+        <v>0.06372297823113562</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2607421397802895</v>
+        <v>0.2652425912727878</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02959104441174838</v>
+        <v>0.06374582518361009</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4099967264498382</v>
+        <v>0.4072307911912026</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02730544198077055</v>
+        <v>0.06371446662139023</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.07005359919149665</v>
+        <v>0.07639402726465809</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03006531506528428</v>
+        <v>0.06512801105825129</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1230393441034017</v>
+        <v>0.1239387370977189</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02990697883914298</v>
+        <v>0.06531605268691401</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2601521318016323</v>
+        <v>0.263610248007222</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03033082052204209</v>
+        <v>0.06533947081320035</v>
       </c>
       <c r="N106" t="n">
-        <v>0.406162903886639</v>
+        <v>0.4073829331713695</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02798807803028982</v>
+        <v>0.065307328286925</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.07264215070454909</v>
+        <v>0.07598188268716934</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03079861543273024</v>
+        <v>0.06671649913284279</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1227280064407577</v>
+        <v>0.1234864969228455</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03063641734741476</v>
+        <v>0.0669091271426924</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2580579340926055</v>
+        <v>0.2629188919381483</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0310705966323358</v>
+        <v>0.0669331164427906</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4069182695532307</v>
+        <v>0.4036459974574473</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02867071407980908</v>
+        <v>0.06690018995245975</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07620641414394144</v>
+        <v>0.07655720858193087</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0315319158001762</v>
+        <v>0.06830498720743428</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1230746651877421</v>
+        <v>0.1221118313111044</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03136585585568654</v>
+        <v>0.0685022015984708</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2560103090315384</v>
+        <v>0.262778988144681</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03181037274262951</v>
+        <v>0.06852676207238084</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4069842914060477</v>
+        <v>0.400535993604069</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02935335012932835</v>
+        <v>0.0684930516179945</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07275442261776714</v>
+        <v>0.0741230282424067</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03226521616762215</v>
+        <v>0.06989347528202577</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1219873609250809</v>
+        <v>0.1221196319526063</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03209529436395832</v>
+        <v>0.07009527605424919</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2521600189967602</v>
+        <v>0.2603010017059346</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03255014885292323</v>
+        <v>0.0701204077019711</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4031824374015252</v>
+        <v>0.3970689311658668</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03003598617884761</v>
+        <v>0.07008591328352926</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.07429420923411964</v>
+        <v>0.0746823649620609</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03299851653506811</v>
+        <v>0.07148196335661726</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1212741342335</v>
+        <v>0.1208147905374622</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0328247328722301</v>
+        <v>0.07168835051002757</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2503578263666</v>
+        <v>0.2584953977010237</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03328992496321694</v>
+        <v>0.07171405333156135</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4009341754960973</v>
+        <v>0.396660819697474</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03071862222836687</v>
+        <v>0.07167877494906401</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07183380710109237</v>
+        <v>0.07523824203435751</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03373181690251407</v>
+        <v>0.07307045143120876</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1211430256937253</v>
+        <v>0.1202021987557828</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03355417138050188</v>
+        <v>0.07328142496580597</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2505544935193869</v>
+        <v>0.2568726412090626</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03402970107351064</v>
+        <v>0.07330769896115159</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4002609736461992</v>
+        <v>0.3928276687535234</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03140125827788614</v>
+        <v>0.07327163661459878</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06938124932677878</v>
+        <v>0.07379368275276055</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03446511726996002</v>
+        <v>0.07465893950580026</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1207020758864828</v>
+        <v>0.1191867482976792</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03428360988877366</v>
+        <v>0.07487449942158436</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2488007828334501</v>
+        <v>0.2563431973091658</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03476947718380435</v>
+        <v>0.07490134459074187</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3993842998082653</v>
+        <v>0.3908854878886474</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0320838943274054</v>
+        <v>0.07486449828013353</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.07094456901927228</v>
+        <v>0.0693517104107341</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03519841763740598</v>
+        <v>0.07624742758039176</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1189593253924984</v>
+        <v>0.1183733308532619</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03501304839704544</v>
+        <v>0.07646757387736275</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2469474566871189</v>
+        <v>0.2532175310804478</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03550925329409806</v>
+        <v>0.07649499022033211</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3976256219387303</v>
+        <v>0.388550286657479</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03276653037692466</v>
+        <v>0.07645735994566828</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06953179928666631</v>
+        <v>0.06891377329241459</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03593171800485194</v>
+        <v>0.07783591565498324</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1188228147924981</v>
+        <v>0.1177668381126421</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03574248690531721</v>
+        <v>0.07806064833314115</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2443452774587223</v>
+        <v>0.2538061076020229</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03624902940439177</v>
+        <v>0.07808863584992236</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3935064079940289</v>
+        <v>0.387738074614651</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03344916642644393</v>
+        <v>0.07805022161120304</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06615097323705432</v>
+        <v>0.07043203034915797</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0366650183722979</v>
+        <v>0.07942440372957474</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1183005846672077</v>
+        <v>0.1171350406283696</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03647192541358899</v>
+        <v>0.07965372278891954</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2424450075265895</v>
+        <v>0.250550627833711</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03698880551468547</v>
+        <v>0.07968228147951262</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3911481259305959</v>
+        <v>0.3846370028892456</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0341318024759632</v>
+        <v>0.07964308327673779</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06981012397852976</v>
+        <v>0.06989005140012139</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03739831873974386</v>
+        <v>0.08101289180416624</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1179006755973532</v>
+        <v>0.1168027710292827</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03720136392186078</v>
+        <v>0.08124679724469792</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2422974092690496</v>
+        <v>0.2504823627511013</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03772858162497918</v>
+        <v>0.08127592710910286</v>
       </c>
       <c r="N116" t="n">
-        <v>0.391772243704866</v>
+        <v>0.3817061905608067</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03481443852548246</v>
+        <v>0.08123594494227256</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06451728461918603</v>
+        <v>0.06629768669680079</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03813161910718982</v>
+        <v>0.08260137987875774</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1169311281636605</v>
+        <v>0.1153824211498224</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03793080243013256</v>
+        <v>0.08283987170047631</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2432532450644319</v>
+        <v>0.246323921281332</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03846835773527289</v>
+        <v>0.08286957273869311</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3875002292732738</v>
+        <v>0.3803881013103222</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03549707457500172</v>
+        <v>0.0828288066078073</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06428048826711659</v>
+        <v>0.06966478649069209</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03886491947463577</v>
+        <v>0.08418986795334922</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1159999829468557</v>
+        <v>0.1142899287010993</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03866024093840434</v>
+        <v>0.0844329461562547</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2429157508612348</v>
+        <v>0.2456093999031037</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03920813384556661</v>
+        <v>0.08446321836828337</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3854535505922538</v>
+        <v>0.3774348961804918</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03617971062452099</v>
+        <v>0.08442166827334206</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06710776803041488</v>
+        <v>0.0700012010332912</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03959821984208173</v>
+        <v>0.08577835602794072</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1157152805276645</v>
+        <v>0.1131412313942236</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03938967944667612</v>
+        <v>0.08602602061203309</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2444157960102843</v>
+        <v>0.2422728950951168</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03994790995586032</v>
+        <v>0.08605686399787363</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3859536756182408</v>
+        <v>0.3706987362140142</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03686234667404025</v>
+        <v>0.08601452993887682</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06400715701717431</v>
+        <v>0.06831678057609404</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0403315202095277</v>
+        <v>0.08736684410253222</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1149850614868131</v>
+        <v>0.1125522669403059</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04011911795494789</v>
+        <v>0.08761909506781147</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2424451887727114</v>
+        <v>0.2406485033360717</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04068768606615403</v>
+        <v>0.08765050962746387</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3801220723076698</v>
+        <v>0.3686317824535891</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03754498272355952</v>
+        <v>0.08760739160441157</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06598532310031774</v>
+        <v>0.06362137537059653</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04106482057697365</v>
+        <v>0.08895533217712372</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1158173664050272</v>
+        <v>0.1109389730504566</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04084855646321967</v>
+        <v>0.08921216952358987</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2451962264913766</v>
+        <v>0.2374703211046691</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04142746217644774</v>
+        <v>0.08924415525705413</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3793802086169752</v>
+        <v>0.3651861959419157</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03822761877307877</v>
+        <v>0.08920025326994634</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06701867355381538</v>
+        <v>0.06392483566829459</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04179812094441961</v>
+        <v>0.09054382025171522</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1149202358630329</v>
+        <v>0.1107172874357863</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04157799497149146</v>
+        <v>0.09080524397936826</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2449612065091401</v>
+        <v>0.2359724448796094</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04216723828674145</v>
+        <v>0.09083780088664438</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3788495525025917</v>
+        <v>0.3629141377216935</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03891025482259804</v>
+        <v>0.09079311493548108</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06809403732311807</v>
+        <v>0.06323701172068413</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04253142131186557</v>
+        <v>0.0921323083263067</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1153017104415559</v>
+        <v>0.1098031478074052</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04230743347976323</v>
+        <v>0.09239831843514665</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2442324261688624</v>
+        <v>0.232688971139593</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04290701439703516</v>
+        <v>0.09243144651623462</v>
       </c>
       <c r="N123" t="n">
-        <v>0.377451571920954</v>
+        <v>0.3578677688356214</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03959289087211731</v>
+        <v>0.09238597660101584</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06820883623406436</v>
+        <v>0.06456775377926108</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04326472167931152</v>
+        <v>0.09372079640089818</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1151698307213224</v>
+        <v>0.1088124918764238</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04303687198803502</v>
+        <v>0.09399139289092505</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2466021828134036</v>
+        <v>0.2317539963633204</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04364679050732886</v>
+        <v>0.09402509214582488</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3760077348284968</v>
+        <v>0.352099250326399</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04027552692163656</v>
+        <v>0.0939788382665506</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06636049211249281</v>
+        <v>0.06492691209552133</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04399802204675748</v>
+        <v>0.09530928447548968</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1141328349466881</v>
+        <v>0.1071612573539528</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0437663104963068</v>
+        <v>0.09558446734670344</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2470627737856242</v>
+        <v>0.2287016170294922</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04438656661762258</v>
+        <v>0.09561873777541514</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3732395091816548</v>
+        <v>0.3489607432367257</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04095816297115583</v>
+        <v>0.09557169993208535</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.067546426784242</v>
+        <v>0.06028898743917535</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04473132241420344</v>
+        <v>0.09689777255008118</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1148102463089586</v>
+        <v>0.1056510791738185</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04449574900457857</v>
+        <v>0.09717754180248182</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2475064964283846</v>
+        <v>0.2256424624345519</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04512634272791629</v>
+        <v>0.09721238340500539</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3747683629368628</v>
+        <v>0.3456531629670018</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0416407990206751</v>
+        <v>0.0971645615976201</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0687640620751505</v>
+        <v>0.05759281946320972</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0454646227816494</v>
+        <v>0.09848626062467268</v>
       </c>
       <c r="J127" t="n">
-        <v>0.11430391508338</v>
+        <v>0.1051671003453072</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04522518751285036</v>
+        <v>0.09877061625826021</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2483256480845449</v>
+        <v>0.2258352101474412</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04586611883820999</v>
+        <v>0.09880602903459564</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3734157640505551</v>
+        <v>0.3441988437726816</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04232343507019436</v>
+        <v>0.09875742326315486</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06501081981105684</v>
+        <v>0.06385022676622372</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04619792314909536</v>
+        <v>0.1000747486992642</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1149037898079815</v>
+        <v>0.1040992240117705</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04595462602112214</v>
+        <v>0.1003636907140386</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2490125260969656</v>
+        <v>0.2233461387302171</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0466058949485037</v>
+        <v>0.1003996746641859</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3732031804791669</v>
+        <v>0.339371274177126</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04300607111971362</v>
+        <v>0.1003502849286896</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07128412181779963</v>
+        <v>0.06007530998611943</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04693122351654131</v>
+        <v>0.1016632367738557</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1151998190207923</v>
+        <v>0.1027702650113319</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04668406452939391</v>
+        <v>0.101956765169817</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2505594278085069</v>
+        <v>0.2186240573021277</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04734567105879741</v>
+        <v>0.1019933202937761</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3722520801791327</v>
+        <v>0.3353451227282396</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04368870716923288</v>
+        <v>0.1019431465942244</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0725813899212174</v>
+        <v>0.06028216976079889</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04766452388398727</v>
+        <v>0.1032517248484472</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1158819512598419</v>
+        <v>0.101803038182115</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04741350303766569</v>
+        <v>0.1035498396255954</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2523586505620293</v>
+        <v>0.2163177749824214</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04808544716909112</v>
+        <v>0.1035869659233664</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3710890672591786</v>
+        <v>0.3327950579739272</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04437134321875216</v>
+        <v>0.1035360082597591</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07290004594714874</v>
+        <v>0.05548490672816415</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04839782425143323</v>
+        <v>0.1048402129230387</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1163401350631593</v>
+        <v>0.09982035836224344</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04814294154593748</v>
+        <v>0.1051429140813738</v>
       </c>
       <c r="L131" t="n">
-        <v>0.252802491700393</v>
+        <v>0.2137761008903466</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04882522327938483</v>
+        <v>0.1051806115529567</v>
       </c>
       <c r="N131" t="n">
-        <v>0.369420774300779</v>
+        <v>0.3266957484620933</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04505397926827141</v>
+        <v>0.1051288699252939</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.06923751172143219</v>
+        <v>0.05969762152611728</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04913112461887919</v>
+        <v>0.1064287009976301</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1177643189687738</v>
+        <v>0.09914504038984069</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04887238005420926</v>
+        <v>0.1067359885371522</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2557832485664584</v>
+        <v>0.2117478441451517</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04956499938967854</v>
+        <v>0.1067742571825469</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3712558370687633</v>
+        <v>0.3247218627406425</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04573661531779068</v>
+        <v>0.1067217315908287</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06659120906990636</v>
+        <v>0.0589344147925603</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04986442498632514</v>
+        <v>0.1080171890722216</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1172444515147147</v>
+        <v>0.09709989910303037</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04960181856248104</v>
+        <v>0.1083290629929306</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2562932185030857</v>
+        <v>0.2092818138660849</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05030477549997225</v>
+        <v>0.1083679028121372</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3748590633609831</v>
+        <v>0.3213480693574799</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04641925136730994</v>
+        <v>0.1083145932563634</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07495855981840975</v>
+        <v>0.05720938716539528</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05059772535377111</v>
+        <v>0.1096056771468131</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1183704812390112</v>
+        <v>0.09600774933993607</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05033125707075282</v>
+        <v>0.109922137448709</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2566246988531354</v>
+        <v>0.2066268191723947</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05104455161026596</v>
+        <v>0.1099615484417274</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3759952609752895</v>
+        <v>0.3164490368605102</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04710188741682921</v>
+        <v>0.1099074549218982</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07233698579278096</v>
+        <v>0.05653663928252425</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05133102572121706</v>
+        <v>0.1111941652214046</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1191323566796926</v>
+        <v>0.09519140593868135</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0510606955790246</v>
+        <v>0.1115152119044873</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2574699869594678</v>
+        <v>0.2044316691833294</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05178432772055967</v>
+        <v>0.1115551940713177</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3746292377095342</v>
+        <v>0.3138994337976376</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04778452346634847</v>
+        <v>0.1115003165874329</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07572390881885857</v>
+        <v>0.05893027178184929</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05206432608866302</v>
+        <v>0.1127826532959961</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1206200263747881</v>
+        <v>0.09407368373738982</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05179013408729637</v>
+        <v>0.1131082863602657</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2588213801649432</v>
+        <v>0.2013451730181373</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05252410383085338</v>
+        <v>0.1131488397009079</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3789258013615685</v>
+        <v>0.3093739287167672</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04846715951586773</v>
+        <v>0.1130931782529676</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07511675072248111</v>
+        <v>0.05540438530127241</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05279762645610898</v>
+        <v>0.1143711413705876</v>
       </c>
       <c r="J137" t="n">
-        <v>0.120723438862327</v>
+        <v>0.09297739757418504</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05251957259556816</v>
+        <v>0.1147013608160441</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2608711758124219</v>
+        <v>0.1998161397960669</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05326387994114708</v>
+        <v>0.1147424853304982</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3812497597292442</v>
+        <v>0.3062471901658036</v>
       </c>
       <c r="O137" t="n">
-        <v>0.049149795565387</v>
+        <v>0.1146860399185024</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07351293332948719</v>
+        <v>0.0549730804786957</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05353092682355494</v>
+        <v>0.1159596294451791</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1216325426803385</v>
+        <v>0.09262536228719052</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05324901110383994</v>
+        <v>0.1162944352718225</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2637116712447642</v>
+        <v>0.1970933786363663</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0540036560514408</v>
+        <v>0.1163361309600884</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3818659206104127</v>
+        <v>0.3021938866926517</v>
       </c>
       <c r="O138" t="n">
-        <v>0.04983243161490626</v>
+        <v>0.1162789015840372</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06890987846571535</v>
+        <v>0.05165045795202118</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0542642271910009</v>
+        <v>0.1175481175197706</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1230372863668519</v>
+        <v>0.09264039271452991</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05397844961211171</v>
+        <v>0.1178875097276009</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2629351638048306</v>
+        <v>0.1980256986582841</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05474343216173452</v>
+        <v>0.1179297765896787</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3863390918029251</v>
+        <v>0.3003886868452159</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05051506766442553</v>
+        <v>0.1178717632495719</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07030500795700412</v>
+        <v>0.05145061835915091</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05499752755844686</v>
+        <v>0.1191366055943621</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1232276184598963</v>
+        <v>0.09164530369432682</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0547078881203835</v>
+        <v>0.1194805841833793</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2648339508354812</v>
+        <v>0.1967619089810684</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05548320827202822</v>
+        <v>0.1195234222192689</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3879340811046332</v>
+        <v>0.2997062591714013</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05119770371394479</v>
+        <v>0.1194646249151067</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07069574362919212</v>
+        <v>0.05238736806873372</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05573082792589281</v>
+        <v>0.1207250936689536</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1240934874975012</v>
+        <v>0.0915629100647047</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05543732662865528</v>
+        <v>0.1210736586391577</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2673003296795766</v>
+        <v>0.1940508187239679</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05622298438232193</v>
+        <v>0.1211170678488592</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3911156963133884</v>
+        <v>0.2996212722191119</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05188033976346405</v>
+        <v>0.1210574865806414</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07107950730811789</v>
+        <v>0.05439957719209178</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05646412829333877</v>
+        <v>0.1223135817435451</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1246248420176956</v>
+        <v>0.09166193625550091</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05616676513692705</v>
+        <v>0.1226667330949361</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2679265976799769</v>
+        <v>0.1954395547452003</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05696276049261564</v>
+        <v>0.1227107134784494</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3942487452270421</v>
+        <v>0.2999229967474164</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05256297581298332</v>
+        <v>0.1226503482461762</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07045372081962002</v>
+        <v>0.05343255735906478</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05719742866078473</v>
+        <v>0.1239020698181366</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1257116305585089</v>
+        <v>0.09120345894117245</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05689620364519883</v>
+        <v>0.1242598075507145</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2692050521795425</v>
+        <v>0.1942252219149784</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05770253660290935</v>
+        <v>0.1243043591080397</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3962980356434459</v>
+        <v>0.2986606952389836</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05324561186250258</v>
+        <v>0.124243209911711</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07381580598953702</v>
+        <v>0.05148527245991612</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05793072902823069</v>
+        <v>0.1254905578927281</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1262438016579703</v>
+        <v>0.09147740481800824</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05762564215347061</v>
+        <v>0.1258528820064929</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2712279905211338</v>
+        <v>0.1960803845911126</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05844231271320305</v>
+        <v>0.1258980047376299</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3979283753604512</v>
+        <v>0.2985044340457481</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05392824791202185</v>
+        <v>0.1258360715772457</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07216318464370751</v>
+        <v>0.05355668638490915</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05866402939567664</v>
+        <v>0.1270790459673196</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1268113038541091</v>
+        <v>0.09108209746001368</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0583550806617424</v>
+        <v>0.1274459564622712</v>
       </c>
       <c r="L145" t="n">
-        <v>0.271887710047611</v>
+        <v>0.1952014562973</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05918208882349676</v>
+        <v>0.1274916503672202</v>
       </c>
       <c r="N145" t="n">
-        <v>0.4034045721759094</v>
+        <v>0.3009487265500091</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05461088396154111</v>
+        <v>0.1274289332427805</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07349327860797003</v>
+        <v>0.05364576302430726</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0593973297631226</v>
+        <v>0.1286675340419111</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1268040856849544</v>
+        <v>0.09231586044119421</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05908451917001418</v>
+        <v>0.1290390309180497</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2707765081018345</v>
+        <v>0.1968848505572379</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05992186493379048</v>
+        <v>0.1290852959968104</v>
       </c>
       <c r="N146" t="n">
-        <v>0.4054914338876722</v>
+        <v>0.2994880861340659</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05529352001106038</v>
+        <v>0.1290217949083152</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07380350970816316</v>
+        <v>0.0497514662683738</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06013063013056856</v>
+        <v>0.1302560221165026</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1280120956885357</v>
+        <v>0.09257701733555511</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05981395767828596</v>
+        <v>0.130632105373828</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2735866820266646</v>
+        <v>0.1969269808946236</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06066164104408418</v>
+        <v>0.1306789416264007</v>
       </c>
       <c r="N147" t="n">
-        <v>0.4097537682935907</v>
+        <v>0.2998170261802179</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05597615606057963</v>
+        <v>0.13061465657385</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07309129977012543</v>
+        <v>0.04987276000737213</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06086393049801452</v>
+        <v>0.1318445101910941</v>
       </c>
       <c r="J148" t="n">
-        <v>0.128425282402882</v>
+        <v>0.09186389171710189</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06054339618655774</v>
+        <v>0.1322251798296064</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2751368150107409</v>
+        <v>0.1976242608331542</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0614014171543779</v>
+        <v>0.1322725872559909</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4108563831915167</v>
+        <v>0.3028300600707642</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05665879211009889</v>
+        <v>0.1322075182393847</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08026198324515038</v>
+        <v>0.05300860813156565</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06159723086546048</v>
+        <v>0.1334329982656856</v>
       </c>
       <c r="J149" t="n">
-        <v>0.128745533909674</v>
+        <v>0.09177480715983992</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06127283469482952</v>
+        <v>0.1338182542853848</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2741182016877605</v>
+        <v>0.196873103896527</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0621411932646716</v>
+        <v>0.1338662328855812</v>
       </c>
       <c r="N149" t="n">
-        <v>0.4129640863793014</v>
+        <v>0.3030217011880045</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05734142815961816</v>
+        <v>0.1338003799049195</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07262786924089649</v>
+        <v>0.05115797453121772</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06233053123290643</v>
+        <v>0.1350214863402771</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1284758798267781</v>
+        <v>0.09270808723777461</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0620022732031013</v>
+        <v>0.1354113287411632</v>
       </c>
       <c r="L150" t="n">
-        <v>0.274254527391851</v>
+        <v>0.1970699236084392</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06288096937496532</v>
+        <v>0.1354598785151714</v>
       </c>
       <c r="N150" t="n">
-        <v>0.4123416856547966</v>
+        <v>0.302686462914238</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05802406420913743</v>
+        <v>0.1353932415704542</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07491079286723484</v>
+        <v>0.05031982309659171</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06306383160035239</v>
+        <v>0.1366099744148686</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1280146745868327</v>
+        <v>0.09266205552491132</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06273171171137308</v>
+        <v>0.1370044031969416</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2776136218749761</v>
+        <v>0.1982111334925881</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06362074548525902</v>
+        <v>0.1370535241447617</v>
       </c>
       <c r="N151" t="n">
-        <v>0.4150539888158533</v>
+        <v>0.3025188586317638</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05870670025865669</v>
+        <v>0.136986103235989</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07720340302831605</v>
+        <v>0.05749311771795096</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06379713196779835</v>
+        <v>0.13819846248946</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1284502788224151</v>
+        <v>0.09343503559525544</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06346115021964485</v>
+        <v>0.13859747765272</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2764890255564641</v>
+        <v>0.1986931470726709</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06436052159555274</v>
+        <v>0.138647169774352</v>
       </c>
       <c r="N152" t="n">
-        <v>0.4180658036603236</v>
+        <v>0.3034134017228813</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05938933630817596</v>
+        <v>0.1385789649015238</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07750354117840806</v>
+        <v>0.05467682228555887</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0645304323352443</v>
+        <v>0.1397869505640515</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1283826263121165</v>
+        <v>0.09322535102281239</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06419058872791664</v>
+        <v>0.1401905521084984</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2769742788556431</v>
+        <v>0.1992123778723848</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06510029770584645</v>
+        <v>0.1402408154039422</v>
       </c>
       <c r="N153" t="n">
-        <v>0.4192419379860585</v>
+        <v>0.3036646055698901</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06007197235769522</v>
+        <v>0.1401718265670585</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08080904877177883</v>
+        <v>0.05591358171609365</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06526373270269026</v>
+        <v>0.141375438638643</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1282116508345283</v>
+        <v>0.09435209214911329</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06492002723618841</v>
+        <v>0.1417836265642768</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2787629221918416</v>
+        <v>0.1989007687706204</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06584007381614015</v>
+        <v>0.1418344610335324</v>
       </c>
       <c r="N154" t="n">
-        <v>0.4180471995909094</v>
+        <v>0.3077404048997697</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06075460840721448</v>
+        <v>0.1417646882325933</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07511776726269621</v>
+        <v>0.05431895405321294</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06599703307013623</v>
+        <v>0.1429639267132345</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1286372861682418</v>
+        <v>0.09451915460742839</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06564946574446019</v>
+        <v>0.1433767010200551</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2791484959843874</v>
+        <v>0.2018896504053896</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06657984992643387</v>
+        <v>0.1434281066631227</v>
       </c>
       <c r="N155" t="n">
-        <v>0.421528096111808</v>
+        <v>0.3103100699268148</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06143724445673374</v>
+        <v>0.143357549898128</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0824275381054282</v>
+        <v>0.0528709615673367</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06673033343758218</v>
+        <v>0.144552414787826</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1291594660918483</v>
+        <v>0.09483867063262942</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06637890425273198</v>
+        <v>0.1449697754758335</v>
       </c>
       <c r="L156" t="n">
-        <v>0.279924540652609</v>
+        <v>0.2022226567688985</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06731962603672757</v>
+        <v>0.1450217522927129</v>
       </c>
       <c r="N156" t="n">
-        <v>0.4184000758758157</v>
+        <v>0.3099036652206276</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06211988050625301</v>
+        <v>0.1449504115636628</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08073620275424269</v>
+        <v>0.05953832660625609</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06746363380502814</v>
+        <v>0.1461409028624175</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1292781243839389</v>
+        <v>0.09586003297013775</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06710834276100376</v>
+        <v>0.1465628499316119</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2829845966158345</v>
+        <v>0.2062915207978361</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06805940214702129</v>
+        <v>0.1466153979223032</v>
       </c>
       <c r="N157" t="n">
-        <v>0.4188428543595973</v>
+        <v>0.3152555630352492</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06280251655577228</v>
+        <v>0.1465432732291976</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07804160266340762</v>
+        <v>0.05628977151776224</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06819693417247409</v>
+        <v>0.147729390937009</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1286931948231052</v>
+        <v>0.09753263436537456</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06783778126927553</v>
+        <v>0.1481559243873903</v>
       </c>
       <c r="L158" t="n">
-        <v>0.283022204293392</v>
+        <v>0.208487975428891</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06879917825731499</v>
+        <v>0.1482090435518935</v>
       </c>
       <c r="N158" t="n">
-        <v>0.4216797745641598</v>
+        <v>0.3187001356247202</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06348515260529154</v>
+        <v>0.1481361348947323</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07634157928719097</v>
+        <v>0.0620940186496463</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06893023453992005</v>
+        <v>0.1493178790116005</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1294046111879383</v>
+        <v>0.09920586756376133</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06856721977754732</v>
+        <v>0.1497489988431687</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2846309041046099</v>
+        <v>0.2119037535987518</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06953895436760871</v>
+        <v>0.1498026891814837</v>
       </c>
       <c r="N159" t="n">
-        <v>0.4206107185674491</v>
+        <v>0.3248717552430812</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06416778865481081</v>
+        <v>0.1497289965602671</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07563397407986062</v>
+        <v>0.05791979034969937</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06966353490736601</v>
+        <v>0.150906367086192</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1293123072570296</v>
+        <v>0.1003291253107193</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0692966582858191</v>
+        <v>0.1513420732989471</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2844042364688164</v>
+        <v>0.2135305882441074</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07027873047790241</v>
+        <v>0.151396334811074</v>
       </c>
       <c r="N160" t="n">
-        <v>0.419035568447411</v>
+        <v>0.3260047941443733</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06485042470433007</v>
+        <v>0.1513218582258018</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08091662849568448</v>
+        <v>0.06373580896571264</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07039683527481197</v>
+        <v>0.1524948551607835</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1290162168089703</v>
+        <v>0.1010518003516698</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07002609679409087</v>
+        <v>0.1529351477547255</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2860357418053396</v>
+        <v>0.2162602123016464</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07101850658819613</v>
+        <v>0.1529899804406642</v>
       </c>
       <c r="N161" t="n">
-        <v>0.421154206281991</v>
+        <v>0.3306336245826369</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06553306075384932</v>
+        <v>0.1529147198913366</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07618738398893053</v>
+        <v>0.0635107968454772</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07113013564225792</v>
+        <v>0.154083343235375</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1295162736223519</v>
+        <v>0.1024232854320343</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07075553530236266</v>
+        <v>0.1545282222105039</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2844189605335077</v>
+        <v>0.2183843587080576</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07175828269848983</v>
+        <v>0.1545836260702545</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4218665141491352</v>
+        <v>0.3338926188119131</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06621569680336858</v>
+        <v>0.1545075815568713</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.08044408201386669</v>
+        <v>0.06121347633678423</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07186343600970388</v>
+        <v>0.1556718313099665</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1294124114757654</v>
+        <v>0.1032929732972339</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07148497381063443</v>
+        <v>0.1561212966662823</v>
       </c>
       <c r="L163" t="n">
-        <v>0.285747433072649</v>
+        <v>0.2208947604000298</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07249805880878353</v>
+        <v>0.1561772716998447</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4194723741267895</v>
+        <v>0.3403161490862423</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06689833285288786</v>
+        <v>0.1561004432224061</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08368456402476089</v>
+        <v>0.05782072926653391</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07259673637714985</v>
+        <v>0.157260319384558</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1301045641478022</v>
+        <v>0.1045110115162855</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07221441231890621</v>
+        <v>0.1577143711220607</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2863146998420916</v>
+        <v>0.2234837546980516</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07323783491907725</v>
+        <v>0.157770917329435</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4223716682928995</v>
+        <v>0.343641826914914</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06758096890240713</v>
+        <v>0.1576933048879408</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07890667147588103</v>
+        <v>0.06339398977805487</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0733300367445958</v>
+        <v>0.1588488074591495</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1293926654170539</v>
+        <v>0.1052398152762452</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07294385082717798</v>
+        <v>0.1593074455778391</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2875143012611637</v>
+        <v>0.2242711520400378</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07397761102937095</v>
+        <v>0.1593645629590252</v>
       </c>
       <c r="N165" t="n">
-        <v>0.419464278725411</v>
+        <v>0.3472814218810401</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06826360495192639</v>
+        <v>0.1592861665534756</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.08410824582149506</v>
+        <v>0.0619536065855394</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07406333711204176</v>
+        <v>0.160437295533741</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1305766490621114</v>
+        <v>0.10654614950275</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07367328933544977</v>
+        <v>0.1609005200336174</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2865397777491937</v>
+        <v>0.2262103743560649</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07471738713966466</v>
+        <v>0.1609582085886155</v>
       </c>
       <c r="N166" t="n">
-        <v>0.4192500875022699</v>
+        <v>0.3492475380796353</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06894624100144565</v>
+        <v>0.1608790282190103</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08328712851587093</v>
+        <v>0.06350057191025456</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07479663747948771</v>
+        <v>0.1620257836083325</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1300564488615661</v>
+        <v>0.1073316196102318</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07440272784372155</v>
+        <v>0.1624935944893958</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2883846697255096</v>
+        <v>0.2303048562032418</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07545716324995837</v>
+        <v>0.1625518542182057</v>
       </c>
       <c r="N167" t="n">
-        <v>0.4227289767014221</v>
+        <v>0.351245429721305</v>
       </c>
       <c r="O167" t="n">
-        <v>0.06962887705096492</v>
+        <v>0.1624718898845451</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08344116101327655</v>
+        <v>0.06303587797346731</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07552993784693367</v>
+        <v>0.163614271682924</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1308319985940094</v>
+        <v>0.1076978310131229</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07513216635199334</v>
+        <v>0.1640866689451742</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2871425176094397</v>
+        <v>0.2309580321386771</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07619693936025208</v>
+        <v>0.164145499847796</v>
       </c>
       <c r="N168" t="n">
-        <v>0.4228008284008129</v>
+        <v>0.3550803510166545</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07031151310048418</v>
+        <v>0.1640647515500799</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0775681847679799</v>
+        <v>0.06856051699644475</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07626323821437964</v>
+        <v>0.1652027597575155</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1298032320380326</v>
+        <v>0.1088463891258554</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07586160486026512</v>
+        <v>0.1656797434009526</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2889068618203122</v>
+        <v>0.2322733367194795</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07693671547054579</v>
+        <v>0.1657391454773862</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4209655246783887</v>
+        <v>0.3593575561762896</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07099414915000343</v>
+        <v>0.1656576132156146</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0846660412342488</v>
+        <v>0.06507548120045387</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07699653858182559</v>
+        <v>0.166791247832107</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1301700829722269</v>
+        <v>0.1097788993628614</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07659104336853689</v>
+        <v>0.167272817856731</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2886712427774553</v>
+        <v>0.2339542045027576</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0776764915808395</v>
+        <v>0.1673327911069765</v>
       </c>
       <c r="N170" t="n">
-        <v>0.422922947612095</v>
+        <v>0.3590822994108157</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0716767851995227</v>
+        <v>0.1672504748811494</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.08073257186635127</v>
+        <v>0.06558176280676167</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07772983894927155</v>
+        <v>0.1683797359066984</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1305324851751836</v>
+        <v>0.111396967138573</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07732048187680868</v>
+        <v>0.1688658923125094</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2880396679835103</v>
+        <v>0.2354040700456201</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07841626769113322</v>
+        <v>0.1689264367365667</v>
       </c>
       <c r="N171" t="n">
-        <v>0.4191729792798777</v>
+        <v>0.3632598349308385</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07235942124904197</v>
+        <v>0.1688433365466841</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.07776561811855522</v>
+        <v>0.06708035403663526</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07846313931671751</v>
+        <v>0.1699682239812899</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1309903724254941</v>
+        <v>0.1110021978674223</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07804992038508045</v>
+        <v>0.1704589667682878</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2878273786465804</v>
+        <v>0.2390263679051757</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07915604380142692</v>
+        <v>0.170520082366157</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4227155017596826</v>
+        <v>0.3666954169469628</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07304205729856124</v>
+        <v>0.1704361982122189</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07976400559909394</v>
+        <v>0.06557224711134163</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07919643968416347</v>
+        <v>0.1715567120558814</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1302436785017495</v>
+        <v>0.1127961969638414</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07877935889335223</v>
+        <v>0.1720520412240662</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2891375821605729</v>
+        <v>0.2401245326385331</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07989581991172064</v>
+        <v>0.1721137279957473</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4199503971294555</v>
+        <v>0.367294299669795</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0737246933480805</v>
+        <v>0.1720290598777536</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.07773153814053287</v>
+        <v>0.07005843425214782</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07992974005160942</v>
+        <v>0.1731452001304729</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1300923371825414</v>
+        <v>0.1132805698422626</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07950879740162402</v>
+        <v>0.1736451156798446</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2883733311649708</v>
+        <v>0.2430019988028009</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08063559602201434</v>
+        <v>0.1737073736253375</v>
       </c>
       <c r="N174" t="n">
-        <v>0.4219775474671421</v>
+        <v>0.3714617373099403</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07440732939759977</v>
+        <v>0.1736219215432884</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.08466998450064994</v>
+        <v>0.06653990768032085</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08066304041905539</v>
+        <v>0.1747336882050644</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1300362822464609</v>
+        <v>0.1143569219171179</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08023823590989579</v>
+        <v>0.1752381901356229</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2881376782992573</v>
+        <v>0.2441622009550878</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08137537213230805</v>
+        <v>0.1753010192549277</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4195968348506882</v>
+        <v>0.3726029840780041</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07508996544711903</v>
+        <v>0.1752147832088231</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.07958065365243688</v>
+        <v>0.06602984015468909</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08139634078650135</v>
+        <v>0.1763221762796559</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1300754474720993</v>
+        <v>0.1143359617295516</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08096767441816757</v>
+        <v>0.1768312645914014</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2866336762029154</v>
+        <v>0.2460257930028359</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08211514824260176</v>
+        <v>0.176894664884518</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4222081413580399</v>
+        <v>0.3750544233654213</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07577260149663828</v>
+        <v>0.1768076448743579</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.07846485456888545</v>
+        <v>0.06754758019651867</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0821296411539473</v>
+        <v>0.1779106643542474</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1303097666380479</v>
+        <v>0.1157596255756815</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08169711292643934</v>
+        <v>0.1784243390471797</v>
       </c>
       <c r="L177" t="n">
-        <v>0.287164377515428</v>
+        <v>0.2481839248496043</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08285492435289547</v>
+        <v>0.1784883105141083</v>
       </c>
       <c r="N177" t="n">
-        <v>0.4195111616221247</v>
+        <v>0.3765523635721095</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07645523754615755</v>
+        <v>0.1784005065398927</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07832389622298735</v>
+        <v>0.06907732296713608</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08286294152139326</v>
+        <v>0.1794991524288389</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1305391735228981</v>
+        <v>0.1160095614025288</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08242655143471114</v>
+        <v>0.1800174135029581</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2847328348762785</v>
+        <v>0.2496000814307948</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08359470046318919</v>
+        <v>0.1800819561436985</v>
       </c>
       <c r="N178" t="n">
-        <v>0.4202865354947881</v>
+        <v>0.3828352493631686</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07713787359567681</v>
+        <v>0.1799933682054274</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.07915908758773434</v>
+        <v>0.07360202385518241</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08359624188883923</v>
+        <v>0.1810876405034304</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1307636019052411</v>
+        <v>0.1167581910216645</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08315598994298291</v>
+        <v>0.1816104879587365</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2848421009249498</v>
+        <v>0.2507152631129059</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08433447657348289</v>
+        <v>0.1816756017732888</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4212218358874278</v>
+        <v>0.3855128226673953</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07782050964519609</v>
+        <v>0.1815862298709622</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.08497173763611815</v>
+        <v>0.07210463824929882</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08432954225628518</v>
+        <v>0.1826761285780219</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1304829855636682</v>
+        <v>0.1179779362446596</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0838854284512547</v>
+        <v>0.1832035624145149</v>
       </c>
       <c r="L180" t="n">
-        <v>0.285695228300925</v>
+        <v>0.2520704702624364</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08507425268377661</v>
+        <v>0.183269247402879</v>
       </c>
       <c r="N180" t="n">
-        <v>0.422717711096265</v>
+        <v>0.3874948254135873</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07850314569471535</v>
+        <v>0.1831790915364969</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.08076315534113049</v>
+        <v>0.07156812153812642</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08506284262373114</v>
+        <v>0.1842646166526134</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1311972582767708</v>
+        <v>0.1185412188830852</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08461486695952647</v>
+        <v>0.1847966368702933</v>
       </c>
       <c r="L181" t="n">
-        <v>0.283895269643687</v>
+        <v>0.2532067032458848</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08581402879407031</v>
+        <v>0.1848628930324692</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4226748094175203</v>
+        <v>0.3868909995305414</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07918578174423462</v>
+        <v>0.1847719532020317</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.08453464967576314</v>
+        <v>0.07097542911030637</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08579614299117709</v>
+        <v>0.1858531047272049</v>
       </c>
       <c r="J182" t="n">
-        <v>0.13100635382314</v>
+        <v>0.1189204607485121</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08534430546779825</v>
+        <v>0.1863897113260717</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2841452775927192</v>
+        <v>0.2561649624297496</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08655380490436403</v>
+        <v>0.1864565386620595</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4222937791474152</v>
+        <v>0.3921110869470554</v>
       </c>
       <c r="O182" t="n">
-        <v>0.07986841779375388</v>
+        <v>0.1863648148675664</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.08428752961300781</v>
+        <v>0.07130951635447974</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08652944335862305</v>
+        <v>0.1874415928017964</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1310102059813673</v>
+        <v>0.1206880836525115</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08607374397607004</v>
+        <v>0.1879827857818501</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2828483047875043</v>
+        <v>0.2559862481805296</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08729358101465773</v>
+        <v>0.1880501842916498</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4185752685821701</v>
+        <v>0.3915648295919263</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08055105384327313</v>
+        <v>0.1879576765331012</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.07902310412585623</v>
+        <v>0.07455334892735589</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08726274372606901</v>
+        <v>0.1890300808763879</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1303862188692876</v>
+        <v>0.1205165094066542</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08680318248434181</v>
+        <v>0.1895758602376285</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2815074038675257</v>
+        <v>0.2577115608647232</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08803335712495144</v>
+        <v>0.18964382992124</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4190199260180064</v>
+        <v>0.3958619693939516</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08123368989279239</v>
+        <v>0.1895505381986359</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.08174268218730014</v>
+        <v>0.0737458095886814</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08799604409351497</v>
+        <v>0.1906185689509794</v>
       </c>
       <c r="J185" t="n">
-        <v>0.130286458157649</v>
+        <v>0.1208314436014819</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08753262099261359</v>
+        <v>0.1911689346934069</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2805256274722663</v>
+        <v>0.2584875315468366</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08877313323524516</v>
+        <v>0.1912374755508303</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4207283997511451</v>
+        <v>0.3939915347956936</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08191632594231166</v>
+        <v>0.1911433998641707</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.08044757277033129</v>
+        <v>0.06993422096719075</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08872934446096092</v>
+        <v>0.1922070570255709</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1302148038139807</v>
+        <v>0.121136025758856</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08826205950088536</v>
+        <v>0.1927620091491853</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2792060282412093</v>
+        <v>0.2583390696427875</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08951290934553886</v>
+        <v>0.1928311211804205</v>
       </c>
       <c r="N186" t="n">
-        <v>0.418601338077807</v>
+        <v>0.3981884143673644</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08259896199183092</v>
+        <v>0.1927362615297055</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07713908484794141</v>
+        <v>0.06811852033640768</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08946264482840688</v>
+        <v>0.1937955451001624</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1304771357173965</v>
+        <v>0.1213339966284962</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08899149800915715</v>
+        <v>0.1943550836049636</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2802516588138376</v>
+        <v>0.2596764749629449</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09025268545583258</v>
+        <v>0.1944247668100108</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4182393892942132</v>
+        <v>0.397863650122642</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0832815980413502</v>
+        <v>0.1943291231952402</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.08081852739312222</v>
+        <v>0.07129864496985598</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09019594519585283</v>
+        <v>0.1953840331747539</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1303793337470099</v>
+        <v>0.1214252547189374</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08972093651742893</v>
+        <v>0.1959481580607421</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2789655718296343</v>
+        <v>0.2603995303806738</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09099246156612628</v>
+        <v>0.196018412439601</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4206432016965849</v>
+        <v>0.4005169098996113</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08396423409086946</v>
+        <v>0.195921984860775</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.07848720937886546</v>
+        <v>0.07547453214105944</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0909292455632988</v>
+        <v>0.1969725212493454</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1292272777819347</v>
+        <v>0.1218096985387142</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09045037502570072</v>
+        <v>0.1975412325165204</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2776508199280825</v>
+        <v>0.2594080187693391</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09173223767641998</v>
+        <v>0.1976120580691913</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4203134235811427</v>
+        <v>0.4004478615363568</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08464687014038873</v>
+        <v>0.1975148465263097</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.07514643977816286</v>
+        <v>0.0756461191235418</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09166254593074476</v>
+        <v>0.1985610093239369</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1286268477012845</v>
+        <v>0.1223872265963616</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09117981353397249</v>
+        <v>0.1991343069722988</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2750104557486654</v>
+        <v>0.262301723002306</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0924720137867137</v>
+        <v>0.1992057036987815</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4180507032441078</v>
+        <v>0.4011561728709627</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08532950618990798</v>
+        <v>0.1991077081918445</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.08179752756400618</v>
+        <v>0.07681334319082686</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09239584629819071</v>
+        <v>0.2001494973985284</v>
       </c>
       <c r="J191" t="n">
-        <v>0.129383923384173</v>
+        <v>0.1224577374004142</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09190925204224427</v>
+        <v>0.2007273814280772</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2757475319308659</v>
+        <v>0.2607804259529395</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0932117898970074</v>
+        <v>0.2007993493283718</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4188556889817013</v>
+        <v>0.4019415117415138</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08601214223942724</v>
+        <v>0.2007005698573792</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.07344178170938713</v>
+        <v>0.07197614161643837</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09312914666563667</v>
+        <v>0.2017379854731198</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1289043847097137</v>
+        <v>0.1234211294594068</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09263869055051606</v>
+        <v>0.2023204558838556</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2738651011141671</v>
+        <v>0.2620439104946048</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0939515660073011</v>
+        <v>0.202392994957962</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4149290290901441</v>
+        <v>0.4039035459860947</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08669477828894651</v>
+        <v>0.202293431522914</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.08008051118729748</v>
+        <v>0.07313445167390011</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09386244703308262</v>
+        <v>0.2033264735477113</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1280941115570204</v>
+        <v>0.1232773012818743</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09336812905878783</v>
+        <v>0.203913530339634</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2726662159380521</v>
+        <v>0.2627919595006667</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09469134211759482</v>
+        <v>0.2039866405875523</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4151713718656572</v>
+        <v>0.4028419434427896</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08737741433846577</v>
+        <v>0.2038862931884488</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.07471502497072893</v>
+        <v>0.07228821063673586</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09459574740052859</v>
+        <v>0.2049149616223028</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1269589838052066</v>
+        <v>0.1231261513763514</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09409756756705961</v>
+        <v>0.2055066047954124</v>
       </c>
       <c r="L194" t="n">
-        <v>0.271453929042004</v>
+        <v>0.2640243558444905</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09543111822788854</v>
+        <v>0.2055802862171425</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4163833656044617</v>
+        <v>0.4050563719496831</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08806005038798503</v>
+        <v>0.2054791548539835</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.07734663203267322</v>
+        <v>0.0744373557784694</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09532904776797455</v>
+        <v>0.2065034496968943</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1266048813333862</v>
+        <v>0.1229675782513728</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09482700607533139</v>
+        <v>0.2070996792511908</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2704312930655059</v>
+        <v>0.2634408823994412</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09617089433818224</v>
+        <v>0.2071739318467328</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4134656586027782</v>
+        <v>0.4059464993448598</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08874268643750431</v>
+        <v>0.2070720165195183</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.07497664134612209</v>
+        <v>0.07458182437262449</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0960623481354205</v>
+        <v>0.2080919377714858</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1263376840206727</v>
+        <v>0.1238014804154735</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09555644458360317</v>
+        <v>0.2086927537069692</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2705013606480408</v>
+        <v>0.2651413220388839</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09691067044847596</v>
+        <v>0.208767577476323</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4147188991568282</v>
+        <v>0.4045119934664045</v>
       </c>
       <c r="O196" t="n">
-        <v>0.08942532248702358</v>
+        <v>0.208664878185053</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.07860636188406728</v>
+        <v>0.0737215536927249</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09679564850286645</v>
+        <v>0.2096804258460773</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1253632717461797</v>
+        <v>0.123727756377188</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09628588309187495</v>
+        <v>0.2102858281627476</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2688671844290917</v>
+        <v>0.2660254576361833</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09765044655876966</v>
+        <v>0.2103612231059133</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4145437355628326</v>
+        <v>0.4050525221524014</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09010795853654283</v>
+        <v>0.2102577398505878</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.07523710261950053</v>
+        <v>0.07385648101229442</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09752894887031242</v>
+        <v>0.2112689139206688</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1248875243890209</v>
+        <v>0.1237463046450514</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09701532160014673</v>
+        <v>0.211878902618526</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2670318170481418</v>
+        <v>0.2667930720647049</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09839022266906337</v>
+        <v>0.2119548687355036</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4119408161170122</v>
+        <v>0.4051677532409349</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09079059458606209</v>
+        <v>0.2118506015161225</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.07187017252541356</v>
+        <v>0.07398654360485681</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09826224923775838</v>
+        <v>0.2128574019952603</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1248163218283099</v>
+        <v>0.1250570237275983</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09774476010841852</v>
+        <v>0.2134719770743043</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2664983111446741</v>
+        <v>0.2665439481978137</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09912999877935708</v>
+        <v>0.2135485143650938</v>
       </c>
       <c r="N199" t="n">
-        <v>0.411510789115588</v>
+        <v>0.4079573545700899</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09147323063558135</v>
+        <v>0.2134434631816573</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.07050688057479813</v>
+        <v>0.07611167874393586</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09899554960520433</v>
+        <v>0.2144458900698518</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1239555439431605</v>
+        <v>0.1249598121333634</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09847419861669029</v>
+        <v>0.2150650515300827</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2642697193581717</v>
+        <v>0.2676778689088746</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09986977488965079</v>
+        <v>0.2151421599946841</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4114543028547812</v>
+        <v>0.4074209939779505</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09215586668510062</v>
+        <v>0.215036324847192</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.07314853574064592</v>
+        <v>0.07223182370305532</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09972884997265029</v>
+        <v>0.2160343781444433</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1229110706126863</v>
+        <v>0.1250545683708817</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09920363712496208</v>
+        <v>0.2166581259858611</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2632490943281177</v>
+        <v>0.2672946170712526</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1006095509999445</v>
+        <v>0.2167358056242743</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4116720056308127</v>
+        <v>0.4090583393026015</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09283850273461988</v>
+        <v>0.2166291865127268</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.07379644699594874</v>
+        <v>0.07734691575573899</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1004621503400962</v>
+        <v>0.2176228662190348</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1230887817160008</v>
+        <v>0.1254411909486878</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09993307563323385</v>
+        <v>0.2182512004416395</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2631394886939952</v>
+        <v>0.268193975558313</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1013493271102382</v>
+        <v>0.2183294512538645</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4111645457399036</v>
+        <v>0.4085690583821274</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09352113878413915</v>
+        <v>0.2182220481782615</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.07745192331369827</v>
+        <v>0.07845689217551061</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1011954507075422</v>
+        <v>0.2192113542936263</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1227945571322178</v>
+        <v>0.1257195783753166</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1006625141415056</v>
+        <v>0.2198442748974179</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2618439550952871</v>
+        <v>0.2667757272434208</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1020891032205319</v>
+        <v>0.2199230968834548</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4072325714782746</v>
+        <v>0.4087528190546127</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09420377483365842</v>
+        <v>0.2198149098437963</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.07711627366688627</v>
+        <v>0.07856169023589399</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1019287510749882</v>
+        <v>0.2207998423682178</v>
       </c>
       <c r="J204" t="n">
-        <v>0.121334276740451</v>
+        <v>0.1250896291593028</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1013919526497774</v>
+        <v>0.2214373493531963</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2600655461714766</v>
+        <v>0.2687396549999409</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1028288793308256</v>
+        <v>0.221516742513045</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4100767311421469</v>
+        <v>0.4112092891581417</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09488641088317767</v>
+        <v>0.2214077715093311</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06879080702850447</v>
+        <v>0.07366124721041284</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1026620514424341</v>
+        <v>0.2223883304428093</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1219138204198138</v>
+        <v>0.1257512418091812</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1021213911580492</v>
+        <v>0.2230304238089747</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2594073145620467</v>
+        <v>0.2684855417012386</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1035686554411193</v>
+        <v>0.2231103881426353</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4076976730277416</v>
+        <v>0.4094381365307993</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09556904693269694</v>
+        <v>0.2230006331748658</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0684768323715446</v>
+        <v>0.074755500372591</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1033953518098801</v>
+        <v>0.2239768185174008</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1206390680494202</v>
+        <v>0.1258043148334867</v>
       </c>
       <c r="K206" t="n">
-        <v>0.102850829666321</v>
+        <v>0.2246234982647531</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2580723129064807</v>
+        <v>0.2691131702206787</v>
       </c>
       <c r="M206" t="n">
-        <v>0.104308431551413</v>
+        <v>0.2247040337722256</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4072960454312796</v>
+        <v>0.4131390290106698</v>
       </c>
       <c r="O206" t="n">
-        <v>0.0962516829822162</v>
+        <v>0.2245934948404006</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.07417565866899839</v>
+        <v>0.07184438699595225</v>
       </c>
       <c r="G207" t="n">
-        <v>0.104128652177326</v>
+        <v>0.2255653065919923</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1206158995083835</v>
+        <v>0.1257487467407539</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1035802681745927</v>
+        <v>0.2262165727205315</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2573635938442613</v>
+        <v>0.2678223234316264</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1050482076617068</v>
+        <v>0.2262976794018158</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4054724966489819</v>
+        <v>0.4103116344358375</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09693431903173547</v>
+        <v>0.2261863565059353</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.07188859489385761</v>
+        <v>0.07492784435402031</v>
       </c>
       <c r="G208" t="n">
-        <v>0.104861952544772</v>
+        <v>0.2271537946665838</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1206501946758177</v>
+        <v>0.1262844360395178</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1043097066828645</v>
+        <v>0.2278096471763099</v>
       </c>
       <c r="L208" t="n">
-        <v>0.256184210014872</v>
+        <v>0.2692127842074468</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1057879837720005</v>
+        <v>0.2278913250314061</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4028276749770695</v>
+        <v>0.4129556206443876</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09761695508125473</v>
+        <v>0.2277792181714701</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.07461695001911396</v>
+        <v>0.07100580972031896</v>
       </c>
       <c r="G209" t="n">
-        <v>0.105595252912218</v>
+        <v>0.2287422827411753</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1198478334308361</v>
+        <v>0.1262112812383129</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1050391451911363</v>
+        <v>0.2294027216320883</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2550372140577954</v>
+        <v>0.2704843354215049</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1065277598822942</v>
+        <v>0.2294849706609963</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4028622287117634</v>
+        <v>0.412070655474404</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09829959113077399</v>
+        <v>0.2293720798370049</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.07236203301775918</v>
+        <v>0.07907822036837202</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1063285532796639</v>
+        <v>0.2303307708157668</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1196146956525527</v>
+        <v>0.1261291808456742</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1057685836994081</v>
+        <v>0.2309957960878667</v>
       </c>
       <c r="L210" t="n">
-        <v>0.255406108369135</v>
+        <v>0.2707367599471657</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1072675359925879</v>
+        <v>0.2310786162905866</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4007768061492845</v>
+        <v>0.4143564067639713</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09898222718029326</v>
+        <v>0.2309649415025396</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.07111765938719766</v>
+        <v>0.07514501357170321</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1070618536471099</v>
+        <v>0.2319192588903582</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1198566612200808</v>
+        <v>0.1263380333701364</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1064980222076799</v>
+        <v>0.232588870543645</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2530710883547505</v>
+        <v>0.2698698406577943</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1080073121028816</v>
+        <v>0.2326722619201768</v>
       </c>
       <c r="N211" t="n">
-        <v>0.403472055585854</v>
+        <v>0.4129125423511742</v>
       </c>
       <c r="O211" t="n">
-        <v>0.09966486322981252</v>
+        <v>0.2325578031680744</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.07487413791528523</v>
+        <v>0.07420612660383634</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1077951540145558</v>
+        <v>0.2335077469649497</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1202545608137124</v>
+        <v>0.1262377373202343</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1072274607159516</v>
+        <v>0.2341819449994234</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2526321459353649</v>
+        <v>0.269783360426756</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1087470882131753</v>
+        <v>0.2342659075497671</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4009486253176926</v>
+        <v>0.4147387300740975</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1003474992793318</v>
+        <v>0.2341506648336091</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06963142643000429</v>
+        <v>0.07626149673829517</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1085284543820018</v>
+        <v>0.2350962350395412</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1201546306740918</v>
+        <v>0.1265281912045027</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1079568992242234</v>
+        <v>0.2357750194552018</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2512892782799944</v>
+        <v>0.2692771021274155</v>
       </c>
       <c r="M213" t="n">
-        <v>0.109486864323469</v>
+        <v>0.2358595531793574</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4011071636410217</v>
+        <v>0.4149346377708248</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1010301353288511</v>
+        <v>0.2357435264991439</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.07038954008770619</v>
+        <v>0.07631106124860346</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1092617547494477</v>
+        <v>0.2366847231141327</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1197548459051593</v>
+        <v>0.1266092935314764</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1086863377324952</v>
+        <v>0.2373680939109802</v>
       </c>
       <c r="L214" t="n">
-        <v>0.249842482557655</v>
+        <v>0.270250848633138</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1102266404337627</v>
+        <v>0.2374531988089476</v>
       </c>
       <c r="N214" t="n">
-        <v>0.399248318852062</v>
+        <v>0.4141999332794416</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1017127713783703</v>
+        <v>0.2373363881646786</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.07214849404474222</v>
+        <v>0.07135475740828502</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1099950551168937</v>
+        <v>0.2382732111887242</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1200552884916031</v>
+        <v>0.1260809428096901</v>
       </c>
       <c r="K215" t="n">
-        <v>0.109415776240767</v>
+        <v>0.2389611683667586</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2492917559373627</v>
+        <v>0.2704043828172886</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1109664165440564</v>
+        <v>0.2390468444385379</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3954727392470346</v>
+        <v>0.412634284438032</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1023954074278896</v>
+        <v>0.2389292498302134</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06790830345746365</v>
+        <v>0.07739252249086358</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1107283554843397</v>
+        <v>0.2398616992633157</v>
       </c>
       <c r="J216" t="n">
-        <v>0.119456040418111</v>
+        <v>0.1268430375476786</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1101452147490388</v>
+        <v>0.240554242822537</v>
       </c>
       <c r="L216" t="n">
-        <v>0.249737095588134</v>
+        <v>0.2704374875532323</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1117061926543501</v>
+        <v>0.2406404900681281</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3950810731221606</v>
+        <v>0.4168373590846802</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1030780434774088</v>
+        <v>0.2405221114957481</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06966898348222181</v>
+        <v>0.07242429376986294</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1114616558517856</v>
+        <v>0.2414501873379072</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1201571836693713</v>
+        <v>0.1264954762539767</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1108746532573106</v>
+        <v>0.2421473172783154</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2472784986789848</v>
+        <v>0.2705499457143342</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1124459687646439</v>
+        <v>0.2422341356977183</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3958739687736607</v>
+        <v>0.4136088250574714</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1037606795269281</v>
+        <v>0.2421149731612829</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06743054927536796</v>
+        <v>0.07545000851880686</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1121949562192316</v>
+        <v>0.2430386754124987</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1200588002300719</v>
+        <v>0.1265381574371193</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1116040917655823</v>
+        <v>0.2437403917340938</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2462159623789312</v>
+        <v>0.2699415401739593</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1131857448749376</v>
+        <v>0.2438277813273086</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3925520744977562</v>
+        <v>0.4162483501944896</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1044433155764474</v>
+        <v>0.2437078348268177</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.07019301599325342</v>
+        <v>0.07846960401121914</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1129282565866775</v>
+        <v>0.2446271634870902</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1196609720849009</v>
+        <v>0.127070979605641</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1123335302738541</v>
+        <v>0.2453334661898721</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2467494838569895</v>
+        <v>0.2715120538054728</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1139255209852313</v>
+        <v>0.2454214269568988</v>
       </c>
       <c r="N219" t="n">
-        <v>0.394516038590668</v>
+        <v>0.4164556023338194</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1051259516259666</v>
+        <v>0.2453006964923524</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0719563987922295</v>
+        <v>0.07948301752062351</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1136615569541235</v>
+        <v>0.2462156515616817</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1200637812185462</v>
+        <v>0.1270938412680767</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1130629687821259</v>
+        <v>0.2469265406456506</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2454790602821756</v>
+        <v>0.2707612694822396</v>
       </c>
       <c r="M220" t="n">
-        <v>0.114665297095525</v>
+        <v>0.2470150725864891</v>
       </c>
       <c r="N220" t="n">
-        <v>0.391766509348617</v>
+        <v>0.4150302493135458</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1058085876754859</v>
+        <v>0.2468935581578871</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06872071282864745</v>
+        <v>0.07249018632054377</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1143948573215695</v>
+        <v>0.2478041396362732</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1203673096156959</v>
+        <v>0.1271066409329611</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1137924072903977</v>
+        <v>0.2485196151014289</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2432046888235059</v>
+        <v>0.2721889700776248</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1154050732058187</v>
+        <v>0.2486087182160794</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3892041350678244</v>
+        <v>0.4152719589717526</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1064912237250052</v>
+        <v>0.2484864198234219</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06748597325885861</v>
+        <v>0.07447833375980806</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1151281576890154</v>
+        <v>0.2493926277108647</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1206716392610381</v>
+        <v>0.1272001757880637</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1145218457986695</v>
+        <v>0.2501126895572073</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2423263666499963</v>
+        <v>0.2699778265147624</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1161448493161124</v>
+        <v>0.2502023638456696</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3908658196670339</v>
+        <v>0.4163492076931413</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1071738597745244</v>
+        <v>0.2500792814889566</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.07125219523921424</v>
+        <v>0.07331294255209911</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1158614580564614</v>
+        <v>0.2509811157854562</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1205768521392607</v>
+        <v>0.1268698059170781</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1152512843069412</v>
+        <v>0.2517057640129857</v>
       </c>
       <c r="L223" t="n">
-        <v>0.241944090930663</v>
+        <v>0.2702949068406887</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1168846254264061</v>
+        <v>0.2517960094752598</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3877617136888819</v>
+        <v>0.4144895960379711</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1078564958240437</v>
+        <v>0.2516721431544914</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06601939392606566</v>
+        <v>0.07297335978899175</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1165947584239073</v>
+        <v>0.2525696038600477</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1198830302350519</v>
+        <v>0.1258546708391418</v>
       </c>
       <c r="K224" t="n">
-        <v>0.115980722815213</v>
+        <v>0.2532988384687641</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2416578588345223</v>
+        <v>0.2687019959792462</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1176244015366998</v>
+        <v>0.2533896551048501</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3858945437975798</v>
+        <v>0.4124984456503807</v>
       </c>
       <c r="O224" t="n">
-        <v>0.108539131873563</v>
+        <v>0.2532650048200262</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06578758447576416</v>
+        <v>0.07247914003435763</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1173280587913533</v>
+        <v>0.2541580919346392</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1194902555330997</v>
+        <v>0.1255864098469172</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1167101613234848</v>
+        <v>0.2548919129245425</v>
       </c>
       <c r="L225" t="n">
-        <v>0.24106766753059</v>
+        <v>0.2671667817220434</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1183641776469935</v>
+        <v>0.2549833007344404</v>
       </c>
       <c r="N225" t="n">
-        <v>0.383367794067091</v>
+        <v>0.411679305809442</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1092217679230822</v>
+        <v>0.2548578664855609</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.06855678204466105</v>
+        <v>0.07684983785206846</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1180613591587992</v>
+        <v>0.2557465800092307</v>
       </c>
       <c r="J226" t="n">
-        <v>0.119598610018092</v>
+        <v>0.1247966622330665</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1174395998317566</v>
+        <v>0.2564849873803209</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2377735141878826</v>
+        <v>0.2668569518606891</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1191039537572872</v>
+        <v>0.2565769463640306</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3816849485713779</v>
+        <v>0.4084357257942269</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1099044039726015</v>
+        <v>0.2564507281510957</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0663270017891076</v>
+        <v>0.07010500780599588</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1187946595262452</v>
+        <v>0.2573350680838222</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1202081756747169</v>
+        <v>0.1237170672902523</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1181690383400284</v>
+        <v>0.2580780618360993</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2393753959754159</v>
+        <v>0.2626401941867919</v>
       </c>
       <c r="M227" t="n">
-        <v>0.119843729867581</v>
+        <v>0.2581705919936209</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3794494913844032</v>
+        <v>0.4025712548838069</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1105870400221208</v>
+        <v>0.2580435898166304</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06809825886545511</v>
+        <v>0.07326420446001163</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1195279598936912</v>
+        <v>0.2589235561584136</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1199190344876625</v>
+        <v>0.121579264311137</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1188984768483001</v>
+        <v>0.2596711362918777</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2357733100622062</v>
+        <v>0.2616841964919605</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1205835059778747</v>
+        <v>0.2597642376232111</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3771649065801296</v>
+        <v>0.3988894423572537</v>
       </c>
       <c r="O228" t="n">
-        <v>0.11126967607164</v>
+        <v>0.2596364514821652</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.06287056843005488</v>
+        <v>0.06934698237798731</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1202612602611371</v>
+        <v>0.2605120442330052</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1197312684416168</v>
+        <v>0.120414892588383</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1196279153565719</v>
+        <v>0.261264210747656</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2355672536172697</v>
+        <v>0.2565566465678032</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1213232820881684</v>
+        <v>0.2613578832528014</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3780346782325199</v>
+        <v>0.395093837493639</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1119523121211593</v>
+        <v>0.2612293131477</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0666439456392582</v>
+        <v>0.07237289612379469</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1209945606285831</v>
+        <v>0.2621005323075966</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1198449595212678</v>
+        <v>0.1190555914146526</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1203573538648437</v>
+        <v>0.2628572852034344</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2350572238096224</v>
+        <v>0.2534252322059289</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1220630581984621</v>
+        <v>0.2629515288823916</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3735622904155367</v>
+        <v>0.3889879895720345</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1126349481706785</v>
+        <v>0.2628221748132347</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06741840564941638</v>
+        <v>0.06836150026130539</v>
       </c>
       <c r="G231" t="n">
-        <v>0.121727860996029</v>
+        <v>0.2636890203821882</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1202601897113036</v>
+        <v>0.1169330000826083</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1210867923731155</v>
+        <v>0.2644503596592129</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2335432178082805</v>
+        <v>0.2495576411979459</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1228028343087558</v>
+        <v>0.2645451745119819</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3699512272031427</v>
+        <v>0.3829754478715118</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1133175842201978</v>
+        <v>0.2644150364787695</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.06619396361688072</v>
+        <v>0.06933234935439113</v>
       </c>
       <c r="G232" t="n">
-        <v>0.122461161363475</v>
+        <v>0.2652775084567796</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1207770409964121</v>
+        <v>0.1153787578849125</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1218162308813872</v>
+        <v>0.2660434341149913</v>
       </c>
       <c r="L232" t="n">
-        <v>0.23242523278226</v>
+        <v>0.2475215613354631</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1235426104190495</v>
+        <v>0.2661388201415721</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3675049726693004</v>
+        <v>0.3775597616711429</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1140002202697171</v>
+        <v>0.2660078981443042</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.06897063469800248</v>
+        <v>0.06330499796692356</v>
       </c>
       <c r="G233" t="n">
-        <v>0.123194461730921</v>
+        <v>0.2668659965313712</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1202955953612815</v>
+        <v>0.1137245041142276</v>
       </c>
       <c r="K233" t="n">
-        <v>0.122545669389659</v>
+        <v>0.2676365085707696</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2312032659005773</v>
+        <v>0.2433846804100891</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1242823865293432</v>
+        <v>0.2677324657711624</v>
       </c>
       <c r="N233" t="n">
-        <v>0.365927010887973</v>
+        <v>0.3735444802499993</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1146828563192363</v>
+        <v>0.267600759809839</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.069748434049133</v>
+        <v>0.07029900066277438</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1239277620983669</v>
+        <v>0.2684544846059626</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1205159347905998</v>
+        <v>0.1127018780632159</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1232751078979308</v>
+        <v>0.269229583026548</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2299773143322482</v>
+        <v>0.2402146862134323</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1250221626396369</v>
+        <v>0.2693261114007526</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3632208259331228</v>
+        <v>0.3686331528871525</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1153654923687556</v>
+        <v>0.2691936214753737</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.06252737682662356</v>
+        <v>0.06733391200581525</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1246610624658129</v>
+        <v>0.2700429726805542</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1208381412690549</v>
+        <v>0.11074251902454</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1240045464062026</v>
+        <v>0.2708226574823264</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2297473752462892</v>
+        <v>0.2353792665371015</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1257619387499306</v>
+        <v>0.2709197570303429</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3606899018787125</v>
+        <v>0.3622293288616747</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1160481284182749</v>
+        <v>0.2707864831409085</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.06930747818682545</v>
+        <v>0.06442928655991791</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1253943628332588</v>
+        <v>0.2716314607551456</v>
       </c>
       <c r="J236" t="n">
-        <v>0.120362296781335</v>
+        <v>0.1093780662908621</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1247339849144744</v>
+        <v>0.2724157319381048</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2280134458117161</v>
+        <v>0.2321461091727052</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1265017148602243</v>
+        <v>0.2725134026599331</v>
       </c>
       <c r="N236" t="n">
-        <v>0.356237722798705</v>
+        <v>0.3577365574526369</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1167307644677941</v>
+        <v>0.2723793448064433</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.06708875328608994</v>
+        <v>0.06160013552711732</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1261276632007048</v>
+        <v>0.2732199488297371</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1198884833121281</v>
+        <v>0.1076361536515488</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1254634234227462</v>
+        <v>0.2740088063938832</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2279755231975453</v>
+        <v>0.2317750675315407</v>
       </c>
       <c r="M237" t="n">
-        <v>0.127241490970518</v>
+        <v>0.2741070482895234</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3517677727670631</v>
+        <v>0.3529448465122857</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1174134005173134</v>
+        <v>0.273972206471978</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.06887121728076838</v>
+        <v>0.06279035402244926</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1268609635681507</v>
+        <v>0.2748084369043286</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1206167828461221</v>
+        <v>0.1072338242292411</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1261928619310179</v>
+        <v>0.2756018808496616</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2278336045727926</v>
+        <v>0.2270910115991561</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1279812670808118</v>
+        <v>0.2757006939191136</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3485835358577491</v>
+        <v>0.3510813803228038</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1180960365668327</v>
+        <v>0.2755650681375127</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.06065488532721204</v>
+        <v>0.05797758930993978</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1275942639355967</v>
+        <v>0.2763969249789201</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1202472773680052</v>
+        <v>0.1051266874821401</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1269223004392897</v>
+        <v>0.27719495530544</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2243876871064745</v>
+        <v>0.2242966762556717</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1287210431911055</v>
+        <v>0.2772943395487039</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3460884961447259</v>
+        <v>0.3461021777361579</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1187786726163519</v>
+        <v>0.2771579298030475</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.06443977258177218</v>
+        <v>0.06216179506410198</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1283275643030427</v>
+        <v>0.2779854130535116</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1201800488624653</v>
+        <v>0.1046146684555882</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1276517389475615</v>
+        <v>0.2787880297612184</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2234377679676069</v>
+        <v>0.222191901146199</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1294608193013992</v>
+        <v>0.2788879851782942</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3400861377019564</v>
+        <v>0.3396069934402662</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1194613086658712</v>
+        <v>0.2787507914685823</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.06322589420080016</v>
+        <v>0.06134292495944883</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1290608646704886</v>
+        <v>0.2795739011281031</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1209151793141906</v>
+        <v>0.1031976921949276</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1283811774558333</v>
+        <v>0.2803811042169967</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2230838443252059</v>
+        <v>0.2206765259158496</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1302005954116929</v>
+        <v>0.2804816308078844</v>
       </c>
       <c r="N241" t="n">
-        <v>0.3380799446034031</v>
+        <v>0.3344955821230465</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1201439447153904</v>
+        <v>0.280343653134117</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.06601326534064725</v>
+        <v>0.05552093267049342</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1297941650379346</v>
+        <v>0.2811623892026946</v>
       </c>
       <c r="J242" t="n">
-        <v>0.120152750707869</v>
+        <v>0.1010756837455008</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1291106159641051</v>
+        <v>0.2819741786727751</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2218259133482878</v>
+        <v>0.216350390209735</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1309403715219866</v>
+        <v>0.2820752764374747</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3348734009230285</v>
+        <v>0.3333676984724169</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1208265807649097</v>
+        <v>0.2819365147996518</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05980190115766472</v>
+        <v>0.05669577187174873</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1305274654053805</v>
+        <v>0.2827508772772861</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1210928450281886</v>
+        <v>0.1000485681526503</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1298400544723768</v>
+        <v>0.2835672531285535</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2224639722058687</v>
+        <v>0.2131133336729667</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1316801476322803</v>
+        <v>0.2836689220670649</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3318699907347958</v>
+        <v>0.329123097176295</v>
       </c>
       <c r="O243" t="n">
-        <v>0.121509216814429</v>
+        <v>0.2835293764651866</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05959181680820393</v>
+        <v>0.05986739623772788</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1312607657728265</v>
+        <v>0.2843393653518776</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1204355442598373</v>
+        <v>0.09881627046171827</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1305694929806486</v>
+        <v>0.285160327584332</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2199980180669647</v>
+        <v>0.2102651959506565</v>
       </c>
       <c r="M244" t="n">
-        <v>0.132419923742574</v>
+        <v>0.2852625676966551</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3276731981126672</v>
+        <v>0.3217615329225987</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1221918528639482</v>
+        <v>0.2851222381307213</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.06138302744861607</v>
+        <v>0.05803575944294385</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1319940661402725</v>
+        <v>0.285927853426469</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1201809303875034</v>
+        <v>0.09697871571804735</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1312989314889204</v>
+        <v>0.2867534020401103</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2206280481005919</v>
+        <v>0.2093058166879158</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1331596998528677</v>
+        <v>0.2868562133262454</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3208865071306057</v>
+        <v>0.3192827603992463</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1228744889134675</v>
+        <v>0.286715099796256</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.06117554823525254</v>
+        <v>0.05420081516190967</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1327273665077184</v>
+        <v>0.2875163415010606</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1211290853958746</v>
+        <v>0.09593582896697971</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1320283699971922</v>
+        <v>0.2883464764958887</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2196540594757665</v>
+        <v>0.2038350355298562</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1338994759631614</v>
+        <v>0.2884498589558357</v>
       </c>
       <c r="N246" t="n">
-        <v>0.3200134018625739</v>
+        <v>0.3147865342941552</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1235571249629868</v>
+        <v>0.2883079614617908</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.06596939432446459</v>
+        <v>0.05736251706913841</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1334606668751644</v>
+        <v>0.289104829575652</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1210800912696392</v>
+        <v>0.09458753525385784</v>
       </c>
       <c r="K247" t="n">
-        <v>0.132757808505464</v>
+        <v>0.2899395509516671</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2179760493615045</v>
+        <v>0.2032526921215894</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1346392520734551</v>
+        <v>0.2900435045854259</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3150573663825345</v>
+        <v>0.3080726092952438</v>
       </c>
       <c r="O247" t="n">
-        <v>0.124239761012506</v>
+        <v>0.2899008231273255</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.06176458087260349</v>
+        <v>0.05452081883914305</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1341939672426103</v>
+        <v>0.2906933176502435</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1207340299934852</v>
+        <v>0.09273375962402415</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1334872470137357</v>
+        <v>0.2915326254074455</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2173940149268221</v>
+        <v>0.1995586261082269</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1353790281837488</v>
+        <v>0.2916371502150162</v>
       </c>
       <c r="N248" t="n">
-        <v>0.3092218847644502</v>
+        <v>0.3039407400904296</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1249223970620253</v>
+        <v>0.2914936847928603</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05956112303602058</v>
+        <v>0.05267567414643669</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1349272676100563</v>
+        <v>0.292281805724835</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1209909835521005</v>
+        <v>0.09257442712282092</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1342166855220075</v>
+        <v>0.2931256998632239</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2145079533407355</v>
+        <v>0.1958526771348804</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1361188042940426</v>
+        <v>0.2932307958446064</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3049104410822836</v>
+        <v>0.3020906813676308</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1256050331115446</v>
+        <v>0.2930865464583951</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.06135903597106716</v>
+        <v>0.05282703666553232</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1356605679775023</v>
+        <v>0.2938702937994265</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1202510339301732</v>
+        <v>0.0908094627955907</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1349461240302793</v>
+        <v>0.2947187743190022</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2129178617722608</v>
+        <v>0.1949346848466612</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1368585804043363</v>
+        <v>0.2948244414741967</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2982265194099977</v>
+        <v>0.2973221878147653</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1262876691610638</v>
+        <v>0.2946794081239298</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0641583348340945</v>
+        <v>0.04897486007094301</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1363938683449482</v>
+        <v>0.295458781874018</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1210142631123914</v>
+        <v>0.0894387916876757</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1356755625385511</v>
+        <v>0.2963118487747806</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2127237373904141</v>
+        <v>0.1919044888886811</v>
       </c>
       <c r="M251" t="n">
-        <v>0.13759835651463</v>
+        <v>0.2964180871037869</v>
       </c>
       <c r="N251" t="n">
-        <v>0.295373603821555</v>
+        <v>0.2928350141197509</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1269703052105831</v>
+        <v>0.2962722697894646</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0589590347814539</v>
+        <v>0.05111909803718179</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1371271687123942</v>
+        <v>0.2970472699486095</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1207807530834431</v>
+        <v>0.08816233884441842</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1364050010468228</v>
+        <v>0.2979049232305591</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2112255773642115</v>
+        <v>0.1871619289060516</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1383381326249237</v>
+        <v>0.2980117327333772</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2902551783909182</v>
+        <v>0.2875289149705055</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1276529412601023</v>
+        <v>0.2978651314549993</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.06076115096949666</v>
+        <v>0.04725970423876169</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1378604690798401</v>
+        <v>0.298635758023201</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1208505858280163</v>
+        <v>0.08668002931116119</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1371344395550946</v>
+        <v>0.2994979976863374</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2120233788626693</v>
+        <v>0.1852068445438844</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1390779087352174</v>
+        <v>0.2996053783629675</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2843747271920498</v>
+        <v>0.281303645054947</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1283355773096216</v>
+        <v>0.2994579931205341</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.06356469855457408</v>
+        <v>0.04739663235019573</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1385937694472861</v>
+        <v>0.3002242460977925</v>
       </c>
       <c r="J254" t="n">
-        <v>0.121323843330799</v>
+        <v>0.08509178813324648</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1378638780633664</v>
+        <v>0.3010910721421158</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2103171390548034</v>
+        <v>0.181039075447291</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1398176848455111</v>
+        <v>0.3011990239925577</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2819357342989131</v>
+        <v>0.2781589590609933</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1290182133591409</v>
+        <v>0.3010508547860689</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.06236969269303744</v>
+        <v>0.04552983604599699</v>
       </c>
       <c r="G255" t="n">
-        <v>0.139327069814732</v>
+        <v>0.301812734172384</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1214006075764793</v>
+        <v>0.08359754035601656</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1385933165716382</v>
+        <v>0.3026841465978942</v>
       </c>
       <c r="L255" t="n">
-        <v>0.20850685510963</v>
+        <v>0.1787584612613827</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1405574609558048</v>
+        <v>0.302792669622148</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2780416837854702</v>
+        <v>0.2757946116765625</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1297008494086601</v>
+        <v>0.3026437164516036</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.06517614854123806</v>
+        <v>0.04465926900067844</v>
       </c>
       <c r="G256" t="n">
-        <v>0.140060370182178</v>
+        <v>0.3034012222469755</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1217809605497453</v>
+        <v>0.08209721102481397</v>
       </c>
       <c r="K256" t="n">
-        <v>0.13932275507991</v>
+        <v>0.3042772210536726</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2073925241961653</v>
+        <v>0.1765648416312717</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1412972370660985</v>
+        <v>0.3043863152517381</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2724960597256839</v>
+        <v>0.2674103575895723</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1303834854581794</v>
+        <v>0.3042365781171384</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05998408125552719</v>
+        <v>0.04678488488875321</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1407936705496239</v>
+        <v>0.304989710321567</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1217649842352849</v>
+        <v>0.08119072518498095</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1400521935881817</v>
+        <v>0.305870295509451</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2065741434834254</v>
+        <v>0.1720580562020691</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1420370131763923</v>
+        <v>0.3059799608813284</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2644023461935173</v>
+        <v>0.2646059514879406</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1310661215076986</v>
+        <v>0.3058294397826731</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.06379350599225617</v>
+        <v>0.04190663738473423</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1415269709170699</v>
+        <v>0.3065781983961585</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1217527606177862</v>
+        <v>0.07897800788185995</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1407816320964535</v>
+        <v>0.3074633699652294</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2060517101404264</v>
+        <v>0.1695379446188865</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1427767892866859</v>
+        <v>0.3075736065109187</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2626640272629326</v>
+        <v>0.2588811480595857</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1317487575572179</v>
+        <v>0.3074223014482079</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.06260443790777628</v>
+        <v>0.04202448016313465</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1422602712845158</v>
+        <v>0.30816668647075</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1211443716819372</v>
+        <v>0.07745898416079337</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1415110706047253</v>
+        <v>0.3090564444210078</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2030252213361845</v>
+        <v>0.1654043465268358</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1435165653969797</v>
+        <v>0.3091672521405089</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2564845870078928</v>
+        <v>0.2560357019924249</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1324313936067372</v>
+        <v>0.3090151631137427</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06041689215843883</v>
+        <v>0.0431383668984674</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1429935716519618</v>
+        <v>0.3097551745453415</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1215398994124259</v>
+        <v>0.07663357906712358</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1422405091129971</v>
+        <v>0.3106495188767862</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2014946742397159</v>
+        <v>0.1640571015710282</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1442563415072734</v>
+        <v>0.3107608977700992</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2491675095023603</v>
+        <v>0.2512693679743766</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1331140296562564</v>
+        <v>0.3106080247792773</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0602308839005951</v>
+        <v>0.03924825126524557</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1437268720194078</v>
+        <v>0.311343662619933</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1222394257939405</v>
+        <v>0.07480171764619294</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1429699476212689</v>
+        <v>0.3122425933325646</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2003600660200365</v>
+        <v>0.1598960493965755</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1449961176175671</v>
+        <v>0.3123545433996894</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2458162788202983</v>
+        <v>0.2475819006933584</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1337966657057757</v>
+        <v>0.3122008864448121</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05704642829059638</v>
+        <v>0.04135408693798222</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1444601723868537</v>
+        <v>0.3129321506945245</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1224430328111689</v>
+        <v>0.07346332494334391</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1436993861295407</v>
+        <v>0.3138356677883429</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2014213938461626</v>
+        <v>0.1578210296485892</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1457358937278608</v>
+        <v>0.3139481890292797</v>
       </c>
       <c r="N262" t="n">
-        <v>0.240034379035669</v>
+        <v>0.2402730548372884</v>
       </c>
       <c r="O262" t="n">
-        <v>0.134479301755295</v>
+        <v>0.3137937481103469</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06386354048479399</v>
+        <v>0.04045582759119035</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1451934727542997</v>
+        <v>0.314520638769116</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1225508024487991</v>
+        <v>0.0729183260039188</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1444288246378124</v>
+        <v>0.3154287422441213</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2007786548871103</v>
+        <v>0.1548318819721811</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1464756698381545</v>
+        <v>0.3155418346588699</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2375252942224354</v>
+        <v>0.2379425850940845</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1351619378048143</v>
+        <v>0.3153866097758817</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0636822356395392</v>
+        <v>0.04255342689938298</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1459267731217457</v>
+        <v>0.3161091268437075</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1218628166915193</v>
+        <v>0.07106664587326005</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1451582631460842</v>
+        <v>0.3170218166998997</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1982318463118957</v>
+        <v>0.1522284460124623</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1472154459484482</v>
+        <v>0.3171354802884602</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2313925084545601</v>
+        <v>0.2312902461516647</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1358445738543335</v>
+        <v>0.3169794714414164</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1351.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1351.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5773817382593005</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.0371583255764585</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.0371583255764585</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0594533209223336</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1044875916225752</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04013099162257519</v>
+        <v>0.064372766954837</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001246918326457035</v>
+        <v>0.00200013953294841</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0222949953458751</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.000415639442152345</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.03861396</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0007198693942164179</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.07978967635311487</v>
+        <v>0.0577787311522556</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0006131100129822639</v>
+        <v>0.0004393514640444025</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.08641325970292063</v>
+        <v>0.09062854066403869</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003844966124573062</v>
+        <v>0.0003917310434930883</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.04013099162257519</v>
+        <v>0.02597337120524373</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001246918326457035</v>
+        <v>0.0004239408033631153</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.064372766954837</v>
+        <v>0.02597337120524373</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.002159608182649254</v>
+        <v>0.0004239408033631153</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1375684075053705</v>
+        <v>0.1018852659689349</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00227327177120974</v>
+        <v>0.0009743635185980176</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.210764048055904</v>
+        <v>0.1717505501705987</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002117262924165935</v>
+        <v>0.0009732322582323283</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.04086855418357588</v>
+        <v>0.03861396</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00317697614918299</v>
+        <v>0.0007198693942164179</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0697308914170852</v>
+        <v>0.03861396</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003186148911556781</v>
+        <v>0.0007198693942164179</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1475716220480353</v>
+        <v>0.1375684075053705</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003187291259180504</v>
+        <v>0.00174345819065239</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2281857670145163</v>
+        <v>0.210764048055904</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003185723331069512</v>
+        <v>0.001518337377880187</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.04451591563826059</v>
+        <v>0.05401304789625072</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004765464223774485</v>
+        <v>0.001271822410089346</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.07608213616215874</v>
+        <v>0.05401304789625072</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004779223367335172</v>
+        <v>0.001271822410089346</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1607376905018914</v>
+        <v>0.1520138720707065</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004780936888770757</v>
+        <v>0.002923090555794053</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2502386634128834</v>
+        <v>0.2372384819261832</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004778584996604268</v>
+        <v>0.002919696774696985</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.05243540417725527</v>
+        <v>0.06199796455928354</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006353952298365979</v>
+        <v>0.001695763213452461</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.08245940791137359</v>
+        <v>0.06199796455928354</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006372297823113562</v>
+        <v>0.001695763213452461</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1765211469580875</v>
+        <v>0.1630491603348221</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006374582518361009</v>
+        <v>0.00389745407439207</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2737106047931412</v>
+        <v>0.2520549058383585</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006371446662139024</v>
+        <v>0.003892929032929313</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.000415639442152345</v>
+        <v>0.0007198693942164179</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0222949953458751</v>
+        <v>0.03861396</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.05370427949746111</v>
+        <v>0.064372766954837</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007942440372957474</v>
+        <v>0.00200013953294841</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0891498645558557</v>
+        <v>0.064372766954837</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007965372278891953</v>
+        <v>0.00200013953294841</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1886927543900341</v>
+        <v>0.1725741137070584</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007968228147951261</v>
+        <v>0.004871817592990088</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.290914938673188</v>
+        <v>0.2713363196705221</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007964308327673779</v>
+        <v>0.004866161291161642</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0603998012957792</v>
+        <v>0.06554155152734435</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009530928447548969</v>
+        <v>0.002543644820178692</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.09324066398673093</v>
+        <v>0.06554155152734435</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009558446734670344</v>
+        <v>0.002543644820178692</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.197723275771142</v>
+        <v>0.1844093121782046</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009561873777541514</v>
+        <v>0.005846181111588106</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3056650125709214</v>
+        <v>0.2854178458053035</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009557169993208535</v>
+        <v>0.00583939354939397</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.05859922926911074</v>
+        <v>0.06643355530477325</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01111941652214046</v>
+        <v>0.002967585623541807</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.09801896409512516</v>
+        <v>0.06643355530477325</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01115152119044873</v>
+        <v>0.002967585623541807</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2064834740748215</v>
+        <v>0.1935753357390494</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01115551940713177</v>
+        <v>0.006820544630186124</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3230741740042394</v>
+        <v>0.2995346066253327</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01115003165874329</v>
+        <v>0.006812625807626298</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.06537982311435686</v>
+        <v>0.06730850382288274</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01270790459673196</v>
+        <v>0.003391526426904922</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1006719227721643</v>
+        <v>0.06730850382288274</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01274459564622712</v>
+        <v>0.003391526426904922</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2139441122744832</v>
+        <v>0.2028927643803821</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01274916503672202</v>
+        <v>0.007794908148784141</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3315557704910399</v>
+        <v>0.3149217245132392</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01274289332427805</v>
+        <v>0.007785858065858626</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.06581884252841871</v>
+        <v>0.06816655909365578</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01429639267132345</v>
+        <v>0.003815467230268038</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1032866979089741</v>
+        <v>0.06816655909365578</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01433767010200552</v>
+        <v>0.003815467230268038</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2204759533435378</v>
+        <v>0.2110821780929916</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01434281066631227</v>
+        <v>0.008769271667382159</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3434231495492213</v>
+        <v>0.326014321851653</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0143357549898128</v>
+        <v>0.008759090324090954</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.06099354720819745</v>
+        <v>0.06900788312907517</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01588488074591495</v>
+        <v>0.004239408033631153</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1061504473966806</v>
+        <v>0.06900788312907517</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01593074455778391</v>
+        <v>0.004239408033631153</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2266497602553956</v>
+        <v>0.217564156867667</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01593645629590252</v>
+        <v>0.009743635185980176</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3475896586966808</v>
+        <v>0.3371475210232036</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01592861665534756</v>
+        <v>0.009732322582323283</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0669811968505942</v>
+        <v>0.06983263794112392</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01747336882050644</v>
+        <v>0.004663348836994268</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1083503291264096</v>
+        <v>0.06983263794112392</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.0175238190135623</v>
+        <v>0.004663348836994268</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2318362959834673</v>
+        <v>0.2245592806951974</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01753010192549278</v>
+        <v>0.01071799870457819</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3543686454513169</v>
+        <v>0.348656444410521</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01752147832088231</v>
+        <v>0.01070555484055561</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.06385905115251016</v>
+        <v>0.07064098554178484</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01906185689509794</v>
+        <v>0.005087289640357383</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1097735009892869</v>
+        <v>0.07064098554178484</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01911689346934069</v>
+        <v>0.005087289640357383</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2342063235011634</v>
+        <v>0.2304881295663717</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01912374755508303</v>
+        <v>0.01169236222317621</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3603734573310271</v>
+        <v>0.3594762143962348</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01911433998641707</v>
+        <v>0.01167878709878794</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.06570436981084644</v>
+        <v>0.07143308794304089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02065034496968943</v>
+        <v>0.005511230443720499</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1120071208764385</v>
+        <v>0.07143308794304089</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02070996792511908</v>
+        <v>0.005511230443720499</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2401306057818945</v>
+        <v>0.2365712834719789</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02071739318467328</v>
+        <v>0.01266672574177423</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3654174418537095</v>
+        <v>0.3657419533629747</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02070720165195182</v>
+        <v>0.01265201935702027</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.06359441252250424</v>
+        <v>0.07220910715687491</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02223883304428093</v>
+        <v>0.005935171247083613</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1140383466789903</v>
+        <v>0.07220910715687491</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02230304238089747</v>
+        <v>0.005935171247083613</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2420799057990712</v>
+        <v>0.2412293224028083</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02231103881426353</v>
+        <v>0.01364108926037225</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3729139465372621</v>
+        <v>0.3730887836933707</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02230006331748658</v>
+        <v>0.0136252516152526</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.06552520394367882</v>
+        <v>0.07296920519526982</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02382732111887242</v>
+        <v>0.006359112050446728</v>
       </c>
       <c r="J80" t="n">
-        <v>0.115046519589334</v>
+        <v>0.07296920519526982</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02389611683667586</v>
+        <v>0.006359112050446728</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2467182462848649</v>
+        <v>0.2461828263496487</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02390468444385379</v>
+        <v>0.01461545277897026</v>
       </c>
       <c r="N80" t="n">
-        <v>0.37753354621044</v>
+        <v>0.3828518277700522</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02389292498302134</v>
+        <v>0.01459848387348492</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.06843046983116566</v>
+        <v>0.07371354407020854</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02541580919346392</v>
+        <v>0.006783052853809844</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1162257591327056</v>
+        <v>0.07371354407020854</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02548919129245425</v>
+        <v>0.006783052853809844</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2498863218937655</v>
+        <v>0.2503523753032894</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02549833007344404</v>
+        <v>0.01558981629756828</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3801728076581294</v>
+        <v>0.3878662079756494</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02548578664855609</v>
+        <v>0.01557171613171725</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.06830442947164547</v>
+        <v>0.07444228579367392</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02700429726805541</v>
+        <v>0.00720699365717296</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1178593809937313</v>
+        <v>0.07444228579367392</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02708226574823264</v>
+        <v>0.00720699365717296</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2508581422754086</v>
+        <v>0.254658549254519</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02709197570303429</v>
+        <v>0.0165641798161663</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3856620086939616</v>
+        <v>0.3932670466927916</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02707864831409085</v>
+        <v>0.01654494838994958</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.07514134637928722</v>
+        <v>0.07515559237764884</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02859278534264691</v>
+        <v>0.007630934460536076</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1189381035358961</v>
+        <v>0.07515559237764884</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02867534020401103</v>
+        <v>0.007630934460536076</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2532138506812602</v>
+        <v>0.2591219281941269</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02868562133262454</v>
+        <v>0.01753854333476432</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3894707723186789</v>
+        <v>0.3994894663041088</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02867150997962561</v>
+        <v>0.01751818064818191</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.07193548406825986</v>
+        <v>0.07585362583411624</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0301812734172384</v>
+        <v>0.00805487526389919</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1208526451226853</v>
+        <v>0.07585362583411624</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03026841465978942</v>
+        <v>0.00805487526389919</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2562335903627858</v>
+        <v>0.261563092112902</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03027926696221479</v>
+        <v>0.01851290685336233</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3964687215330241</v>
+        <v>0.4034685891922307</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03026437164516036</v>
+        <v>0.01849141290641424</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.07268110605273231</v>
+        <v>0.07653654817505899</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0317697614918299</v>
+        <v>0.008478816067262305</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1221937241175841</v>
+        <v>0.07653654817505899</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03186148911556781</v>
+        <v>0.008478816067262305</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2598975045714512</v>
+        <v>0.2658026210016334</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03187291259180505</v>
+        <v>0.01948727037196035</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3978254793377394</v>
+        <v>0.4075395377397871</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03185723331069511</v>
+        <v>0.01946464516464657</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.07437247584687355</v>
+        <v>0.07720452141246002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0333582495664214</v>
+        <v>0.008902756870625422</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1235520588840776</v>
+        <v>0.07720452141246002</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0334545635713462</v>
+        <v>0.008902756870625422</v>
       </c>
       <c r="L86" t="n">
-        <v>0.262485736558722</v>
+        <v>0.26606109485111</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0334665582213953</v>
+        <v>0.02046163389055837</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4029106687335674</v>
+        <v>0.4083374343294077</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03345009497622987</v>
+        <v>0.0204378774228789</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.07500385696485251</v>
+        <v>0.07785770755830217</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03494673764101289</v>
+        <v>0.009326697673988535</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1239183677856511</v>
+        <v>0.07785770755830217</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03504763802712459</v>
+        <v>0.009326697673988535</v>
       </c>
       <c r="L87" t="n">
-        <v>0.264678429576064</v>
+        <v>0.2698590936521209</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03506020385098555</v>
+        <v>0.02143599740915639</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4075939127212509</v>
+        <v>0.4130974013437224</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03504295664176463</v>
+        <v>0.02141110968111122</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.07556951292083812</v>
+        <v>0.07849626862456836</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03653522571560438</v>
+        <v>0.00975063847735165</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1252833691857898</v>
+        <v>0.07849626862456836</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03664071248290299</v>
+        <v>0.00975063847735165</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2660557268749428</v>
+        <v>0.2713171973954553</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0366538494805758</v>
+        <v>0.02241036092775441</v>
       </c>
       <c r="N88" t="n">
-        <v>0.410344834301532</v>
+        <v>0.4165545611653608</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03663581830729939</v>
+        <v>0.02238434193934355</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.07106370722899936</v>
+        <v>0.07912036662324147</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03812371379019588</v>
+        <v>0.01017457928071477</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1254377814479788</v>
+        <v>0.07912036662324147</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03823378693868137</v>
+        <v>0.01017457928071477</v>
       </c>
       <c r="L89" t="n">
-        <v>0.268497771706824</v>
+        <v>0.2716559860719022</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03824749511016606</v>
+        <v>0.02338472444635242</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4099330564751535</v>
+        <v>0.4169440361769526</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03822867997283414</v>
+        <v>0.02335757419757588</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.07948070340350516</v>
+        <v>0.07973016356630448</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03971220186478737</v>
+        <v>0.01059852008407788</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1261723229357035</v>
+        <v>0.07973016356630448</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03982686139445977</v>
+        <v>0.01059852008407788</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2706847073231735</v>
+        <v>0.2718960396722504</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03984114073975631</v>
+        <v>0.02435908796495044</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4131282022428578</v>
+        <v>0.4175009487611278</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03982154163836889</v>
+        <v>0.02433080645580821</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.07681476495852449</v>
+        <v>0.08032582146574017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04130068993937887</v>
+        <v>0.011022460887441</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1271777120124489</v>
+        <v>0.08032582146574017</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04141993585023816</v>
+        <v>0.011022460887441</v>
       </c>
       <c r="L91" t="n">
-        <v>0.270496676975457</v>
+        <v>0.2738579381872891</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04143478636934655</v>
+        <v>0.02533345148354846</v>
       </c>
       <c r="N91" t="n">
-        <v>0.4171998946053874</v>
+        <v>0.4192604213005156</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04141440330390365</v>
+        <v>0.02530403871404054</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.07906015540822625</v>
+        <v>0.08090750233353149</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04288917801397036</v>
+        <v>0.01144640169080411</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1279446670417002</v>
+        <v>0.08090750233353149</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04301301030601654</v>
+        <v>0.01144640169080411</v>
       </c>
       <c r="L92" t="n">
-        <v>0.27281382391514</v>
+        <v>0.2751368150107409</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04302843199893681</v>
+        <v>0.02630781500214648</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4191177565634849</v>
+        <v>0.421528096111808</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04300726496943841</v>
+        <v>0.02627727097227286</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08026198324515038</v>
+        <v>0.08147536818166136</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04447766608856186</v>
+        <v>0.01187034249416723</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1273639063869427</v>
+        <v>0.08147536818166136</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04460608476179494</v>
+        <v>0.01187034249416723</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2734162913936883</v>
+        <v>0.274729589924594</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04462207762852707</v>
+        <v>0.0272821785207445</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4199514111178928</v>
+        <v>0.4179275357754496</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04460012663497317</v>
+        <v>0.02725050323050519</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.07826198020913208</v>
+        <v>0.08202958102211259</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04606615416315335</v>
+        <v>0.01229428329753034</v>
       </c>
       <c r="J94" t="n">
-        <v>0.128745533909674</v>
+        <v>0.08202958102211259</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04619915921757332</v>
+        <v>0.01229428329753034</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2751368150107409</v>
+        <v>0.2748120505693588</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04621572325811731</v>
+        <v>0.02825654203934251</v>
       </c>
       <c r="N94" t="n">
-        <v>0.421528096111808</v>
+        <v>0.4197502609504999</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04619298830050792</v>
+        <v>0.02822373548873752</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.07723600685483553</v>
+        <v>0.08257030286686816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04765464223774484</v>
+        <v>0.01271822410089346</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1280342768163474</v>
+        <v>0.08257030286686816</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04779223367335172</v>
+        <v>0.01271822410089346</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2743180023303254</v>
+        <v>0.2747028092743654</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04780936888770757</v>
+        <v>0.02923090555794053</v>
       </c>
       <c r="N95" t="n">
-        <v>0.41928799619542</v>
+        <v>0.4199030394363584</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04778584996604267</v>
+        <v>0.02919696774696985</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.07316122445122071</v>
+        <v>0.08309769572791094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04924313031233634</v>
+        <v>0.01314216490425657</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1276515679943362</v>
+        <v>0.08309769572791094</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04938530812913011</v>
+        <v>0.01314216490425657</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2744513664511347</v>
+        <v>0.274111962039802</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04940301451729782</v>
+        <v>0.03020526907653854</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4210114406212812</v>
+        <v>0.4178976482706535</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04937871163157743</v>
+        <v>0.03017020000520218</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0720406562917517</v>
+        <v>0.08361192161722379</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05083161838692783</v>
+        <v>0.01356610570761969</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1273926251442378</v>
+        <v>0.08361192161722379</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0509783825849085</v>
+        <v>0.01356610570761969</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2736210669772914</v>
+        <v>0.2727455228171269</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05099666014688807</v>
+        <v>0.03117963259513656</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4166857118067252</v>
+        <v>0.4167456527929986</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05097157329711219</v>
+        <v>0.03114343226343451</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.07987732566989249</v>
+        <v>0.08411314254678963</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05242010646151933</v>
+        <v>0.0139900465109828</v>
       </c>
       <c r="J98" t="n">
-        <v>0.127762339956163</v>
+        <v>0.08411314254678963</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05257145704068689</v>
+        <v>0.0139900465109828</v>
       </c>
       <c r="L98" t="n">
-        <v>0.27143756898791</v>
+        <v>0.2731095055577987</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05259030577647833</v>
+        <v>0.03215399611373458</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4162268193063852</v>
+        <v>0.4162586183430073</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05256443496264694</v>
+        <v>0.03211666452166683</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.07467425587910717</v>
+        <v>0.08460152052859136</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05400859453611082</v>
+        <v>0.01441398731434592</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1273656041202227</v>
+        <v>0.08460152052859136</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05416453149646528</v>
+        <v>0.01441398731434592</v>
       </c>
       <c r="L99" t="n">
-        <v>0.271611337562105</v>
+        <v>0.2718099242132757</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05418395140606858</v>
+        <v>0.0331283596323326</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4188507726748939</v>
+        <v>0.4160481102602929</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0541572966281817</v>
+        <v>0.03308989677989917</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.07943447021285976</v>
+        <v>0.08507721757461191</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05559708261070231</v>
+        <v>0.01483792811770904</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1272073093265277</v>
+        <v>0.08507721757461191</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05575760595224367</v>
+        <v>0.01483792811770904</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2720528377789908</v>
+        <v>0.2716527927350165</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05577759703565883</v>
+        <v>0.03410272315093062</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4159735814668839</v>
+        <v>0.4172256938844688</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05575015829371645</v>
+        <v>0.03406312903813149</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.07416099196461433</v>
+        <v>0.08554039569683412</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05718557068529381</v>
+        <v>0.01526186892107215</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1267923472651891</v>
+        <v>0.08554039569683412</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05735068040802207</v>
+        <v>0.01526186892107215</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2700725347176818</v>
+        <v>0.2721441250744796</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05737124266524908</v>
+        <v>0.03507708666952863</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4162112552369881</v>
+        <v>0.4134029345551488</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05734301995925122</v>
+        <v>0.03503636129636382</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.07585684442783489</v>
+        <v>0.08599121690724089</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0587740587598853</v>
+        <v>0.01568580972443526</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1255256096263174</v>
+        <v>0.08599121690724089</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05894375486380046</v>
+        <v>0.01568580972443526</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2687808934572926</v>
+        <v>0.2703899351831234</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05896488829483934</v>
+        <v>0.03605145018812665</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4121798035398393</v>
+        <v>0.4145913976119457</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05893588162478597</v>
+        <v>0.03600959355459615</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.07852505089598551</v>
+        <v>0.08642984321781512</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0603625468344768</v>
+        <v>0.01610975052779838</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1251119881000238</v>
+        <v>0.08642984321781512</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06053682931957884</v>
+        <v>0.01610975052779838</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2671883790769375</v>
+        <v>0.2690962370124065</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06055853392442959</v>
+        <v>0.03702581370672467</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4089952359300704</v>
+        <v>0.4130026483944734</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06052874329032071</v>
+        <v>0.03698282581282848</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.07116863466253021</v>
+        <v>0.08685643664053967</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0619510349090683</v>
+        <v>0.01653369133116149</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1244563743764189</v>
+        <v>0.08685643664053967</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06212990377535724</v>
+        <v>0.01653369133116149</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2683054566557311</v>
+        <v>0.2709690445137872</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06215217955401984</v>
+        <v>0.03800017722532269</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4071735619623138</v>
+        <v>0.4127482522423451</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06212160495585548</v>
+        <v>0.0379560580710608</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.07079061902093305</v>
+        <v>0.08727115918739754</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06353952298365979</v>
+        <v>0.01695763213452461</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1246636601456136</v>
+        <v>0.08727115918739754</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06372297823113562</v>
+        <v>0.01695763213452461</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2652425912727878</v>
+        <v>0.2687143716387242</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06374582518361009</v>
+        <v>0.0389745407439207</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4072307911912026</v>
+        <v>0.4118397744951743</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06371446662139023</v>
+        <v>0.03892929032929313</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.07639402726465809</v>
+        <v>0.08767417287037153</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06512801105825129</v>
+        <v>0.01738157293788773</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1239387370977189</v>
+        <v>0.08767417287037153</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06531605268691401</v>
+        <v>0.01738157293788773</v>
       </c>
       <c r="L106" t="n">
-        <v>0.263610248007222</v>
+        <v>0.2684382323386756</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06533947081320035</v>
+        <v>0.03994890426251872</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4073829331713695</v>
+        <v>0.4103887804925743</v>
       </c>
       <c r="O106" t="n">
-        <v>0.065307328286925</v>
+        <v>0.03990252258752546</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.07598188268716934</v>
+        <v>0.08806563970144458</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06671649913284279</v>
+        <v>0.01780551374125084</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1234864969228455</v>
+        <v>0.08806563970144458</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0669091271426924</v>
+        <v>0.01780551374125084</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2629188919381483</v>
+        <v>0.2689466405651004</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0669331164427906</v>
+        <v>0.04092326778111674</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4036459974574473</v>
+        <v>0.4078068355741586</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06690018995245975</v>
+        <v>0.04087575484575779</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07655720858193087</v>
+        <v>0.08844572169259955</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06830498720743428</v>
+        <v>0.01822945454461396</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1221118313111044</v>
+        <v>0.08844572169259955</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0685022015984708</v>
+        <v>0.01822945454461396</v>
       </c>
       <c r="L108" t="n">
-        <v>0.262778988144681</v>
+        <v>0.2672456102694566</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06852676207238084</v>
+        <v>0.04189763129971476</v>
       </c>
       <c r="N108" t="n">
-        <v>0.400535993604069</v>
+        <v>0.4078055050795407</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0684930516179945</v>
+        <v>0.04184898710399012</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0741230282424067</v>
+        <v>0.08881458085581935</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06989347528202577</v>
+        <v>0.01865339534797707</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1221196319526063</v>
+        <v>0.08881458085581935</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07009527605424919</v>
+        <v>0.01865339534797707</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2603010017059346</v>
+        <v>0.265941155403203</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0701204077019711</v>
+        <v>0.04287199481831278</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3970689311658668</v>
+        <v>0.4036963543483338</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07008591328352926</v>
+        <v>0.04282221936222244</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0746823649620609</v>
+        <v>0.08917237920308689</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07148196335661726</v>
+        <v>0.01907733615134019</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1208147905374622</v>
+        <v>0.08917237920308689</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07168835051002757</v>
+        <v>0.01907733615134019</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2584953977010237</v>
+        <v>0.2648392899177978</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07171405333156135</v>
+        <v>0.04384635833691079</v>
       </c>
       <c r="N110" t="n">
-        <v>0.396660819697474</v>
+        <v>0.4028909487201517</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07167877494906401</v>
+        <v>0.04379545162045478</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07523824203435751</v>
+        <v>0.08951927874638509</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07307045143120876</v>
+        <v>0.0195012769547033</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1202021987557828</v>
+        <v>0.08951927874638509</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07328142496580597</v>
+        <v>0.0195012769547033</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2568726412090626</v>
+        <v>0.2635460277646997</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07330769896115159</v>
+        <v>0.04482072185550881</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3928276687535234</v>
+        <v>0.4031008535346075</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07327163661459878</v>
+        <v>0.0447686838786871</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.07379368275276055</v>
+        <v>0.08985544149769677</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07465893950580026</v>
+        <v>0.01992521775806642</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1191867482976792</v>
+        <v>0.08985544149769677</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07487449942158436</v>
+        <v>0.01992521775806642</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2563431973091658</v>
+        <v>0.2646673828953671</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07490134459074187</v>
+        <v>0.04579508537410683</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3908854878886474</v>
+        <v>0.4009376341313146</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07486449828013353</v>
+        <v>0.04574191613691943</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0693517104107341</v>
+        <v>0.09018102946900487</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07624742758039176</v>
+        <v>0.02034915856142953</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1183733308532619</v>
+        <v>0.09018102946900487</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07646757387736275</v>
+        <v>0.02034915856142953</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2532175310804478</v>
+        <v>0.2627093692612585</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07649499022033211</v>
+        <v>0.04676944889270485</v>
       </c>
       <c r="N113" t="n">
-        <v>0.388550286657479</v>
+        <v>0.3991128558498865</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07645735994566828</v>
+        <v>0.04671514839515176</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06891377329241459</v>
+        <v>0.09049620467229226</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07783591565498324</v>
+        <v>0.02077309936479265</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1177668381126421</v>
+        <v>0.09049620467229226</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07806064833314115</v>
+        <v>0.02077309936479265</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2538061076020229</v>
+        <v>0.2626780008138323</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07808863584992236</v>
+        <v>0.04774381241130286</v>
       </c>
       <c r="N114" t="n">
-        <v>0.387738074614651</v>
+        <v>0.3986380840299367</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07805022161120304</v>
+        <v>0.04768838065338409</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.07043203034915797</v>
+        <v>0.09080112911954187</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07942440372957474</v>
+        <v>0.02119704016815576</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1171350406283696</v>
+        <v>0.09080112911954187</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07965372278891954</v>
+        <v>0.02119704016815576</v>
       </c>
       <c r="L115" t="n">
-        <v>0.250550627833711</v>
+        <v>0.2630792915045471</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07968228147951262</v>
+        <v>0.04871817592990088</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3846370028892456</v>
+        <v>0.3947248840110785</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07964308327673779</v>
+        <v>0.04866161291161641</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06989005140012139</v>
+        <v>0.09109596482273659</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08101289180416624</v>
+        <v>0.02162098097151888</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1168027710292827</v>
+        <v>0.09109596482273659</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08124679724469792</v>
+        <v>0.02162098097151888</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2504823627511013</v>
+        <v>0.2605192552848611</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08127592710910286</v>
+        <v>0.0496925394484989</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3817061905608067</v>
+        <v>0.3949848211329255</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08123594494227256</v>
+        <v>0.04963484516984874</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06629768669680079</v>
+        <v>0.0913808737938593</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08260137987875774</v>
+        <v>0.022044921774882</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1153824211498224</v>
+        <v>0.0913808737938593</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08283987170047631</v>
+        <v>0.022044921774882</v>
       </c>
       <c r="L117" t="n">
-        <v>0.246323921281332</v>
+        <v>0.2615039061062332</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08286957273869311</v>
+        <v>0.05066690296709692</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3803881013103222</v>
+        <v>0.394629460735091</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0828288066078073</v>
+        <v>0.05060807742808107</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06966478649069209</v>
+        <v>0.09165601804489291</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08418986795334922</v>
+        <v>0.02246886257824511</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1142899287010993</v>
+        <v>0.09165601804489291</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0844329461562547</v>
+        <v>0.02246886257824511</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2456093999031037</v>
+        <v>0.2619392579201216</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08446321836828337</v>
+        <v>0.05164126648569493</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3774348961804918</v>
+        <v>0.3913703681571883</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08442166827334206</v>
+        <v>0.0515813096863134</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0700012010332912</v>
+        <v>0.09192155958782024</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08577835602794072</v>
+        <v>0.02289280338160822</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1131412313942236</v>
+        <v>0.09192155958782024</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08602602061203309</v>
+        <v>0.02289280338160822</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2422728950951168</v>
+        <v>0.2601313246779848</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08605686399787363</v>
+        <v>0.05261563000429295</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3706987362140142</v>
+        <v>0.392519108738831</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08601452993887682</v>
+        <v>0.05255454194454573</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06831678057609404</v>
+        <v>0.09217766043462432</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08736684410253222</v>
+        <v>0.02331674418497134</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1125522669403059</v>
+        <v>0.09217766043462432</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08761909506781147</v>
+        <v>0.02331674418497134</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2406485033360717</v>
+        <v>0.2605861203312813</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08765050962746387</v>
+        <v>0.05358999352289097</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3686317824535891</v>
+        <v>0.3900872478196323</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08760739160441157</v>
+        <v>0.05352777420277806</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06362137537059653</v>
+        <v>0.0924244825972879</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08895533217712372</v>
+        <v>0.02374068498833445</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1109389730504566</v>
+        <v>0.0924244825972879</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08921216952358987</v>
+        <v>0.02374068498833445</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2374703211046691</v>
+        <v>0.2594096588314696</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08924415525705413</v>
+        <v>0.05456435704148899</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3651861959419157</v>
+        <v>0.3919863507392061</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08920025326994634</v>
+        <v>0.05450100646101039</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06392483566829459</v>
+        <v>0.09266218808779401</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09054382025171522</v>
+        <v>0.02416462579169757</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1107172874357863</v>
+        <v>0.09266218808779401</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09080524397936826</v>
+        <v>0.02416462579169757</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2359724448796094</v>
+        <v>0.2584003130555917</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09083780088664438</v>
+        <v>0.055538720560087</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3629141377216935</v>
+        <v>0.3887000968466491</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09079311493548108</v>
+        <v>0.05547423871924271</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06323701172068413</v>
+        <v>0.09289093891812543</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0921323083263067</v>
+        <v>0.02458856659506069</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1098031478074052</v>
+        <v>0.09289093891812543</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09239831843514665</v>
+        <v>0.02458856659506069</v>
       </c>
       <c r="L123" t="n">
-        <v>0.232688971139593</v>
+        <v>0.2601116200822251</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09243144651623462</v>
+        <v>0.05651308407868502</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3578677688356214</v>
+        <v>0.3885367358910231</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09238597660101584</v>
+        <v>0.05644747097747504</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06456775377926108</v>
+        <v>0.09311089710026514</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09372079640089818</v>
+        <v>0.0250125073984238</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1088124918764238</v>
+        <v>0.09311089710026514</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09399139289092505</v>
+        <v>0.0250125073984238</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2317539963633204</v>
+        <v>0.2579340533887632</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09402509214582488</v>
+        <v>0.05748744759728303</v>
       </c>
       <c r="N124" t="n">
-        <v>0.352099250326399</v>
+        <v>0.3885877661267644</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0939788382665506</v>
+        <v>0.05742070323570737</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06492691209552133</v>
+        <v>0.09332222464619601</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09530928447548968</v>
+        <v>0.02543644820178691</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1071612573539528</v>
+        <v>0.09332222464619601</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09558446734670344</v>
+        <v>0.02543644820178691</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2287016170294922</v>
+        <v>0.2576668478587147</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09561873777541514</v>
+        <v>0.05846181111588106</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3489607432367257</v>
+        <v>0.3896529419694942</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09557169993208535</v>
+        <v>0.0583939354939397</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06028898743917535</v>
+        <v>0.09352508356790092</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09689777255008118</v>
+        <v>0.02586038900515003</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1056510791738185</v>
+        <v>0.09352508356790092</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09717754180248182</v>
+        <v>0.02586038900515003</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2256424624345519</v>
+        <v>0.2585092383755881</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09721238340500539</v>
+        <v>0.05943617463447907</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3456531629670018</v>
+        <v>0.3874320178348346</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0971645615976201</v>
+        <v>0.05936716775217203</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05759281946320972</v>
+        <v>0.09371963587736275</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09848626062467268</v>
+        <v>0.02628432980851315</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1051671003453072</v>
+        <v>0.09371963587736275</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09877061625826021</v>
+        <v>0.02628432980851315</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2258352101474412</v>
+        <v>0.2591604598228923</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09880602903459564</v>
+        <v>0.06041053815307709</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3441988437726816</v>
+        <v>0.3872247481384071</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09875742326315486</v>
+        <v>0.06034040001040436</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06385022676622372</v>
+        <v>0.09390604358656442</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1000747486992642</v>
+        <v>0.02670827061187626</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1040992240117705</v>
+        <v>0.09390604358656442</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1003636907140386</v>
+        <v>0.02670827061187626</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2233461387302171</v>
+        <v>0.2585197470841358</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1003996746641859</v>
+        <v>0.06138490167167512</v>
       </c>
       <c r="N128" t="n">
-        <v>0.339371274177126</v>
+        <v>0.3895308872958341</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1003502849286896</v>
+        <v>0.06131363226863668</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06007530998611943</v>
+        <v>0.09408446870748884</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1016632367738557</v>
+        <v>0.02713221141523938</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1027702650113319</v>
+        <v>0.09408446870748884</v>
       </c>
       <c r="K129" t="n">
-        <v>0.101956765169817</v>
+        <v>0.02713221141523938</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2186240573021277</v>
+        <v>0.2584863350428272</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1019933202937761</v>
+        <v>0.06235926519027313</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3353451227282396</v>
+        <v>0.3892501897227367</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1019431465942244</v>
+        <v>0.06228686452686901</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06028216976079889</v>
+        <v>0.09425507325211886</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1032517248484472</v>
+        <v>0.02755615221860249</v>
       </c>
       <c r="J130" t="n">
-        <v>0.101803038182115</v>
+        <v>0.09425507325211886</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1035498396255954</v>
+        <v>0.02755615221860249</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2163177749824214</v>
+        <v>0.2590594585824754</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1035869659233664</v>
+        <v>0.06333362870887115</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3327950579739272</v>
+        <v>0.3880824098347371</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1035360082597591</v>
+        <v>0.06326009678510133</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05548490672816415</v>
+        <v>0.09441801923243741</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1048402129230387</v>
+        <v>0.02798009302196561</v>
       </c>
       <c r="J131" t="n">
-        <v>0.09982035836224344</v>
+        <v>0.09441801923243741</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1051429140813738</v>
+        <v>0.02798009302196561</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2137761008903466</v>
+        <v>0.2588383525865887</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1051806115529567</v>
+        <v>0.06430799222746916</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3266957484620933</v>
+        <v>0.3877273020474571</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1051288699252939</v>
+        <v>0.06423332904333366</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05969762152611728</v>
+        <v>0.09457346866042736</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1064287009976301</v>
+        <v>0.02840403382532872</v>
       </c>
       <c r="J132" t="n">
-        <v>0.09914504038984069</v>
+        <v>0.09457346866042736</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1067359885371522</v>
+        <v>0.02840403382532872</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2117478441451517</v>
+        <v>0.2570222519386761</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1067742571825469</v>
+        <v>0.06528235574606718</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3247218627406425</v>
+        <v>0.3884846207765185</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1067217315908287</v>
+        <v>0.06520656130156599</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0589344147925603</v>
+        <v>0.09472158354807163</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1080171890722216</v>
+        <v>0.02882797462869184</v>
       </c>
       <c r="J133" t="n">
-        <v>0.09709989910303037</v>
+        <v>0.09472158354807163</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1083290629929306</v>
+        <v>0.02882797462869184</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2092818138660849</v>
+        <v>0.2574103915222459</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1083679028121372</v>
+        <v>0.0662567192646652</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3213480693574799</v>
+        <v>0.3857541204375431</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1083145932563634</v>
+        <v>0.06617979355979833</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05720938716539528</v>
+        <v>0.09486252590735313</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1096056771468131</v>
+        <v>0.02925191543205495</v>
       </c>
       <c r="J134" t="n">
-        <v>0.09600774933993607</v>
+        <v>0.09486252590735313</v>
       </c>
       <c r="K134" t="n">
-        <v>0.109922137448709</v>
+        <v>0.02925191543205495</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2066268191723947</v>
+        <v>0.257402006220807</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1099615484417274</v>
+        <v>0.06723108278326322</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3164490368605102</v>
+        <v>0.3870355554461525</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1099074549218982</v>
+        <v>0.06715302581803066</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05653663928252425</v>
+        <v>0.09499645775025471</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1111941652214046</v>
+        <v>0.02967585623541807</v>
       </c>
       <c r="J135" t="n">
-        <v>0.09519140593868135</v>
+        <v>0.09499645775025471</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1115152119044873</v>
+        <v>0.02967585623541807</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2044316691833294</v>
+        <v>0.257696330917868</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1115551940713177</v>
+        <v>0.06820544630186123</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3138994337976376</v>
+        <v>0.3874286802179687</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1115003165874329</v>
+        <v>0.06812625807626298</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05893027178184929</v>
+        <v>0.0951235410887593</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1127826532959961</v>
+        <v>0.03009979703878118</v>
       </c>
       <c r="J136" t="n">
-        <v>0.09407368373738982</v>
+        <v>0.0951235410887593</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1131082863602657</v>
+        <v>0.03009979703878118</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2013451730181373</v>
+        <v>0.2569926004969375</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1131488397009079</v>
+        <v>0.06917980982045925</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3093739287167672</v>
+        <v>0.3842332491686137</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1130931782529676</v>
+        <v>0.06909949033449531</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05540438530127241</v>
+        <v>0.09524393793484971</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1143711413705876</v>
+        <v>0.0305237378421443</v>
       </c>
       <c r="J137" t="n">
-        <v>0.09297739757418504</v>
+        <v>0.09524393793484971</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1147013608160441</v>
+        <v>0.0305237378421443</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1998161397960669</v>
+        <v>0.2576900498415242</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1147424853304982</v>
+        <v>0.07015417333905727</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3062471901658036</v>
+        <v>0.3850490167137089</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1146860399185024</v>
+        <v>0.07007272259272763</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0549730804786957</v>
+        <v>0.09535781030050892</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1159596294451791</v>
+        <v>0.03094767864550741</v>
       </c>
       <c r="J138" t="n">
-        <v>0.09262536228719052</v>
+        <v>0.09535781030050892</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1162944352718225</v>
+        <v>0.03094767864550741</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1970933786363663</v>
+        <v>0.2562879138351365</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1163361309600884</v>
+        <v>0.07112853685765529</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3021938866926517</v>
+        <v>0.3858757372688763</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1162789015840372</v>
+        <v>0.07104595485095996</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05165045795202118</v>
+        <v>0.09546532019771993</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1175481175197706</v>
+        <v>0.03137161944887053</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09264039271452991</v>
+        <v>0.09546532019771993</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1178875097276009</v>
+        <v>0.03137161944887053</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1980256986582841</v>
+        <v>0.2559854273612835</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1179297765896787</v>
+        <v>0.0721029003762533</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3003886868452159</v>
+        <v>0.3855131652497377</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1178717632495719</v>
+        <v>0.07201918710919229</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05145061835915091</v>
+        <v>0.09556662963846536</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1191366055943621</v>
+        <v>0.03179556025223364</v>
       </c>
       <c r="J140" t="n">
-        <v>0.09164530369432682</v>
+        <v>0.09556662963846536</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1194805841833793</v>
+        <v>0.03179556025223364</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1967619089810684</v>
+        <v>0.2562818253034735</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1195234222192689</v>
+        <v>0.07307726389485132</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2997062591714013</v>
+        <v>0.385861055071915</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1194646249151067</v>
+        <v>0.07299241936742462</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05238736806873372</v>
+        <v>0.09566190063472836</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1207250936689536</v>
+        <v>0.03221950105559676</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0915629100647047</v>
+        <v>0.09566190063472836</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1210736586391577</v>
+        <v>0.03221950105559676</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1940508187239679</v>
+        <v>0.2584763425452155</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1211170678488592</v>
+        <v>0.07405162741344934</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2996212722191119</v>
+        <v>0.3825191611510299</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1210574865806414</v>
+        <v>0.07396565162565695</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05439957719209178</v>
+        <v>0.09575129519849164</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1223135817435451</v>
+        <v>0.03264344185895988</v>
       </c>
       <c r="J142" t="n">
-        <v>0.09166193625550091</v>
+        <v>0.09575129519849164</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1226667330949361</v>
+        <v>0.03264344185895988</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1954395547452003</v>
+        <v>0.2581682139700177</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1227107134784494</v>
+        <v>0.07502599093204736</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2999229967474164</v>
+        <v>0.3834872379027042</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1226503482461762</v>
+        <v>0.07493888388388928</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05343255735906478</v>
+        <v>0.09583497534173822</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1239020698181366</v>
+        <v>0.03306738266232299</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09120345894117245</v>
+        <v>0.09583497534173822</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1242598075507145</v>
+        <v>0.03306738266232299</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1942252219149784</v>
+        <v>0.256956674461389</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1243043591080397</v>
+        <v>0.07600035445064537</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2986606952389836</v>
+        <v>0.3814650397425599</v>
       </c>
       <c r="O143" t="n">
-        <v>0.124243209911711</v>
+        <v>0.07591211614212161</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05148527245991612</v>
+        <v>0.09591310307645094</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1254905578927281</v>
+        <v>0.03349132346568611</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09147740481800824</v>
+        <v>0.09591310307645094</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1258528820064929</v>
+        <v>0.03349132346568611</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1960803845911126</v>
+        <v>0.257440958902838</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1258980047376299</v>
+        <v>0.07697471796924339</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2985044340457481</v>
+        <v>0.3832523210862183</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1258360715772457</v>
+        <v>0.07688534840035394</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05355668638490915</v>
+        <v>0.09598584041461274</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1270790459673196</v>
+        <v>0.03391526426904922</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09108209746001368</v>
+        <v>0.09598584041461274</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1274459564622712</v>
+        <v>0.03391526426904922</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1952014562973</v>
+        <v>0.2556203021778733</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1274916503672202</v>
+        <v>0.07794908148784141</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3009487265500091</v>
+        <v>0.3840488363493019</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1274289332427805</v>
+        <v>0.07785858065858627</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05364576302430726</v>
+        <v>0.09605334936820646</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1286675340419111</v>
+        <v>0.03433920507241234</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09231586044119421</v>
+        <v>0.09605334936820646</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1290390309180497</v>
+        <v>0.03433920507241234</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1968848505572379</v>
+        <v>0.2567939391700038</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1290852959968104</v>
+        <v>0.07892344500643943</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2994880861340659</v>
+        <v>0.382254339947432</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1290217949083152</v>
+        <v>0.07883181291681858</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0497514662683738</v>
+        <v>0.09611579194921503</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1302560221165026</v>
+        <v>0.03476314587577545</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09257701733555511</v>
+        <v>0.09611579194921503</v>
       </c>
       <c r="K147" t="n">
-        <v>0.130632105373828</v>
+        <v>0.03476314587577545</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1969269808946236</v>
+        <v>0.2569611717070049</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1306789416264007</v>
+        <v>0.07989780852503744</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2998170261802179</v>
+        <v>0.3826686702462112</v>
       </c>
       <c r="O147" t="n">
-        <v>0.13061465657385</v>
+        <v>0.07980504517505092</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04987276000737213</v>
+        <v>0.09617333016962133</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1318445101910941</v>
+        <v>0.03518708667913856</v>
       </c>
       <c r="J148" t="n">
-        <v>0.09186389171710189</v>
+        <v>0.09617333016962133</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1322251798296064</v>
+        <v>0.03518708667913856</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1976242608331542</v>
+        <v>0.2562282466532047</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1322725872559909</v>
+        <v>0.08087217204363546</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3028300600707642</v>
+        <v>0.3808934179964117</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1322075182393847</v>
+        <v>0.08077827743328325</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05300860813156565</v>
+        <v>0.09622612604140822</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1334329982656856</v>
+        <v>0.03561102748250169</v>
       </c>
       <c r="J149" t="n">
-        <v>0.09177480715983992</v>
+        <v>0.09622612604140822</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1338182542853848</v>
+        <v>0.03561102748250169</v>
       </c>
       <c r="L149" t="n">
-        <v>0.196873103896527</v>
+        <v>0.256399359839138</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1338662328855812</v>
+        <v>0.08184653556223348</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3030217011880045</v>
+        <v>0.3829287867136443</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1338003799049195</v>
+        <v>0.08175150969151558</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05115797453121772</v>
+        <v>0.09627434157655866</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1350214863402771</v>
+        <v>0.0360349682858648</v>
       </c>
       <c r="J150" t="n">
-        <v>0.09270808723777461</v>
+        <v>0.09627434157655866</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1354113287411632</v>
+        <v>0.0360349682858648</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1970699236084392</v>
+        <v>0.2564741161737581</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1354598785151714</v>
+        <v>0.0828208990808315</v>
       </c>
       <c r="N150" t="n">
-        <v>0.302686462914238</v>
+        <v>0.3811741301250834</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1353932415704542</v>
+        <v>0.08272474194974791</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05031982309659171</v>
+        <v>0.09631813878705552</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1366099744148686</v>
+        <v>0.03645890908922791</v>
       </c>
       <c r="J151" t="n">
-        <v>0.09266205552491132</v>
+        <v>0.09631813878705552</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1370044031969416</v>
+        <v>0.03645890908922791</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1982111334925881</v>
+        <v>0.2552521205660183</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1370535241447617</v>
+        <v>0.08379526259942952</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3025188586317638</v>
+        <v>0.3808288019579045</v>
       </c>
       <c r="O151" t="n">
-        <v>0.136986103235989</v>
+        <v>0.08369797420798024</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05749311771795096</v>
+        <v>0.09635767968488167</v>
       </c>
       <c r="G152" t="n">
-        <v>0.13819846248946</v>
+        <v>0.03688284989259103</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09343503559525544</v>
+        <v>0.09635767968488167</v>
       </c>
       <c r="K152" t="n">
-        <v>0.13859747765272</v>
+        <v>0.03688284989259103</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1986931470726709</v>
+        <v>0.2567329779248719</v>
       </c>
       <c r="M152" t="n">
-        <v>0.138647169774352</v>
+        <v>0.08476962611802753</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3034134017228813</v>
+        <v>0.381992155939282</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1385789649015238</v>
+        <v>0.08467120646621255</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05467682228555887</v>
+        <v>0.09639312628202003</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1397869505640515</v>
+        <v>0.03730679069595414</v>
       </c>
       <c r="J153" t="n">
-        <v>0.09322535102281239</v>
+        <v>0.09639312628202003</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1401905521084984</v>
+        <v>0.03730679069595414</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1992123778723848</v>
+        <v>0.2568162931592721</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1402408154039422</v>
+        <v>0.08574398963662555</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3036646055698901</v>
+        <v>0.3819635457963912</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1401718265670585</v>
+        <v>0.08564443872444488</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05591358171609365</v>
+        <v>0.09642464059045351</v>
       </c>
       <c r="G154" t="n">
-        <v>0.141375438638643</v>
+        <v>0.03773073149931726</v>
       </c>
       <c r="J154" t="n">
-        <v>0.09435209214911329</v>
+        <v>0.09642464059045351</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1417836265642768</v>
+        <v>0.03773073149931726</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1989007687706204</v>
+        <v>0.2545016711781723</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1418344610335324</v>
+        <v>0.08671835315522357</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3077404048997697</v>
+        <v>0.3829423252564068</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1417646882325933</v>
+        <v>0.08661767098267723</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05431895405321294</v>
+        <v>0.09645238462216495</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1429639267132345</v>
+        <v>0.03815467230268037</v>
       </c>
       <c r="J155" t="n">
-        <v>0.09451915460742839</v>
+        <v>0.09645238462216495</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1433767010200551</v>
+        <v>0.03815467230268037</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2018896504053896</v>
+        <v>0.2541887168905257</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1434281066631227</v>
+        <v>0.08769271667382159</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3103100699268148</v>
+        <v>0.3819278480465038</v>
       </c>
       <c r="O155" t="n">
-        <v>0.143357549898128</v>
+        <v>0.08759090324090955</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0528709615673367</v>
+        <v>0.09647652038913733</v>
       </c>
       <c r="G156" t="n">
-        <v>0.144552414787826</v>
+        <v>0.03857861310604349</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09483867063262942</v>
+        <v>0.09647652038913733</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1449697754758335</v>
+        <v>0.03857861310604349</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2022226567688985</v>
+        <v>0.2554770352052856</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1450217522927129</v>
+        <v>0.0886670801924196</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3099036652206276</v>
+        <v>0.381919467893857</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1449504115636628</v>
+        <v>0.08856413549914188</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05953832660625609</v>
+        <v>0.09649720990335346</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1461409028624175</v>
+        <v>0.0390025539094066</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09586003297013775</v>
+        <v>0.09649720990335346</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1465628499316119</v>
+        <v>0.0390025539094066</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2062915207978361</v>
+        <v>0.2541662310314053</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1466153979223032</v>
+        <v>0.08964144371101762</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3152555630352492</v>
+        <v>0.3809165385256414</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1465432732291976</v>
+        <v>0.0895373677573742</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05628977151776224</v>
+        <v>0.09651461517679628</v>
       </c>
       <c r="G158" t="n">
-        <v>0.147729390937009</v>
+        <v>0.03942649471276972</v>
       </c>
       <c r="J158" t="n">
-        <v>0.09753263436537456</v>
+        <v>0.09651461517679628</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1481559243873903</v>
+        <v>0.03942649471276972</v>
       </c>
       <c r="L158" t="n">
-        <v>0.208487975428891</v>
+        <v>0.2564559092778381</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1482090435518935</v>
+        <v>0.09061580722961564</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3187001356247202</v>
+        <v>0.3791184136690319</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1481361348947323</v>
+        <v>0.09051060001560653</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0620940186496463</v>
+        <v>0.09652889822144863</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1493178790116005</v>
+        <v>0.03985043551613283</v>
       </c>
       <c r="J159" t="n">
-        <v>0.09920586756376133</v>
+        <v>0.09652889822144863</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1497489988431687</v>
+        <v>0.03985043551613283</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2119037535987518</v>
+        <v>0.2550456748535371</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1498026891814837</v>
+        <v>0.09159017074821366</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3248717552430812</v>
+        <v>0.3823244470512033</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1497289965602671</v>
+        <v>0.09148383227383886</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05791979034969937</v>
+        <v>0.09654022104929351</v>
       </c>
       <c r="G160" t="n">
-        <v>0.150906367086192</v>
+        <v>0.04027437631949595</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1003291253107193</v>
+        <v>0.09654022104929351</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1513420732989471</v>
+        <v>0.04027437631949595</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2135305882441074</v>
+        <v>0.2550351326674559</v>
       </c>
       <c r="M160" t="n">
-        <v>0.151396334811074</v>
+        <v>0.09256453426681167</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3260047941443733</v>
+        <v>0.3793339923993306</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1513218582258018</v>
+        <v>0.09245706453207118</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06373580896571264</v>
+        <v>0.09654874567231371</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1524948551607835</v>
+        <v>0.04069831712285907</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1010518003516698</v>
+        <v>0.09654874567231371</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1529351477547255</v>
+        <v>0.04069831712285907</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2162602123016464</v>
+        <v>0.2543238876285474</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1529899804406642</v>
+        <v>0.09353889778540969</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3306336245826369</v>
+        <v>0.3790464034405887</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1529147198913366</v>
+        <v>0.09343029679030353</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0635107968454772</v>
+        <v>0.0965546341024922</v>
       </c>
       <c r="G162" t="n">
-        <v>0.154083343235375</v>
+        <v>0.04112225792622218</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1024232854320343</v>
+        <v>0.0965546341024922</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1545282222105039</v>
+        <v>0.04112225792622218</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2183843587080576</v>
+        <v>0.2548115446457653</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1545836260702545</v>
+        <v>0.09451326130400771</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3338926188119131</v>
+        <v>0.3820610339021526</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1545075815568713</v>
+        <v>0.09440352904853584</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06121347633678423</v>
+        <v>0.09655804835181185</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1556718313099665</v>
+        <v>0.04154619872958529</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1032929732972339</v>
+        <v>0.09655804835181185</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1561212966662823</v>
+        <v>0.04154619872958529</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2208947604000298</v>
+        <v>0.2558977086280626</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1561772716998447</v>
+        <v>0.09548762482260573</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3403161490862423</v>
+        <v>0.3821772375111969</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1561004432224061</v>
+        <v>0.09537676130676817</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05782072926653391</v>
+        <v>0.09655915043225551</v>
       </c>
       <c r="G164" t="n">
-        <v>0.157260319384558</v>
+        <v>0.04197013953294841</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1045110115162855</v>
+        <v>0.09655915043225551</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1577143711220607</v>
+        <v>0.04197013953294841</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2234837546980516</v>
+        <v>0.2533819844843926</v>
       </c>
       <c r="M164" t="n">
-        <v>0.157770917329435</v>
+        <v>0.09646198834120374</v>
       </c>
       <c r="N164" t="n">
-        <v>0.343641826914914</v>
+        <v>0.3801943679948969</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1576933048879408</v>
+        <v>0.0963499935650005</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06339398977805487</v>
+        <v>0.09655915043225553</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1588488074591495</v>
+        <v>0.04197013953294841</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1052398152762452</v>
+        <v>0.09655915043225553</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1593074455778391</v>
+        <v>0.04197013953294841</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2242711520400378</v>
+        <v>0.2547639771237087</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1593645629590252</v>
+        <v>0.09743635185980176</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3472814218810401</v>
+        <v>0.3799117790804273</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1592861665534756</v>
+        <v>0.09732322582323283</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0619536065855394</v>
+        <v>0.09499639366509445</v>
       </c>
       <c r="G166" t="n">
-        <v>0.160437295533741</v>
+        <v>0.0419698710044844</v>
       </c>
       <c r="J166" t="n">
-        <v>0.10654614950275</v>
+        <v>0.09499639366509445</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1609005200336174</v>
+        <v>0.0419698710044844</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2262103743560649</v>
+        <v>0.2530432914549641</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1609582085886155</v>
+        <v>0.09841071537839978</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3492475380796353</v>
+        <v>0.3793288244949631</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1608790282190103</v>
+        <v>0.09829645808146516</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.06350057191025456</v>
+        <v>0.09345086428668288</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1620257836083325</v>
+        <v>0.04196960247602038</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1073316196102318</v>
+        <v>0.09345086428668288</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1624935944893958</v>
+        <v>0.04196960247602038</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2303048562032418</v>
+        <v>0.2538195323871121</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1625518542182057</v>
+        <v>0.0993850788969978</v>
       </c>
       <c r="N167" t="n">
-        <v>0.351245429721305</v>
+        <v>0.3797448579656789</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1624718898845451</v>
+        <v>0.09926969033969749</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06303587797346731</v>
+        <v>0.0919233205523496</v>
       </c>
       <c r="G168" t="n">
-        <v>0.163614271682924</v>
+        <v>0.04196933394755636</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1076978310131229</v>
+        <v>0.0919233205523496</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1640866689451742</v>
+        <v>0.04196933394755636</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2309580321386771</v>
+        <v>0.252792304829106</v>
       </c>
       <c r="M168" t="n">
-        <v>0.164145499847796</v>
+        <v>0.1003594424155958</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3550803510166545</v>
+        <v>0.38185923321975</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1640647515500799</v>
+        <v>0.1002429225979298</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06856051699644475</v>
+        <v>0.09041452071728966</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1652027597575155</v>
+        <v>0.04196906541909234</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1088463891258554</v>
+        <v>0.09041452071728966</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1656797434009526</v>
+        <v>0.04196906541909234</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2322733367194795</v>
+        <v>0.254761213689899</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1657391454773862</v>
+        <v>0.1013338059341938</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3593575561762896</v>
+        <v>0.3813713039843512</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1656576132156146</v>
+        <v>0.1012161548561621</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06507548120045387</v>
+        <v>0.08892522303683022</v>
       </c>
       <c r="G170" t="n">
-        <v>0.166791247832107</v>
+        <v>0.04196879689062832</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1097788993628614</v>
+        <v>0.08892522303683022</v>
       </c>
       <c r="K170" t="n">
-        <v>0.167272817856731</v>
+        <v>0.04196879689062832</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2339542045027576</v>
+        <v>0.2530258638784445</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1673327911069765</v>
+        <v>0.1023081694527919</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3590822994108157</v>
+        <v>0.3789804239866572</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1672504748811494</v>
+        <v>0.1021893871143945</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06558176280676167</v>
+        <v>0.08745618576616797</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1683797359066984</v>
+        <v>0.0419685283621643</v>
       </c>
       <c r="J171" t="n">
-        <v>0.111396967138573</v>
+        <v>0.08745618576616797</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1688658923125094</v>
+        <v>0.0419685283621643</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2354040700456201</v>
+        <v>0.2546858603036957</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1689264367365667</v>
+        <v>0.1032825329713899</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3632598349308385</v>
+        <v>0.3806859469538432</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1688433365466841</v>
+        <v>0.1031626193726268</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06708035403663526</v>
+        <v>0.08600816716062841</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1699682239812899</v>
+        <v>0.04196825983370029</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1110021978674223</v>
+        <v>0.08600816716062841</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1704589667682878</v>
+        <v>0.04196825983370029</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2390263679051757</v>
+        <v>0.2523408078746059</v>
       </c>
       <c r="M172" t="n">
-        <v>0.170520082366157</v>
+        <v>0.1042568964899879</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3666954169469628</v>
+        <v>0.3802872266130838</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1704361982122189</v>
+        <v>0.1041358516308591</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06557224711134163</v>
+        <v>0.08458192547541003</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1715567120558814</v>
+        <v>0.04196799130523627</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1127961969638414</v>
+        <v>0.08458192547541003</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1720520412240662</v>
+        <v>0.04196799130523627</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2401245326385331</v>
+        <v>0.2529903115001285</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1721137279957473</v>
+        <v>0.1052312600085859</v>
       </c>
       <c r="N173" t="n">
-        <v>0.367294299669795</v>
+        <v>0.3795836166915543</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1720290598777536</v>
+        <v>0.1051090838890915</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.07005843425214782</v>
+        <v>0.08317821896583642</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1731452001304729</v>
+        <v>0.04196772277677226</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1132805698422626</v>
+        <v>0.08317821896583642</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1736451156798446</v>
+        <v>0.04196772277677226</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2430019988028009</v>
+        <v>0.2534339760892166</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1737073736253375</v>
+        <v>0.1062056235271839</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3714617373099403</v>
+        <v>0.3789744709164292</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1736219215432884</v>
+        <v>0.1060823161473238</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06653990768032085</v>
+        <v>0.08179780588710804</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1747336882050644</v>
+        <v>0.04196745424830824</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1143569219171179</v>
+        <v>0.08179780588710804</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1752381901356229</v>
+        <v>0.04196745424830824</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2441622009550878</v>
+        <v>0.2515714065508235</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1753010192549277</v>
+        <v>0.1071799870457819</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3726029840780041</v>
+        <v>0.3788591430148837</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1752147832088231</v>
+        <v>0.1070555484055561</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06602984015468909</v>
+        <v>0.08044144449454645</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1763221762796559</v>
+        <v>0.04196718571984422</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1143359617295516</v>
+        <v>0.08044144449454645</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1768312645914014</v>
+        <v>0.04196718571984422</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2460257930028359</v>
+        <v>0.2520022077939025</v>
       </c>
       <c r="M176" t="n">
-        <v>0.176894664884518</v>
+        <v>0.10815435056438</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3750544233654213</v>
+        <v>0.3804369867140927</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1768076448743579</v>
+        <v>0.1080287806637884</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06754758019651867</v>
+        <v>0.07910989304335415</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1779106643542474</v>
+        <v>0.0419669171913802</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1157596255756815</v>
+        <v>0.07910989304335415</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1784243390471797</v>
+        <v>0.0419669171913802</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2481839248496043</v>
+        <v>0.252925984727407</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1784883105141083</v>
+        <v>0.109128714082978</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3765523635721095</v>
+        <v>0.3812073557412309</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1784005065398927</v>
+        <v>0.1090020129220208</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.06907732296713608</v>
+        <v>0.07780390978885067</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1794991524288389</v>
+        <v>0.04196664866291619</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1160095614025288</v>
+        <v>0.07780390978885067</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1800174135029581</v>
+        <v>0.04196664866291619</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2496000814307948</v>
+        <v>0.2520423422602902</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1800819561436985</v>
+        <v>0.110103077601576</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3828352493631686</v>
+        <v>0.3786696038234731</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1799933682054274</v>
+        <v>0.1099752451802531</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.07360202385518241</v>
+        <v>0.07652425298624062</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1810876405034304</v>
+        <v>0.04196638013445217</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1167581910216645</v>
+        <v>0.07652425298624062</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1816104879587365</v>
+        <v>0.04196638013445217</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2507152631129059</v>
+        <v>0.2517508853015054</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1816756017732888</v>
+        <v>0.111077441120174</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3855128226673953</v>
+        <v>0.3781230846879946</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1815862298709622</v>
+        <v>0.1109484774384854</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07210463824929882</v>
+        <v>0.07527168089084126</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1826761285780219</v>
+        <v>0.04196611160598816</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1179779362446596</v>
+        <v>0.07527168089084126</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1832035624145149</v>
+        <v>0.04196611160598816</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2520704702624364</v>
+        <v>0.2523512187600058</v>
       </c>
       <c r="M180" t="n">
-        <v>0.183269247402879</v>
+        <v>0.112051804638772</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3874948254135873</v>
+        <v>0.3807671520619702</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1831790915364969</v>
+        <v>0.1119217096967178</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.07156812153812642</v>
+        <v>0.07404695175785957</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1842646166526134</v>
+        <v>0.04196584307752414</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1185412188830852</v>
+        <v>0.07404695175785957</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1847966368702933</v>
+        <v>0.04196584307752414</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2532067032458848</v>
+        <v>0.2504429475447448</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1848628930324692</v>
+        <v>0.11302616815737</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3868909995305414</v>
+        <v>0.3799011596725745</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1847719532020317</v>
+        <v>0.1128949419549501</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.07097542911030637</v>
+        <v>0.07285082384261042</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1858531047272049</v>
+        <v>0.04196557454906012</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1189204607485121</v>
+        <v>0.07285082384261042</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1863897113260717</v>
+        <v>0.04196557454906012</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2561649624297496</v>
+        <v>0.2524256765646755</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1864565386620595</v>
+        <v>0.1140005316759681</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3921110869470554</v>
+        <v>0.380124461246983</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1863648148675664</v>
+        <v>0.1138681742131824</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.07130951635447974</v>
+        <v>0.07168405540032831</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1874415928017964</v>
+        <v>0.0419653060205961</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1206880836525115</v>
+        <v>0.07168405540032831</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1879827857818501</v>
+        <v>0.0419653060205961</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2559862481805296</v>
+        <v>0.2519990107287515</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1880501842916498</v>
+        <v>0.1149748951945661</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3915648295919263</v>
+        <v>0.37823641051237</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1879576765331012</v>
+        <v>0.1148414064714147</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.07455334892735589</v>
+        <v>0.07054740468625036</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1890300808763879</v>
+        <v>0.04196503749213208</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1205165094066542</v>
+        <v>0.07054740468625036</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1895758602376285</v>
+        <v>0.04196503749213208</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2577115608647232</v>
+        <v>0.2503625549459257</v>
       </c>
       <c r="M184" t="n">
-        <v>0.18964382992124</v>
+        <v>0.1159492587131641</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3958619693939516</v>
+        <v>0.3770363611959107</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1895505381986359</v>
+        <v>0.1158146387296471</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0737458095886814</v>
+        <v>0.06944162995568755</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1906185689509794</v>
+        <v>0.04196476896366807</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1208314436014819</v>
+        <v>0.06944162995568755</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1911689346934069</v>
+        <v>0.04196476896366807</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2584875315468366</v>
+        <v>0.2510159141251516</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1912374755508303</v>
+        <v>0.1169236222317621</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3939915347956936</v>
+        <v>0.3782236670247798</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1911433998641707</v>
+        <v>0.1167878709878794</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06993422096719075</v>
+        <v>0.06836748946385328</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1922070570255709</v>
+        <v>0.04196450043520405</v>
       </c>
       <c r="J186" t="n">
-        <v>0.121136025758856</v>
+        <v>0.06836748946385328</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1927620091491853</v>
+        <v>0.04196450043520405</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2583390696427875</v>
+        <v>0.2517396655253089</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1928311211804205</v>
+        <v>0.1178979857503601</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3981884143673644</v>
+        <v>0.3780685058081599</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1927362615297055</v>
+        <v>0.1177611032461117</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.06811852033640768</v>
+        <v>0.06732574146605581</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1937955451001624</v>
+        <v>0.04196423190674003</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1213339966284962</v>
+        <v>0.06732574146605581</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1943550836049636</v>
+        <v>0.04196423190674003</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2596764749629449</v>
+        <v>0.2496510383240558</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1944247668100108</v>
+        <v>0.1188723492689581</v>
       </c>
       <c r="N187" t="n">
-        <v>0.397863650122642</v>
+        <v>0.3777795241061052</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1943291231952402</v>
+        <v>0.1187343355043441</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.07129864496985598</v>
+        <v>0.06631714421751135</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1953840331747539</v>
+        <v>0.04196396337827601</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1214252547189374</v>
+        <v>0.06631714421751135</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1959481580607421</v>
+        <v>0.04196396337827601</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2603995303806738</v>
+        <v>0.2507471126217051</v>
       </c>
       <c r="M188" t="n">
-        <v>0.196018412439601</v>
+        <v>0.1198467127875562</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4005169098996113</v>
+        <v>0.3763578363086605</v>
       </c>
       <c r="O188" t="n">
-        <v>0.195921984860775</v>
+        <v>0.1197075677625764</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.07547453214105944</v>
+        <v>0.0653424559735253</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1969725212493454</v>
+        <v>0.041963694849812</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1218096985387142</v>
+        <v>0.0653424559735253</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1975412325165204</v>
+        <v>0.041963694849812</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2594080187693391</v>
+        <v>0.2477356242859476</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1976120580691913</v>
+        <v>0.1208210763061542</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4004478615363568</v>
+        <v>0.3743120568744974</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1975148465263097</v>
+        <v>0.1206808000208087</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0756461191235418</v>
+        <v>0.06439933878033223</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1985610093239369</v>
+        <v>0.04196342632134798</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1223872265963616</v>
+        <v>0.06439933878033223</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1991343069722988</v>
+        <v>0.04196342632134798</v>
       </c>
       <c r="L190" t="n">
-        <v>0.262301723002306</v>
+        <v>0.2471243091844738</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1992057036987815</v>
+        <v>0.1217954398247522</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4011561728709627</v>
+        <v>0.3734508002622875</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1991077081918445</v>
+        <v>0.121654032279041</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.07681334319082686</v>
+        <v>0.06346997363932776</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2001494973985284</v>
+        <v>0.04196315779288397</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1224577374004142</v>
+        <v>0.06346997363932776</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2007273814280772</v>
+        <v>0.04196315779288397</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2607804259529395</v>
+        <v>0.2469209031849742</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2007993493283718</v>
+        <v>0.1227698033433502</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4019415117415138</v>
+        <v>0.3743826809307025</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2007005698573792</v>
+        <v>0.1226272645372734</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.07197614161643837</v>
+        <v>0.06255202259674809</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2017379854731198</v>
+        <v>0.04196288926441995</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1234211294594068</v>
+        <v>0.06255202259674809</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2023204558838556</v>
+        <v>0.04196288926441995</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2620439104946048</v>
+        <v>0.2478331421551398</v>
       </c>
       <c r="M192" t="n">
-        <v>0.202392994957962</v>
+        <v>0.1237441668619482</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4039035459860947</v>
+        <v>0.374316313338414</v>
       </c>
       <c r="O192" t="n">
-        <v>0.202293431522914</v>
+        <v>0.1236004967955057</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.07313445167390011</v>
+        <v>0.06164624390789479</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2033264735477113</v>
+        <v>0.04196262073595593</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1232773012818743</v>
+        <v>0.06164624390789479</v>
       </c>
       <c r="K193" t="n">
-        <v>0.203913530339634</v>
+        <v>0.04196262073595593</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2627919595006667</v>
+        <v>0.244368761962661</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2039866405875523</v>
+        <v>0.1247185303805463</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4028419434427896</v>
+        <v>0.3728603119440932</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2038862931884488</v>
+        <v>0.124573729053738</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.07228821063673586</v>
+        <v>0.06075339582798987</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2049149616223028</v>
+        <v>0.04196235220749191</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1231261513763514</v>
+        <v>0.06075339582798987</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2055066047954124</v>
+        <v>0.04196235220749191</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2640243558444905</v>
+        <v>0.2453354984752285</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2055802862171425</v>
+        <v>0.1256928938991443</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4050563719496831</v>
+        <v>0.3733232912064123</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2054791548539835</v>
+        <v>0.1255469613119704</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0744373557784694</v>
+        <v>0.05987423661233379</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2065034496968943</v>
+        <v>0.04196208367902789</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1229675782513728</v>
+        <v>0.05987423661233379</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2070996792511908</v>
+        <v>0.04196208367902789</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2634408823994412</v>
+        <v>0.2436410875605329</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2071739318467328</v>
+        <v>0.1266672574177423</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4059464993448598</v>
+        <v>0.3722138655840426</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2070720165195183</v>
+        <v>0.1265201935702027</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.07458182437262449</v>
+        <v>0.05900952451614977</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2080919377714858</v>
+        <v>0.04196181515056387</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1238014804154735</v>
+        <v>0.05900952451614977</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2086927537069692</v>
+        <v>0.04196181515056387</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2651413220388839</v>
+        <v>0.241593265086265</v>
       </c>
       <c r="M196" t="n">
-        <v>0.208767577476323</v>
+        <v>0.1276416209363403</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4045119934664045</v>
+        <v>0.3694406495356556</v>
       </c>
       <c r="O196" t="n">
-        <v>0.208664878185053</v>
+        <v>0.127493425828435</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0737215536927249</v>
+        <v>0.05816001779473698</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2096804258460773</v>
+        <v>0.04196154662209986</v>
       </c>
       <c r="J197" t="n">
-        <v>0.123727756377188</v>
+        <v>0.05816001779473698</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2102858281627476</v>
+        <v>0.04196154662209986</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2660254576361833</v>
+        <v>0.2404997669201154</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2103612231059133</v>
+        <v>0.1286159844549383</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4050525221524014</v>
+        <v>0.3660122575199231</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2102577398505878</v>
+        <v>0.1284666580866673</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.07385648101229442</v>
+        <v>0.05732647470333793</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2112689139206688</v>
+        <v>0.04196127809363585</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1237463046450514</v>
+        <v>0.05732647470333793</v>
       </c>
       <c r="K198" t="n">
-        <v>0.211878902618526</v>
+        <v>0.04196127809363585</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2667930720647049</v>
+        <v>0.2402683289297747</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2119548687355036</v>
+        <v>0.1295903479735363</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4051677532409349</v>
+        <v>0.3642373039955166</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2118506015161225</v>
+        <v>0.1294398903448997</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.07398654360485681</v>
+        <v>0.05650965349719658</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2128574019952603</v>
+        <v>0.04196100956517183</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1250570237275983</v>
+        <v>0.05650965349719658</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2134719770743043</v>
+        <v>0.04196100956517183</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2665439481978137</v>
+        <v>0.2379066869829335</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2135485143650938</v>
+        <v>0.1305647114921344</v>
       </c>
       <c r="N199" t="n">
-        <v>0.4079573545700899</v>
+        <v>0.3649244034211078</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2134434631816573</v>
+        <v>0.130413122603132</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.07611167874393586</v>
+        <v>0.05571031243160991</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2144458900698518</v>
+        <v>0.04196074103670781</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1249598121333634</v>
+        <v>0.05571031243160991</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2150650515300827</v>
+        <v>0.04196074103670781</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2676778689088746</v>
+        <v>0.2363225769472828</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2151421599946841</v>
+        <v>0.1315390750107324</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4074209939779505</v>
+        <v>0.363582170255368</v>
       </c>
       <c r="O200" t="n">
-        <v>0.215036324847192</v>
+        <v>0.1313863548613643</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.07223182370305532</v>
+        <v>0.05492920976180475</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2160343781444433</v>
+        <v>0.04196047250824379</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1250545683708817</v>
+        <v>0.05492920976180475</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2166581259858611</v>
+        <v>0.04196047250824379</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2672946170712526</v>
+        <v>0.2362237346905127</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2167358056242743</v>
+        <v>0.1325134385293304</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4090583393026015</v>
+        <v>0.3630192189569692</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2166291865127268</v>
+        <v>0.1323595871195967</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.07734691575573899</v>
+        <v>0.05416710374307658</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2176228662190348</v>
+        <v>0.04196020397977978</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1254411909486878</v>
+        <v>0.05416710374307658</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2182512004416395</v>
+        <v>0.04196020397977978</v>
       </c>
       <c r="L202" t="n">
-        <v>0.268193975558313</v>
+        <v>0.2350178960803143</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2183294512538645</v>
+        <v>0.1334878020479284</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4085690583821274</v>
+        <v>0.3601441639845828</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2182220481782615</v>
+        <v>0.133332819377829</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.07845689217551061</v>
+        <v>0.05342475263065376</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2192113542936263</v>
+        <v>0.04195993545131576</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1257195783753166</v>
+        <v>0.05342475263065376</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2198442748974179</v>
+        <v>0.04195993545131576</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2667757272434208</v>
+        <v>0.2322127969843781</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2199230968834548</v>
+        <v>0.1344621655665264</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4087528190546127</v>
+        <v>0.3600656197968803</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2198149098437963</v>
+        <v>0.1343060516360613</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.07856169023589399</v>
+        <v>0.05270291467983008</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2207998423682178</v>
+        <v>0.04195966692285175</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1250896291593028</v>
+        <v>0.05270291467983008</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2214373493531963</v>
+        <v>0.04195966692285175</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2687396549999409</v>
+        <v>0.2319161732703947</v>
       </c>
       <c r="M204" t="n">
-        <v>0.221516742513045</v>
+        <v>0.1354365290851244</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4112092891581417</v>
+        <v>0.3585922008525336</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2214077715093311</v>
+        <v>0.1352792838942936</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.07366124721041284</v>
+        <v>0.05200234814583574</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2223883304428093</v>
+        <v>0.04195939839438773</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1257512418091812</v>
+        <v>0.05200234814583574</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2230304238089747</v>
+        <v>0.04195939839438773</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2684855417012386</v>
+        <v>0.2309357608060548</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2231103881426353</v>
+        <v>0.1364108926037225</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4094381365307993</v>
+        <v>0.356432521610214</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2230006331748658</v>
+        <v>0.136252516152526</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.074755500372591</v>
+        <v>0.05132381128396266</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2239768185174008</v>
+        <v>0.04195912986592371</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1258043148334867</v>
+        <v>0.05132381128396266</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2246234982647531</v>
+        <v>0.04195912986592371</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2691131702206787</v>
+        <v>0.230779295459049</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2247040337722256</v>
+        <v>0.1373852561223205</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4131390290106698</v>
+        <v>0.3561951965285933</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2245934948404006</v>
+        <v>0.1372257484107583</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.07184438699595225</v>
+        <v>0.05066806234944293</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2255653065919923</v>
+        <v>0.04195886133745969</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1257487467407539</v>
+        <v>0.05066806234944293</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2262165727205315</v>
+        <v>0.04195886133745969</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2678223234316264</v>
+        <v>0.2297545130970682</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2262976794018158</v>
+        <v>0.1383596196409185</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4103116344358375</v>
+        <v>0.3538888400663429</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2261863565059353</v>
+        <v>0.1381989806689906</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.07492784435402031</v>
+        <v>0.05003585959756653</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2271537946665838</v>
+        <v>0.04195859280899567</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1262844360395178</v>
+        <v>0.05003585959756653</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2278096471763099</v>
+        <v>0.04195859280899567</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2692127842074468</v>
+        <v>0.2271691495878027</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2278913250314061</v>
+        <v>0.1393339831595165</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4129556206443876</v>
+        <v>0.3513220666821345</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2277792181714701</v>
+        <v>0.139172212927223</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.07100580972031896</v>
+        <v>0.04942796128356751</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2287422827411753</v>
+        <v>0.04195832428053165</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1262112812383129</v>
+        <v>0.04942796128356751</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2294027216320883</v>
+        <v>0.04195832428053165</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2704843354215049</v>
+        <v>0.2254309407989433</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2294849706609963</v>
+        <v>0.1403083466781145</v>
       </c>
       <c r="N209" t="n">
-        <v>0.412070655474404</v>
+        <v>0.3505034908346399</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2293720798370049</v>
+        <v>0.1401454451854553</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.07907822036837202</v>
+        <v>0.04884512566273386</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2303307708157668</v>
+        <v>0.04195805575206764</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1261291808456742</v>
+        <v>0.04884512566273386</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2309957960878667</v>
+        <v>0.04195805575206764</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2707367599471657</v>
+        <v>0.2252476225981807</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2310786162905866</v>
+        <v>0.1412827101967125</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4143564067639713</v>
+        <v>0.3473417269825304</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2309649415025396</v>
+        <v>0.1411186774436876</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.07514501357170321</v>
+        <v>0.04828811099030171</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2319192588903582</v>
+        <v>0.04195778722360362</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1263380333701364</v>
+        <v>0.04828811099030171</v>
       </c>
       <c r="K211" t="n">
-        <v>0.232588870543645</v>
+        <v>0.04195778722360362</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2698698406577943</v>
+        <v>0.2251269308532055</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2326722619201768</v>
+        <v>0.1422570737153106</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4129125423511742</v>
+        <v>0.3478453895844779</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2325578031680744</v>
+        <v>0.1420919097019199</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.07420612660383634</v>
+        <v>0.04775767552155687</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2335077469649497</v>
+        <v>0.0419575186951396</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1262377373202343</v>
+        <v>0.04775767552155687</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2341819449994234</v>
+        <v>0.0419575186951396</v>
       </c>
       <c r="L212" t="n">
-        <v>0.269783360426756</v>
+        <v>0.2227766014317085</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2342659075497671</v>
+        <v>0.1432314372339086</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4147387300740975</v>
+        <v>0.3452230930991536</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2341506648336091</v>
+        <v>0.1430651419601523</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.07626149673829517</v>
+        <v>0.04725457751173774</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2350962350395412</v>
+        <v>0.04195725016667558</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1265281912045027</v>
+        <v>0.04725457751173774</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2357750194552018</v>
+        <v>0.04195725016667558</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2692771021274155</v>
+        <v>0.2222043702013801</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2358595531793574</v>
+        <v>0.1442058007525066</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4149346377708248</v>
+        <v>0.3445834519852293</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2357435264991439</v>
+        <v>0.1440383742183846</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.07631106124860346</v>
+        <v>0.04677957521612776</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2366847231141327</v>
+        <v>0.04195698163821157</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1266092935314764</v>
+        <v>0.04677957521612776</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2373680939109802</v>
+        <v>0.04195698163821157</v>
       </c>
       <c r="L214" t="n">
-        <v>0.270250848633138</v>
+        <v>0.2203179730299111</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2374531988089476</v>
+        <v>0.1451801642711046</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4141999332794416</v>
+        <v>0.3433350807013765</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2373363881646786</v>
+        <v>0.1450116064766169</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.07135475740828502</v>
+        <v>0.04677957521612774</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2382732111887242</v>
+        <v>0.04195698163821157</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1260809428096901</v>
+        <v>0.04677957521612774</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2389611683667586</v>
+        <v>0.04195698163821157</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2704043828172886</v>
+        <v>0.2200251457849922</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2390468444385379</v>
+        <v>0.1461545277897026</v>
       </c>
       <c r="N215" t="n">
-        <v>0.412634284438032</v>
+        <v>0.3436865937062673</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2389292498302134</v>
+        <v>0.1459848387348492</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.07739252249086358</v>
+        <v>0.04556453809573766</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2398616992633157</v>
+        <v>0.04195062430625027</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1268430375476786</v>
+        <v>0.04556453809573766</v>
       </c>
       <c r="K216" t="n">
-        <v>0.240554242822537</v>
+        <v>0.04195062430625027</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2704374875532323</v>
+        <v>0.2190336243343138</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2406404900681281</v>
+        <v>0.1471288913083006</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4168373590846802</v>
+        <v>0.3417466054585726</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2405221114957481</v>
+        <v>0.1469580709930816</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.07242429376986294</v>
+        <v>0.04436168583463786</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2414501873379072</v>
+        <v>0.04194426697428898</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1264954762539767</v>
+        <v>0.04436168583463786</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2421473172783154</v>
+        <v>0.04194426697428898</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2705499457143342</v>
+        <v>0.2186511445455669</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2422341356977183</v>
+        <v>0.1481032548268987</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4136088250574714</v>
+        <v>0.3406237304169644</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2421149731612829</v>
+        <v>0.1479313032513139</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.07545000851880686</v>
+        <v>0.04317141609898602</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2430386754124987</v>
+        <v>0.04193790964232768</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1265381574371193</v>
+        <v>0.04317141609898602</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2437403917340938</v>
+        <v>0.04193790964232768</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2699415401739593</v>
+        <v>0.219185442286442</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2438277813273086</v>
+        <v>0.1490776183454967</v>
       </c>
       <c r="N218" t="n">
-        <v>0.4162483501944896</v>
+        <v>0.3407265830401143</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2437078348268177</v>
+        <v>0.1489045355095462</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.07846960401121914</v>
+        <v>0.04199412655494307</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2446271634870902</v>
+        <v>0.04193155231036638</v>
       </c>
       <c r="J219" t="n">
-        <v>0.127070979605641</v>
+        <v>0.04199412655494307</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2453334661898721</v>
+        <v>0.04193155231036638</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2715120538054728</v>
+        <v>0.2204442534246296</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2454214269568988</v>
+        <v>0.1500519818640947</v>
       </c>
       <c r="N219" t="n">
-        <v>0.4164556023338194</v>
+        <v>0.3439637777866937</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2453006964923524</v>
+        <v>0.1498777677677786</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.07948301752062351</v>
+        <v>0.04083021486866879</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2462156515616817</v>
+        <v>0.04192519497840509</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1270938412680767</v>
+        <v>0.04083021486866879</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2469265406456506</v>
+        <v>0.04192519497840509</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2707612694822396</v>
+        <v>0.2180353138278207</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2470150725864891</v>
+        <v>0.1510263453826927</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4150302493135458</v>
+        <v>0.3412439291153744</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2468935581578871</v>
+        <v>0.1508510000260109</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.07249018632054377</v>
+        <v>0.03968007870632412</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2478041396362732</v>
+        <v>0.04191883764644379</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1271066409329611</v>
+        <v>0.03968007870632412</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2485196151014289</v>
+        <v>0.04191883764644379</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2721889700776248</v>
+        <v>0.217629572046437</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2486087182160794</v>
+        <v>0.1520007089012907</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4152719589717526</v>
+        <v>0.3435306864731149</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2484864198234219</v>
+        <v>0.1518242322842432</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.07447833375980806</v>
+        <v>0.03854411573406673</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2493926277108647</v>
+        <v>0.04191248031448249</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1272001757880637</v>
+        <v>0.03854411573406673</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2501126895572073</v>
+        <v>0.04191248031448249</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2699778265147624</v>
+        <v>0.218129707609904</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2502023638456696</v>
+        <v>0.1529750724198888</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4163492076931413</v>
+        <v>0.3413239545918784</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2500792814889566</v>
+        <v>0.1527974645424756</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.07331294255209911</v>
+        <v>0.03742272361805753</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2509811157854562</v>
+        <v>0.04190612298252119</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1268698059170781</v>
+        <v>0.03742272361805753</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2517057640129857</v>
+        <v>0.04190612298252119</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2702949068406887</v>
+        <v>0.2178301413776075</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2517960094752598</v>
+        <v>0.1539494359384868</v>
       </c>
       <c r="N223" t="n">
-        <v>0.4144895960379711</v>
+        <v>0.3414196048981164</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2516721431544914</v>
+        <v>0.1537706968007079</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.07297335978899175</v>
+        <v>0.03631630002445733</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2525696038600477</v>
+        <v>0.0418997656505599</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1258546708391418</v>
+        <v>0.03631630002445733</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2532988384687641</v>
+        <v>0.0418997656505599</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2687019959792462</v>
+        <v>0.2198310472483996</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2533896551048501</v>
+        <v>0.1549237994570848</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4124984456503807</v>
+        <v>0.3399176436162638</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2532650048200262</v>
+        <v>0.1547439290589402</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.07247914003435763</v>
+        <v>0.03522524261942395</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2541580919346392</v>
+        <v>0.04189340831859861</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1255864098469172</v>
+        <v>0.03522524261942395</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2548919129245425</v>
+        <v>0.04189340831859861</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2671667817220434</v>
+        <v>0.218832599121132</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2549833007344404</v>
+        <v>0.1558981629756828</v>
       </c>
       <c r="N225" t="n">
-        <v>0.411679305809442</v>
+        <v>0.342318076970754</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2548578664855609</v>
+        <v>0.1557171613171725</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.07684983785206846</v>
+        <v>0.03414994906911824</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2557465800092307</v>
+        <v>0.04188705098663731</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1247966622330665</v>
+        <v>0.03414994906911824</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2564849873803209</v>
+        <v>0.04188705098663731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2668569518606891</v>
+        <v>0.2186349708946568</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2565769463640306</v>
+        <v>0.1568725264942809</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4084357257942269</v>
+        <v>0.3431209111860216</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2564507281510957</v>
+        <v>0.1566903935754048</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.07010500780599588</v>
+        <v>0.03309081703969999</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2573350680838222</v>
+        <v>0.041880693654676</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1237170672902523</v>
+        <v>0.03309081703969999</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2580780618360993</v>
+        <v>0.041880693654676</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2626401941867919</v>
+        <v>0.2194383364678257</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2581705919936209</v>
+        <v>0.1578468900128789</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4025712548838069</v>
+        <v>0.3388261524865009</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2580435898166304</v>
+        <v>0.1576636258336372</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.07326420446001163</v>
+        <v>0.03204824419733002</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2589235561584136</v>
+        <v>0.04187433632271471</v>
       </c>
       <c r="J228" t="n">
-        <v>0.121579264311137</v>
+        <v>0.03204824419733002</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2596711362918777</v>
+        <v>0.04187433632271471</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2616841964919605</v>
+        <v>0.2197428697394909</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2597642376232111</v>
+        <v>0.1588212535314769</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3988894423572537</v>
+        <v>0.3424338070966259</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2596364514821652</v>
+        <v>0.1586368580918695</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.06934698237798731</v>
+        <v>0.03102262820816619</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2605120442330052</v>
+        <v>0.04186797899075342</v>
       </c>
       <c r="J229" t="n">
-        <v>0.120414892588383</v>
+        <v>0.03102262820816619</v>
       </c>
       <c r="K229" t="n">
-        <v>0.261264210747656</v>
+        <v>0.04186797899075342</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2565566465678032</v>
+        <v>0.2178487446085042</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2613578832528014</v>
+        <v>0.1597956170500749</v>
       </c>
       <c r="N229" t="n">
-        <v>0.395093837493639</v>
+        <v>0.3394438812408308</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2612293131477</v>
+        <v>0.1596100903501018</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.07237289612379469</v>
+        <v>0.03001436673836934</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2621005323075966</v>
+        <v>0.04186162165879212</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1190555914146526</v>
+        <v>0.03001436673836934</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2628572852034344</v>
+        <v>0.04186162165879212</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2534252322059289</v>
+        <v>0.2200561349737174</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2629515288823916</v>
+        <v>0.1607699805686729</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3889879895720345</v>
+        <v>0.3403563811435499</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2628221748132347</v>
+        <v>0.1605833226083342</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06836150026130539</v>
+        <v>0.02902385745410017</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2636890203821882</v>
+        <v>0.04185526432683082</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1169330000826083</v>
+        <v>0.02902385745410017</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2644503596592129</v>
+        <v>0.04185526432683082</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2495576411979459</v>
+        <v>0.2177652147339826</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2645451745119819</v>
+        <v>0.1617443440872709</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3829754478715118</v>
+        <v>0.3409713130292173</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2644150364787695</v>
+        <v>0.1615565548665665</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.06933234935439113</v>
+        <v>0.02805149802151671</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2652775084567796</v>
+        <v>0.04184890699486953</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1153787578849125</v>
+        <v>0.02805149802151671</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2660434341149913</v>
+        <v>0.04184890699486953</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2475215613354631</v>
+        <v>0.2177761577881516</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2661388201415721</v>
+        <v>0.162718707605869</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3775597616711429</v>
+        <v>0.3412886831222673</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2660078981443042</v>
+        <v>0.1625297871247988</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.06330499796692356</v>
+        <v>0.02709768610677968</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2668659965313712</v>
+        <v>0.04184254966290823</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1137245041142276</v>
+        <v>0.02709768610677968</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2676365085707696</v>
+        <v>0.04184254966290823</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2433846804100891</v>
+        <v>0.2190891380350763</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2677324657711624</v>
+        <v>0.163693071124467</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3735444802499993</v>
+        <v>0.3416084976471341</v>
       </c>
       <c r="O233" t="n">
-        <v>0.267600759809839</v>
+        <v>0.1635030193830312</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.07029900066277438</v>
+        <v>0.0261628193760489</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2684544846059626</v>
+        <v>0.04183619233094693</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1127018780632159</v>
+        <v>0.0261628193760489</v>
       </c>
       <c r="K234" t="n">
-        <v>0.269229583026548</v>
+        <v>0.04183619233094693</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2402146862134323</v>
+        <v>0.2184043293736089</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2693261114007526</v>
+        <v>0.164667434643065</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3686331528871525</v>
+        <v>0.3415307628282519</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2691936214753737</v>
+        <v>0.1644762516412635</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.06733391200581525</v>
+        <v>0.02524729549548506</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2700429726805542</v>
+        <v>0.04182983499898564</v>
       </c>
       <c r="J235" t="n">
-        <v>0.11074251902454</v>
+        <v>0.02524729549548506</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2708226574823264</v>
+        <v>0.04182983499898564</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2353792665371015</v>
+        <v>0.219521905702601</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2709197570303429</v>
+        <v>0.165641798161663</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3622293288616747</v>
+        <v>0.3401554848900548</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2707864831409085</v>
+        <v>0.1654494838994958</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.06442928655991791</v>
+        <v>0.02435151213124627</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2716314607551456</v>
+        <v>0.04182347766702434</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1093780662908621</v>
+        <v>0.02435151213124627</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2724157319381048</v>
+        <v>0.04182347766702434</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2321461091727052</v>
+        <v>0.2177420409209047</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2725134026599331</v>
+        <v>0.166616161680261</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3577365574526369</v>
+        <v>0.3380826700569771</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2723793448064433</v>
+        <v>0.1664227161577282</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.06160013552711732</v>
+        <v>0.02347586694949323</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2732199488297371</v>
+        <v>0.04181712033506304</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1076361536515488</v>
+        <v>0.02347586694949323</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2740088063938832</v>
+        <v>0.04181712033506304</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2317750675315407</v>
+        <v>0.2186649089273717</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2741070482895234</v>
+        <v>0.167590525198859</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3529448465122857</v>
+        <v>0.338712324553453</v>
       </c>
       <c r="O237" t="n">
-        <v>0.273972206471978</v>
+        <v>0.1673959484159605</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.06279035402244926</v>
+        <v>0.02262075761638652</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2748084369043286</v>
+        <v>0.04181076300310175</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1072338242292411</v>
+        <v>0.02262075761638652</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2756018808496616</v>
+        <v>0.04181076300310175</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2270910115991561</v>
+        <v>0.2183906836208542</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2757006939191136</v>
+        <v>0.1685648887174571</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3510813803228038</v>
+        <v>0.3388444546039167</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2755650681375127</v>
+        <v>0.1683691806741928</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05797758930993978</v>
+        <v>0.0217865817980844</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2763969249789201</v>
+        <v>0.04180440567114045</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1051266874821401</v>
+        <v>0.0217865817980844</v>
       </c>
       <c r="K239" t="n">
-        <v>0.27719495530544</v>
+        <v>0.04180440567114045</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2242966762556717</v>
+        <v>0.220019538900204</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2772943395487039</v>
+        <v>0.1695392522360551</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3461021777361579</v>
+        <v>0.3388790664328023</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2771579298030475</v>
+        <v>0.1693424129324251</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.06216179506410198</v>
+        <v>0.02097211335726157</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2779854130535116</v>
+        <v>0.04179804833917915</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1046146684555882</v>
+        <v>0.02097211335726157</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2787880297612184</v>
+        <v>0.04179804833917915</v>
       </c>
       <c r="L240" t="n">
-        <v>0.222191901146199</v>
+        <v>0.2201516486642731</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2788879851782942</v>
+        <v>0.1705136157546531</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3396069934402662</v>
+        <v>0.3386161662645442</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2787507914685823</v>
+        <v>0.1703156451906574</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.06134292495944883</v>
+        <v>0.02016800713916206</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2795739011281031</v>
+        <v>0.04179169100721786</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1031976921949276</v>
+        <v>0.02016800713916206</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2803811042169967</v>
+        <v>0.04179169100721786</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2206765259158496</v>
+        <v>0.2199871868119133</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2804816308078844</v>
+        <v>0.1714879792732511</v>
       </c>
       <c r="N241" t="n">
-        <v>0.3344955821230465</v>
+        <v>0.3398557603235761</v>
       </c>
       <c r="O241" t="n">
-        <v>0.280343653134117</v>
+        <v>0.1712888774488898</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05552093267049342</v>
+        <v>0.01937303700646052</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2811623892026946</v>
+        <v>0.04178533367525656</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1010756837455008</v>
+        <v>0.01937303700646052</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2819741786727751</v>
+        <v>0.04178533367525656</v>
       </c>
       <c r="L242" t="n">
-        <v>0.216350390209735</v>
+        <v>0.2205263272419765</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2820752764374747</v>
+        <v>0.1724623427918491</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3333676984724169</v>
+        <v>0.3412978548343328</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2819365147996518</v>
+        <v>0.1722621097071221</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05669577187174873</v>
+        <v>0.01858760062531532</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2827508772772861</v>
+        <v>0.04177897634329526</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1000485681526503</v>
+        <v>0.01858760062531532</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2835672531285535</v>
+        <v>0.04177897634329526</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2131133336729667</v>
+        <v>0.2188692438533147</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2836689220670649</v>
+        <v>0.1734367063104471</v>
       </c>
       <c r="N243" t="n">
-        <v>0.329123097176295</v>
+        <v>0.3386424560212484</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2835293764651866</v>
+        <v>0.1732353419653545</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05986739623772788</v>
+        <v>0.01781209566188699</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2843393653518776</v>
+        <v>0.04177261901133397</v>
       </c>
       <c r="J244" t="n">
-        <v>0.09881627046171827</v>
+        <v>0.01781209566188699</v>
       </c>
       <c r="K244" t="n">
-        <v>0.285160327584332</v>
+        <v>0.04177261901133397</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2102651959506565</v>
+        <v>0.2180161105447799</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2852625676966551</v>
+        <v>0.1744110698290451</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3217615329225987</v>
+        <v>0.3397895701087569</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2851222381307213</v>
+        <v>0.1742085742235868</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05803575944294385</v>
+        <v>0.01704691978233606</v>
       </c>
       <c r="G245" t="n">
-        <v>0.285927853426469</v>
+        <v>0.04176626167937268</v>
       </c>
       <c r="J245" t="n">
-        <v>0.09697871571804735</v>
+        <v>0.01704691978233606</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2867534020401103</v>
+        <v>0.04176626167937268</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2093058166879158</v>
+        <v>0.2190671012152239</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2868562133262454</v>
+        <v>0.1753854333476432</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3192827603992463</v>
+        <v>0.3387392033212924</v>
       </c>
       <c r="O245" t="n">
-        <v>0.286715099796256</v>
+        <v>0.1751818064818191</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05420081516190967</v>
+        <v>0.01629247065282097</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2875163415010606</v>
+        <v>0.04175990434741137</v>
       </c>
       <c r="J246" t="n">
-        <v>0.09593582896697971</v>
+        <v>0.01629247065282097</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2883464764958887</v>
+        <v>0.04175990434741137</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2038350355298562</v>
+        <v>0.2196223897634986</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2884498589558357</v>
+        <v>0.1763597968662412</v>
       </c>
       <c r="N246" t="n">
-        <v>0.3147865342941552</v>
+        <v>0.3385913618832895</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2883079614617908</v>
+        <v>0.1761550387400514</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05736251706913841</v>
+        <v>0.01554914593950223</v>
       </c>
       <c r="G247" t="n">
-        <v>0.289104829575652</v>
+        <v>0.04175354701545007</v>
       </c>
       <c r="J247" t="n">
-        <v>0.09458753525385784</v>
+        <v>0.01554914593950223</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2899395509516671</v>
+        <v>0.04175354701545007</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2032526921215894</v>
+        <v>0.2190821500884561</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2900435045854259</v>
+        <v>0.1773341603848392</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3080726092952438</v>
+        <v>0.341246052019182</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2899008231273255</v>
+        <v>0.1771282709982838</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05452081883914305</v>
+        <v>0.01481734330853968</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2906933176502435</v>
+        <v>0.04174718968348878</v>
       </c>
       <c r="J248" t="n">
-        <v>0.09273375962402415</v>
+        <v>0.01481734330853968</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2915326254074455</v>
+        <v>0.04174718968348878</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1995586261082269</v>
+        <v>0.2182465560889482</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2916371502150162</v>
+        <v>0.1783085239034372</v>
       </c>
       <c r="N248" t="n">
-        <v>0.3039407400904296</v>
+        <v>0.3412032799534045</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2914936847928603</v>
+        <v>0.1781015032565161</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05267567414643669</v>
+        <v>0.01409746042609379</v>
       </c>
       <c r="G249" t="n">
-        <v>0.292281805724835</v>
+        <v>0.04174083235152749</v>
       </c>
       <c r="J249" t="n">
-        <v>0.09257442712282092</v>
+        <v>0.01409746042609379</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2931256998632239</v>
+        <v>0.04174083235152749</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1958526771348804</v>
+        <v>0.2185157816638267</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2932307958446064</v>
+        <v>0.1792828874220352</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3020906813676308</v>
+        <v>0.3395630519103907</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2930865464583951</v>
+        <v>0.1790747355147484</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05282703666553232</v>
+        <v>0.01338989495832309</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2938702937994265</v>
+        <v>0.04173447501956619</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0908094627955907</v>
+        <v>0.01338989495832309</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2947187743190022</v>
+        <v>0.04173447501956619</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1949346848466612</v>
+        <v>0.2196900007119437</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2948244414741967</v>
+        <v>0.1802572509406332</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2973221878147653</v>
+        <v>0.3399253741145752</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2946794081239298</v>
+        <v>0.1800479677729807</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04897486007094301</v>
+        <v>0.01269504457138802</v>
       </c>
       <c r="G251" t="n">
-        <v>0.295458781874018</v>
+        <v>0.04172811768760489</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0894387916876757</v>
+        <v>0.01269504457138802</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2963118487747806</v>
+        <v>0.04172811768760489</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1919044888886811</v>
+        <v>0.2189693871321511</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2964180871037869</v>
+        <v>0.1812316144592313</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2928350141197509</v>
+        <v>0.3413902527903921</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2962722697894646</v>
+        <v>0.1810212000312131</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05111909803718179</v>
+        <v>0.01201330693144907</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2970472699486095</v>
+        <v>0.04172176035564359</v>
       </c>
       <c r="J252" t="n">
-        <v>0.08816233884441842</v>
+        <v>0.01201330693144907</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2979049232305591</v>
+        <v>0.04172176035564359</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1871619289060516</v>
+        <v>0.2203541148233008</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2980117327333772</v>
+        <v>0.1822059779778293</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2875289149705055</v>
+        <v>0.3377576941622755</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2978651314549993</v>
+        <v>0.1819944322894454</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04725970423876169</v>
+        <v>0.01134507970466481</v>
       </c>
       <c r="G253" t="n">
-        <v>0.298635758023201</v>
+        <v>0.0417154030236823</v>
       </c>
       <c r="J253" t="n">
-        <v>0.08668002931116119</v>
+        <v>0.01134507970466481</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2994979976863374</v>
+        <v>0.0417154030236823</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1852068445438844</v>
+        <v>0.2208443576842447</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2996053783629675</v>
+        <v>0.1831803414964273</v>
       </c>
       <c r="N253" t="n">
-        <v>0.281303645054947</v>
+        <v>0.3397277044546597</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2994579931205341</v>
+        <v>0.1829676645476777</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.04739663235019573</v>
+        <v>0.01069076055719567</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3002242460977925</v>
+        <v>0.041709045691721</v>
       </c>
       <c r="J254" t="n">
-        <v>0.08509178813324648</v>
+        <v>0.01069076055719567</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3010910721421158</v>
+        <v>0.041709045691721</v>
       </c>
       <c r="L254" t="n">
-        <v>0.181039075447291</v>
+        <v>0.2205402896138348</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3011990239925577</v>
+        <v>0.1841547050150253</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2781589590609933</v>
+        <v>0.3379002898919793</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3010508547860689</v>
+        <v>0.1839408968059101</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04552983604599699</v>
+        <v>0.0100507471552015</v>
       </c>
       <c r="G255" t="n">
-        <v>0.301812734172384</v>
+        <v>0.0417026883597597</v>
       </c>
       <c r="J255" t="n">
-        <v>0.08359754035601656</v>
+        <v>0.0100507471552015</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3026841465978942</v>
+        <v>0.0417026883597597</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1787584612613827</v>
+        <v>0.2212420845109229</v>
       </c>
       <c r="M255" t="n">
-        <v>0.302792669622148</v>
+        <v>0.1851290685336233</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2757946116765625</v>
+        <v>0.3411754566986677</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3026437164516036</v>
+        <v>0.1849141290641424</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04465926900067844</v>
+        <v>0.009425437164842704</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3034012222469755</v>
+        <v>0.04169633102779841</v>
       </c>
       <c r="J256" t="n">
-        <v>0.08209721102481397</v>
+        <v>0.009425437164842704</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3042772210536726</v>
+        <v>0.04169633102779841</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1765648416312717</v>
+        <v>0.219349916274361</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3043863152517381</v>
+        <v>0.1861034320522214</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2674103575895723</v>
+        <v>0.3401532110991594</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3042365781171384</v>
+        <v>0.1858873613223747</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04678488488875321</v>
+        <v>0.008815228252277929</v>
       </c>
       <c r="G257" t="n">
-        <v>0.304989710321567</v>
+        <v>0.04168997369583711</v>
       </c>
       <c r="J257" t="n">
-        <v>0.08119072518498095</v>
+        <v>0.008815228252277929</v>
       </c>
       <c r="K257" t="n">
-        <v>0.305870295509451</v>
+        <v>0.04168997369583711</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1720580562020691</v>
+        <v>0.220563958803001</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3059799608813284</v>
+        <v>0.1870777955708194</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2646059514879406</v>
+        <v>0.3403335593178888</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3058294397826731</v>
+        <v>0.1868605935806071</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.04190663738473423</v>
+        <v>0.008220518083667611</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3065781983961585</v>
+        <v>0.04168361636387581</v>
       </c>
       <c r="J258" t="n">
-        <v>0.07897800788185995</v>
+        <v>0.008220518083667611</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3074633699652294</v>
+        <v>0.04168361636387581</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1695379446188865</v>
+        <v>0.2191843859956948</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3075736065109187</v>
+        <v>0.1880521590894174</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2588811480595857</v>
+        <v>0.3373165075792899</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3074223014482079</v>
+        <v>0.1878338258388394</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.04202448016313465</v>
+        <v>0.007641704325172069</v>
       </c>
       <c r="G259" t="n">
-        <v>0.30816668647075</v>
+        <v>0.04167725903191452</v>
       </c>
       <c r="J259" t="n">
-        <v>0.07745898416079337</v>
+        <v>0.007641704325172069</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3090564444210078</v>
+        <v>0.04167725903191452</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1654043465268358</v>
+        <v>0.2197113717512943</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3091672521405089</v>
+        <v>0.1890265226080154</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2560357019924249</v>
+        <v>0.3386020621077971</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3090151631137427</v>
+        <v>0.1888070580970717</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0431383668984674</v>
+        <v>0.00707918464295007</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3097551745453415</v>
+        <v>0.04167090169995322</v>
       </c>
       <c r="J260" t="n">
-        <v>0.07663357906712358</v>
+        <v>0.00707918464295007</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3106495188767862</v>
+        <v>0.04167090169995322</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1640571015710282</v>
+        <v>0.2195450899686517</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3107608977700992</v>
+        <v>0.1900008861266134</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2512693679743766</v>
+        <v>0.3391902291278445</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3106080247792773</v>
+        <v>0.189780290355304</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03924825126524557</v>
+        <v>0.006533356703162005</v>
       </c>
       <c r="G261" t="n">
-        <v>0.311343662619933</v>
+        <v>0.04166454436799192</v>
       </c>
       <c r="J261" t="n">
-        <v>0.07480171764619294</v>
+        <v>0.006533356703162005</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3122425933325646</v>
+        <v>0.04166454436799192</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1598960493965755</v>
+        <v>0.2205857145466185</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3123545433996894</v>
+        <v>0.1909752496452115</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2475819006933584</v>
+        <v>0.3405810148638662</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3122008864448121</v>
+        <v>0.1907535226135363</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04135408693798222</v>
+        <v>0.006004618171967679</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3129321506945245</v>
+        <v>0.04165818703603062</v>
       </c>
       <c r="J262" t="n">
-        <v>0.07346332494334391</v>
+        <v>0.006004618171967679</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3138356677883429</v>
+        <v>0.04165818703603062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1578210296485892</v>
+        <v>0.2198334193840469</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3139481890292797</v>
+        <v>0.1919496131638095</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2402730548372884</v>
+        <v>0.3385744255402965</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3137937481103469</v>
+        <v>0.1917267548717687</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.04045582759119035</v>
+        <v>0.005493366715527387</v>
       </c>
       <c r="G263" t="n">
-        <v>0.314520638769116</v>
+        <v>0.04165182970406933</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0729183260039188</v>
+        <v>0.005493366715527387</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3154287422441213</v>
+        <v>0.04165182970406933</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1548318819721811</v>
+        <v>0.2203883783797887</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3155418346588699</v>
+        <v>0.1929239766824075</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2379425850940845</v>
+        <v>0.3372704673815696</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3153866097758817</v>
+        <v>0.192699987130001</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04255342689938298</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3161091268437075</v>
+        <v>0.04164547237210803</v>
       </c>
       <c r="J264" t="n">
-        <v>0.07106664587326005</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3170218166998997</v>
+        <v>0.04164547237210803</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1522284460124623</v>
+        <v>0.2223507654326958</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3171354802884602</v>
+        <v>0.1938983402010055</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2312902461516647</v>
+        <v>0.3401691466121197</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3169794714414164</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1936732193882333</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04163231447737119</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04163231447737119</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006166869220285726</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04163258300583521</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006166869220285726</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04163258300583521</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.007327875351484298</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04163285153429923</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.007327875351484298</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04163285153429923</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.008482960153564242</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04163312006276324</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.008482960153564242</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04163312006276324</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.009632065386594946</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04163338859122726</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.009632065386594946</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04163338859122726</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01077513281054547</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04163365711969128</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01077513281054547</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04163365711969128</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01191210418548463</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0416339256481553</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01191210418548463</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0416339256481553</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01304292127138205</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04163419417661931</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01304292127138205</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04163419417661931</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01416752582830602</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04163446270508333</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01416752582830602</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04163446270508333</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01528585961622667</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04163473123354735</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01528585961622667</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04163473123354735</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01639786439521175</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04163499976201137</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.01639786439521175</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04163499976201137</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01750348192523195</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04163526829047538</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01750348192523195</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04163526829047538</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01860265396635448</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0416355368189394</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01860265396635448</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0416355368189394</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01969532227855059</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04163580534740342</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01969532227855059</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04163580534740342</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02078142862188689</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04163607387586744</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02078142862188689</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04163607387586744</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.02186091475633521</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04163634240433145</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.02186091475633521</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04163634240433145</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.02293372244196162</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04163661093279547</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.02293372244196162</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04163661093279547</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0239997934387385</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04163687946125948</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.0239997934387385</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04163687946125948</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02505906950670836</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0416371479897235</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02505906950670836</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0416371479897235</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02611149240591309</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04163741651818752</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02611149240591309</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04163741651818752</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.027157003896326</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04163768504665153</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.027157003896326</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04163768504665153</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02819554573801168</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04163795357511555</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.02819554573801168</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04163795357511555</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02922705969094397</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04163822210357957</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.02922705969094397</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04163822210357957</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.03025148751518689</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04163849063204359</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.03025148751518689</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04163849063204359</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0312687709707149</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0416387591605076</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.0312687709707149</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0416387591605076</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.03227908963084682</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04163902768897162</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.03227908963084682</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04163902768897162</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0332838121350902</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04163929621743564</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0332838121350902</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04163929621743564</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.03428311805676325</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04163956474589966</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.03428311805676325</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04163956474589966</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.03527694915584158</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04163983327436367</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.03527694915584158</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04163983327436367</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.03626524719238751</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04164010180282769</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.03626524719238751</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04164010180282769</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.03724795392637714</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04164037033129171</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.03724795392637714</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04164037033129171</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03822501111787228</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04164063885975573</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.03822501111787228</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04164063885975573</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03919636052684952</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04164090738821974</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.03919636052684952</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04164090738821974</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.04016194391334926</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04164117591668376</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.04016194391334926</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04164117591668376</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.04112170303741142</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04164144444514778</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.04112170303741142</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04164144444514778</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.04207557965901328</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04164171297361179</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.04207557965901328</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04164171297361179</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.04302351553821546</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04164198150207581</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.04302351553821546</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04164198150207581</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.04396545243499576</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04164225003053983</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.04396545243499576</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04164225003053983</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0449013321094143</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04164251855900385</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.0449013321094143</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04164251855900385</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0458310963214494</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04164278708746786</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.0458310963214494</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04164278708746786</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.04675468683116062</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04164305561593188</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.04675468683116062</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04164305561593188</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.04767204539852683</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04164332414439589</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.04767204539852683</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04164332414439589</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.04858311378360705</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04164359267285991</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.04858311378360705</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04164359267285991</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.04948783374638072</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04164386120132393</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.04948783374638072</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04164386120132393</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0503861470469063</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04164412972978795</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.0503861470469063</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04164412972978795</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.05127799544516375</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04164439825825197</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.05127799544516375</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04164439825825197</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.05216332070121096</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04164466678671599</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.05216332070121096</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04164466678671599</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.05304206457502852</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04164493531518</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.05304206457502852</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04164493531518</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.05391416882667376</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04164520384364402</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.05391416882667376</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04164520384364402</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.05477957521612777</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04164547237210803</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.05477957521612777</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04164547237210803</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.05477957521612777</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04163231447737119</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.05477957521612777</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04163231447737119</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.05583557028391262</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04163920886626053</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.05583557028391262</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04163920886626053</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.05688338417188944</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04164610325514986</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.05688338417188944</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04164610325514986</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.05792286106467293</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04165299764403919</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.05792286106467293</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04165299764403919</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.05895384514687507</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04165989203292852</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.05895384514687507</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04165989203292852</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.05997618060310797</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04166678642181785</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.05997618060310797</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04166678642181785</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.06098971161798618</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04167368081070718</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.06098971161798618</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04167368081070718</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.06199428237612183</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04168057519959651</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.06199428237612183</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04168057519959651</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.06298973706212692</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04168746958848584</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.06298973706212692</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04168746958848584</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.06397591986061606</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04169436397737517</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.06397591986061606</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04169436397737517</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.06495267495620131</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0417012583662645</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.06495267495620131</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.0417012583662645</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.06591984653349479</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04170815275515383</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.06591984653349479</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04170815275515383</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.06687727877711104</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04171504714404316</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.06687727877711104</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04171504714404316</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0678248158716613</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0417219415329325</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.0678248158716613</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.0417219415329325</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.06876230200176013</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04172883592182183</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.06876230200176013</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04172883592182183</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.06968958135201959</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04173573031071116</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.06968958135201959</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04173573031071116</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.07060649810705187</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04174262469960049</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.07060649810705187</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04174262469960049</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.07151289645147139</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04174951908848982</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.07151289645147139</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04174951908848982</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.07240862056989027</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04175641347737915</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.07240862056989027</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04175641347737915</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.07329351464692073</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04176330786626848</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.07329351464692073</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04176330786626848</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0741674228671771</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04177020225515781</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.0741674228671771</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04177020225515781</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.07503018941527161</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04177709664404714</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.07503018941527161</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04177709664404714</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.07588165847581636</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04178399103293647</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.07588165847581636</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04178399103293647</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.07672167423342575</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0417908854218258</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.07672167423342575</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.0417908854218258</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.07755008087271199</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04179777981071514</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.07755008087271199</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04179777981071514</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.07836735882445121</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04180467419960446</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.07836735882445121</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04180467419960446</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.07917716975024151</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0418115685884938</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.07917716975024151</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.0418115685884938</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.07997999408085905</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04181846297738313</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.07997999408085905</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04181846297738313</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.08077567600091605</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04182535736627246</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.08077567600091605</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04182535736627246</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.08156405969502679</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04183225175516179</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.08156405969502679</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04183225175516179</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.08234498934780347</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04183914614405113</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.08234498934780347</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04183914614405113</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.08311830914385836</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04184604053294045</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.08311830914385836</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04184604053294045</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.08388386326780568</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04185293492182979</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.08388386326780568</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04185293492182979</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.08464149590425769</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04185982931071912</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.08464149590425769</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04185982931071912</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.08539105123782666</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04186672369960844</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.08539105123782666</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04186672369960844</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.08613237345312676</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04187361808849778</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.08613237345312676</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04187361808849778</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.08686530673477026</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04188051247738711</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.08686530673477026</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04188051247738711</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.08758969526736941</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04188740686627643</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.08758969526736941</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04188740686627643</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.08830538323553848</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04189430125516577</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.08830538323553848</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04189430125516577</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.08901221482388903</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0419011956440551</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.08901221482388903</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.0419011956440551</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0897100342170352</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04190809003294443</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.0897100342170352</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04190809003294443</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.09039868559958937</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04191498442183376</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.09039868559958937</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04191498442183376</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.09107801315616372</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04192187881072309</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.09107801315616372</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04192187881072309</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.09174786107137246</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04192877319961243</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.09174786107137246</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04192877319961243</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0924080735298279</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04193566758850176</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.0924080735298279</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04193566758850176</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.09305849471614229</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04194256197739108</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.09305849471614229</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04194256197739108</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.09369896881492977</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04194945636628042</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.09369896881492977</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04194945636628042</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.09432934001080258</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04195635075516975</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.09432934001080258</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04195635075516975</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.09494945248837318</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04196324514405908</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.09494945248837318</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04196324514405908</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.0955591504322555</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04197013953294841</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.0955591504322555</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04197013953294841</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.0955591504322555</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04197013953294841</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.0955591504322555</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04197013953294841</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.09392099130439331</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04515056588160751</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.09392099130439331</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04515056588160751</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.09247444518852919</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0483309922302666</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.09247444518852919</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0483309922302666</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.09120821806816386</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0515114185789257</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.09120821806816386</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.0515114185789257</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.09011101592679797</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0546918449275848</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.09011101592679797</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.0546918449275848</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0891715447479323</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05787227127624388</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.0891715447479323</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05787227127624388</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.08837851051506752</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06105269762490298</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.08837851051506752</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06105269762490298</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08772061921170439</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06423312397356208</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.08772061921170439</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06423312397356208</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08718657682134358</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06741355032222118</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.08718657682134358</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06741355032222118</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08676508932748582</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07059397667088027</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.08676508932748582</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07059397667088027</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08644486271363185</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07377440301953937</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.08644486271363185</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07377440301953937</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08621460296328233</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07695482936819847</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.08621460296328233</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07695482936819847</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08606301605993801</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08013525571685758</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.08606301605993801</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08013525571685758</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08597880798709957</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08331568206551665</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.08597880798709957</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08331568206551665</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08595068472826779</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08649610841417575</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.08595068472826779</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08649610841417575</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08623205212126038</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08967653476283484</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.08623205212126038</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.08967653476283484</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08707421016558163</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09285696111149394</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.08707421016558163</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09285696111149394</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.088296121448512</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09603738746015304</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.088296121448512</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09603738746015304</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08971414034302212</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09921781380881213</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.08971414034302212</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.09921781380881213</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09114462122208271</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1023982401574712</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.09114462122208271</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1023982401574712</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09240391845866446</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1055786665061303</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.09240391845866446</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1055786665061303</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09330838642573806</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1087590928547894</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.09330838642573806</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1087590928547894</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09367437949627418</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1119395192034485</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.09367437949627418</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1119395192034485</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09351133149930789</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1151199455521076</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.09351133149930789</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1151199455521076</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09300539885879407</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1183003719007667</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.09300539885879407</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1183003719007667</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09218849465903829</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1214807982494258</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.09218849465903829</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1214807982494258</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0910921071026843</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1246612245980849</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.0910921071026843</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1246612245980849</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08974772439237581</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.127841650946744</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.08974772439237581</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.127841650946744</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08818683473075663</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1310220772954031</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.08818683473075663</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1310220772954031</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.08644092632047042</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1342025036440622</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.08644092632047042</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1342025036440622</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08454148736416102</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1373829299927213</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.08454148736416102</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1373829299927213</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0825200060644722</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1405633563413804</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.0825200060644722</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1405633563413804</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0804079706240476</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1437437826900395</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.0804079706240476</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1437437826900395</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.07823686924553104</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1469242090386986</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.07823686924553104</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1469242090386986</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.07584645333581501</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.07584645333581501</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07172949948840075</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1532850617360168</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.07172949948840075</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1532850617360168</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.06713145892481572</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1564654880846759</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.06713145892481572</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1564654880846759</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.06402497886789908</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.159645914433335</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.06402497886789908</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.159645914433335</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06364226717753634</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.162826340781994</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.06364226717753634</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.162826340781994</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06366539506069106</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1660067671306532</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.06366539506069106</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1660067671306532</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.06371186254249163</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1691871934793122</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.06371186254249163</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1691871934793122</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.06378326004427311</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1723676198279713</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.06378326004427311</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1723676198279713</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.06388117798737052</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1755480461766304</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.06388117798737052</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1755480461766304</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.06400720679311898</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1787284725252895</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.06400720679311898</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1787284725252895</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0641629368828535</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1819088988739486</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0641629368828535</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1819088988739486</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0643499586779092</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1850893252226077</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.0643499586779092</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1850893252226077</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.06469481316418497</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1882697515712668</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.06469481316418497</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1882697515712668</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.06632380328394476</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1914501779199259</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.06632380328394476</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1914501779199259</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.06860954585234703</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.194630604268585</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.06860954585234703</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.194630604268585</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07043383162552595</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1978110306172441</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.07043383162552595</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.1978110306172441</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0717414717042278</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2009914569659032</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.0717414717042278</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2009914569659032</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07292078225921904</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2041718833145623</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.07292078225921904</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2041718833145623</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07400742503171047</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2073523096632214</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.07400742503171047</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2073523096632214</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07503706176291304</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2105327360118805</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.07503706176291304</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2105327360118805</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07604535419403764</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2137131623605396</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.07604535419403764</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2137131623605396</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.07705451491231134</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2168935887091987</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.07705451491231134</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2168935887091987</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.07795434210893569</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2200740150578578</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.07795434210893569</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2200740150578578</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.07880751260210629</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2232544414065169</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.07880751260210629</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2232544414065169</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.07973497175590551</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.226434867755176</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.07973497175590551</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.226434867755176</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08085766493441567</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.229615294103835</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.08085766493441567</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.229615294103835</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08237369633565432</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2327957204524941</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.08237369633565432</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2327957204524941</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08437301341054422</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2359761468011532</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.08437301341054422</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2359761468011532</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.08679013158161548</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2391565731498123</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.08679013158161548</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2391565731498123</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.08955941542785263</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2423369994984714</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.08955941542785263</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2423369994984714</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09261522952824007</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2455174258471305</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.09261522952824007</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2455174258471305</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09589193846176224</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2486978521957896</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.09589193846176224</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2486978521957896</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09932390680740365</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2518782785444487</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.09932390680740365</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2518782785444487</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1028454991441487</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2550587048931078</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1028454991441487</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2550587048931078</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1063910800509819</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2582391312417669</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1063910800509819</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2582391312417669</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1098950141068877</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.261419557590426</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1098950141068877</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.261419557590426</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1132916658908505</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2645999839390851</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1132916658908505</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2645999839390851</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1165153999818548</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2677804102877442</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1165153999818548</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2677804102877442</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1195005809588851</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2709608366364033</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1195005809588851</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2709608366364033</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1221815734009257</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2741412629850624</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1221815734009257</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2741412629850624</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1244927418869613</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2773216893337215</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1244927418869613</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2773216893337215</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1263684509959761</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2805021156823805</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1263684509959761</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2805021156823805</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1277430653069548</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2836825420310397</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1277430653069548</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2836825420310397</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.128745533909674</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2868629683796988</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.128745533909674</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2868629683796988</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.128609241234799</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2900433947283578</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.128609241234799</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2900433947283578</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1253018123283882</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2932238210770169</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1253018123283882</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2932238210770169</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.118479835313137</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2964042474256761</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.118479835313137</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2964042474256761</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1093545789145841</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2995846737743351</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1093545789145841</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.2995846737743351</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09913731185826861</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3027651001229942</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.09913731185826861</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3027651001229942</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.08903930286972926</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3059455264716534</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.08903930286972926</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3059455264716534</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0802718206745049</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3091259528203125</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.0802718206745049</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3091259528203125</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.07404613399813441</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3123063791689715</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.07404613399813441</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3123063791689715</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.07069316488107678</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3154868055176306</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.07069316488107678</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3154868055176306</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0677184142228454</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3186672318662898</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.0677184142228454</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3186672318662898</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.06487995922803001</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3218476582149488</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.06487995922803001</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3218476582149488</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.06219549439591875</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3250280845636079</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.06219549439591875</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3250280845636079</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.05968271422579983</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.328208510912267</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.05968271422579983</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.328208510912267</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.05735931321696133</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3313889372609261</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.05735931321696133</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3313889372609261</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0552429858686914</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3345693636095852</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.0552429858686914</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3345693636095852</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.05335142668027816</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3377497899582443</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.05335142668027816</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3377497899582443</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.05170233015100978</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3409302163069034</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.05170233015100978</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3409302163069034</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.05031339078017437</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3441106426555625</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.05031339078017437</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3441106426555625</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.04920230306706005</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3472910690042216</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.04920230306706005</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3472910690042216</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.048386761510955</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3504714953528807</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.048386761510955</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3504714953528807</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04788446061114733</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3536519217015398</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.04788446061114733</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3536519217015398</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04771309486692521</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3568323480501989</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.04771309486692521</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3568323480501989</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
